--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>943586.5969138499</v>
+        <v>960959.463761444</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2781523.791147223</v>
+        <v>2781523.791147226</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8485521.320109606</v>
+        <v>8485521.320109604</v>
       </c>
     </row>
     <row r="11">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
       <c r="D2" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>150.3682556016819</v>
+        <v>199.43425559873</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>199.43425559873</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>3.852585821054341</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13.00649323634492</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.07608431958149595</v>
       </c>
     </row>
     <row r="4">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.98410390465</v>
+        <v>199.43425559873</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
       <c r="W5" t="n">
-        <v>199.4342555987303</v>
+        <v>0.4991376605318371</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>85.55715807201746</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>37.57158384189286</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>196.410795678073</v>
       </c>
       <c r="F8" t="n">
-        <v>187.98410390465</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>199.43425559873</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>162.4012682936904</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>8.403001103583017</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,13 +1260,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>175.6616923313617</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>199.4342555987304</v>
+        <v>199.43425559873</v>
       </c>
       <c r="G11" t="n">
-        <v>199.4342555987304</v>
+        <v>199.43425559873</v>
       </c>
       <c r="H11" t="n">
-        <v>199.4342555987304</v>
+        <v>199.43425559873</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>23.73037608650009</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>19.07044969883856</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>98.21258221349139</v>
       </c>
       <c r="U12" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,10 +1546,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>52.10844059186266</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
       <c r="E14" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>199.4342555987304</v>
+        <v>199.43425559873</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
       <c r="H14" t="n">
-        <v>121.18328975655</v>
+        <v>23.73037608650003</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>19.07044969883856</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>199.4342555987304</v>
+        <v>47.88520659997481</v>
       </c>
       <c r="W15" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>104.5113366705979</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1980,7 +1980,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>50.43151777216858</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2044,19 +2044,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>152.4160434637383</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>156.5638745616931</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>40.34437900655296</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,22 +2321,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>355.5467565582655</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>197.8418203537989</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>92.00803688215785</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>71.38614710919123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>47.2569236292977</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>334.5817096732195</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2725,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>178.624424363493</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.68157701938528</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>26.94389492651069</v>
+        <v>119.6167587704813</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2992,19 +2992,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>7.744651378236042</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>3.493913787960455</v>
+        <v>22.92669617404118</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3086,16 +3086,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>13.96214174992418</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>38.41752077312813</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>53.56970526848153</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>171.6868869030085</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>105.3148082618167</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>349.339709230017</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>43.31785343913975</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>33.20988753395282</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="D41" t="n">
-        <v>199.4342555987304</v>
+        <v>175.6616923313613</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>175.6616923313617</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>175.6616923313617</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>199.4342555987304</v>
+        <v>178.2061855316422</v>
       </c>
       <c r="X42" t="n">
-        <v>199.4342555987304</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.4342555987304</v>
+        <v>199.4342555987299</v>
       </c>
     </row>
     <row r="43">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>69.14137556601798</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>199.4342555987304</v>
+        <v>171.7498680634315</v>
       </c>
       <c r="W43" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>175.6616923313617</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>175.6616923313613</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>77.64344043523846</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>175.6616923313613</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="W45" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>141.512714601384</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="U46" t="n">
-        <v>69.14137556601804</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.6454070266943</v>
+        <v>632.3709587820424</v>
       </c>
       <c r="C2" t="n">
-        <v>787.6454070266943</v>
+        <v>430.9222157530222</v>
       </c>
       <c r="D2" t="n">
-        <v>586.1966639976738</v>
+        <v>430.9222157530222</v>
       </c>
       <c r="E2" t="n">
-        <v>384.7479209686533</v>
+        <v>430.9222157530222</v>
       </c>
       <c r="F2" t="n">
-        <v>232.8607940982675</v>
+        <v>229.473472724002</v>
       </c>
       <c r="G2" t="n">
-        <v>217.403483476919</v>
+        <v>28.02472969498175</v>
       </c>
       <c r="H2" t="n">
-        <v>217.403483476919</v>
+        <v>28.02472969498175</v>
       </c>
       <c r="I2" t="n">
-        <v>15.95474044789843</v>
+        <v>28.02472969498175</v>
       </c>
       <c r="J2" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K2" t="n">
-        <v>118.9697463588208</v>
+        <v>73.58639458212795</v>
       </c>
       <c r="L2" t="n">
-        <v>299.0455979434794</v>
+        <v>253.6622461667865</v>
       </c>
       <c r="M2" t="n">
-        <v>496.4855109862224</v>
+        <v>451.1021592095292</v>
       </c>
       <c r="N2" t="n">
-        <v>558.8820169602224</v>
+        <v>648.542072252272</v>
       </c>
       <c r="O2" t="n">
-        <v>708.0769671028704</v>
+        <v>797.73702239492</v>
       </c>
       <c r="P2" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="Q2" t="n">
-        <v>787.6454070266943</v>
+        <v>787.645407026693</v>
       </c>
       <c r="R2" t="n">
-        <v>787.6454070266943</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="S2" t="n">
-        <v>787.6454070266943</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="T2" t="n">
-        <v>787.6454070266943</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="U2" t="n">
-        <v>787.6454070266943</v>
+        <v>632.3709587820424</v>
       </c>
       <c r="V2" t="n">
-        <v>787.6454070266943</v>
+        <v>632.3709587820424</v>
       </c>
       <c r="W2" t="n">
-        <v>787.6454070266943</v>
+        <v>632.3709587820424</v>
       </c>
       <c r="X2" t="n">
-        <v>787.6454070266943</v>
+        <v>632.3709587820424</v>
       </c>
       <c r="Y2" t="n">
-        <v>787.6454070266943</v>
+        <v>632.3709587820424</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>797.7370223949214</v>
+        <v>427.9960894977697</v>
       </c>
       <c r="C3" t="n">
-        <v>623.2839931137944</v>
+        <v>253.5430602166427</v>
       </c>
       <c r="D3" t="n">
-        <v>474.3495834525431</v>
+        <v>253.5430602166427</v>
       </c>
       <c r="E3" t="n">
-        <v>315.1121284470876</v>
+        <v>253.5430602166427</v>
       </c>
       <c r="F3" t="n">
-        <v>168.5775704739726</v>
+        <v>107.0085022435276</v>
       </c>
       <c r="G3" t="n">
-        <v>29.84674505658811</v>
+        <v>107.0085022435276</v>
       </c>
       <c r="H3" t="n">
-        <v>16.70887310068414</v>
+        <v>107.0085022435276</v>
       </c>
       <c r="I3" t="n">
-        <v>16.70887310068414</v>
+        <v>16.70887310068412</v>
       </c>
       <c r="J3" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K3" t="n">
-        <v>141.3123005057358</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="L3" t="n">
-        <v>141.3123005057358</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7522135484788</v>
+        <v>150.8191601827544</v>
       </c>
       <c r="N3" t="n">
-        <v>536.1921265912218</v>
+        <v>348.2590732254972</v>
       </c>
       <c r="O3" t="n">
-        <v>733.6320396339648</v>
+        <v>545.6989862682399</v>
       </c>
       <c r="P3" t="n">
-        <v>797.7370223949214</v>
+        <v>728.3424638815907</v>
       </c>
       <c r="Q3" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="R3" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="S3" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="T3" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="U3" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="V3" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="W3" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="X3" t="n">
-        <v>797.7370223949214</v>
+        <v>596.2882793658998</v>
       </c>
       <c r="Y3" t="n">
-        <v>797.7370223949214</v>
+        <v>596.2114265178377</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="C4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="D4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="E4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="F4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="G4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="H4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="I4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="J4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="L4" t="n">
-        <v>690.5188569123636</v>
+        <v>43.26886545561138</v>
       </c>
       <c r="M4" t="n">
-        <v>729.7068951045858</v>
+        <v>82.45690364783356</v>
       </c>
       <c r="N4" t="n">
-        <v>773.3977457600221</v>
+        <v>126.1477543032699</v>
       </c>
       <c r="O4" t="n">
-        <v>797.7370223949214</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="P4" t="n">
-        <v>797.7370223949214</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="Q4" t="n">
-        <v>797.7370223949214</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="R4" t="n">
-        <v>797.7370223949214</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="S4" t="n">
-        <v>797.7370223949214</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="T4" t="n">
-        <v>797.7370223949214</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="U4" t="n">
-        <v>797.7370223949214</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="V4" t="n">
-        <v>797.7370223949214</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="W4" t="n">
-        <v>797.7370223949214</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="X4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="Y4" t="n">
-        <v>663.2047319046507</v>
+        <v>15.9547404478984</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>434.8137165823711</v>
+        <v>232.8607940982671</v>
       </c>
       <c r="C5" t="n">
-        <v>434.8137165823711</v>
+        <v>232.8607940982671</v>
       </c>
       <c r="D5" t="n">
-        <v>434.8137165823711</v>
+        <v>232.8607940982671</v>
       </c>
       <c r="E5" t="n">
-        <v>434.8137165823711</v>
+        <v>232.8607940982671</v>
       </c>
       <c r="F5" t="n">
-        <v>244.9307833453509</v>
+        <v>31.41205106924694</v>
       </c>
       <c r="G5" t="n">
-        <v>229.4734727240023</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="H5" t="n">
-        <v>229.4734727240023</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="I5" t="n">
-        <v>28.02472969498178</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="J5" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K5" t="n">
-        <v>15.95474044789843</v>
+        <v>118.9697463588208</v>
       </c>
       <c r="L5" t="n">
-        <v>196.030592032557</v>
+        <v>164.0021908747356</v>
       </c>
       <c r="M5" t="n">
-        <v>393.4705050753</v>
+        <v>361.4421039174783</v>
       </c>
       <c r="N5" t="n">
-        <v>590.910418118043</v>
+        <v>558.882016960221</v>
       </c>
       <c r="O5" t="n">
-        <v>740.1053682606911</v>
+        <v>708.076967102869</v>
       </c>
       <c r="P5" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="Q5" t="n">
-        <v>787.6454070266943</v>
+        <v>787.645407026693</v>
       </c>
       <c r="R5" t="n">
-        <v>636.2624596113916</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="S5" t="n">
-        <v>636.2624596113916</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="T5" t="n">
-        <v>636.2624596113916</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="U5" t="n">
-        <v>636.2624596113916</v>
+        <v>434.81371658237</v>
       </c>
       <c r="V5" t="n">
-        <v>636.2624596113916</v>
+        <v>233.3649735533498</v>
       </c>
       <c r="W5" t="n">
-        <v>434.8137165823711</v>
+        <v>232.8607940982671</v>
       </c>
       <c r="X5" t="n">
-        <v>434.8137165823711</v>
+        <v>232.8607940982671</v>
       </c>
       <c r="Y5" t="n">
-        <v>434.8137165823711</v>
+        <v>232.8607940982671</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>696.5674929478071</v>
+        <v>155.4396985180686</v>
       </c>
       <c r="C6" t="n">
-        <v>696.5674929478071</v>
+        <v>155.4396985180686</v>
       </c>
       <c r="D6" t="n">
-        <v>547.6330832865558</v>
+        <v>155.4396985180686</v>
       </c>
       <c r="E6" t="n">
-        <v>388.3956282811003</v>
+        <v>155.4396985180686</v>
       </c>
       <c r="F6" t="n">
-        <v>241.8610703079853</v>
+        <v>155.4396985180686</v>
       </c>
       <c r="G6" t="n">
-        <v>103.1302448906008</v>
+        <v>16.70887310068412</v>
       </c>
       <c r="H6" t="n">
-        <v>16.70887310068414</v>
+        <v>16.70887310068412</v>
       </c>
       <c r="I6" t="n">
-        <v>16.70887310068414</v>
+        <v>16.70887310068412</v>
       </c>
       <c r="J6" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K6" t="n">
         <v>141.3123005057358</v>
       </c>
       <c r="L6" t="n">
-        <v>141.3123005057358</v>
+        <v>338.7522135484785</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7522135484788</v>
+        <v>536.1921265912213</v>
       </c>
       <c r="N6" t="n">
-        <v>536.1921265912218</v>
+        <v>733.632039633964</v>
       </c>
       <c r="O6" t="n">
-        <v>733.6320396339648</v>
+        <v>797.73702239492</v>
       </c>
       <c r="P6" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="Q6" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="R6" t="n">
-        <v>696.5674929478071</v>
+        <v>797.73702239492</v>
       </c>
       <c r="S6" t="n">
-        <v>696.5674929478071</v>
+        <v>759.7859276051292</v>
       </c>
       <c r="T6" t="n">
-        <v>696.5674929478071</v>
+        <v>759.7859276051292</v>
       </c>
       <c r="U6" t="n">
-        <v>696.5674929478071</v>
+        <v>759.7859276051292</v>
       </c>
       <c r="V6" t="n">
-        <v>696.5674929478071</v>
+        <v>759.7859276051292</v>
       </c>
       <c r="W6" t="n">
-        <v>696.5674929478071</v>
+        <v>558.3371845761091</v>
       </c>
       <c r="X6" t="n">
-        <v>696.5674929478071</v>
+        <v>356.8884415470889</v>
       </c>
       <c r="Y6" t="n">
-        <v>696.5674929478071</v>
+        <v>155.4396985180686</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="C7" t="n">
-        <v>150.4870309381692</v>
+        <v>38.44917663565886</v>
       </c>
       <c r="D7" t="n">
-        <v>150.4870309381692</v>
+        <v>38.44917663565886</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4870309381692</v>
+        <v>38.44917663565886</v>
       </c>
       <c r="F7" t="n">
-        <v>150.4870309381692</v>
+        <v>38.44917663565886</v>
       </c>
       <c r="G7" t="n">
-        <v>15.95474044789843</v>
+        <v>38.44917663565886</v>
       </c>
       <c r="H7" t="n">
-        <v>15.95474044789843</v>
+        <v>38.44917663565886</v>
       </c>
       <c r="I7" t="n">
-        <v>15.95474044789843</v>
+        <v>38.44917663565886</v>
       </c>
       <c r="J7" t="n">
-        <v>15.95474044789843</v>
+        <v>38.44917663565886</v>
       </c>
       <c r="K7" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="L7" t="n">
-        <v>43.2688654556114</v>
+        <v>43.26886545561138</v>
       </c>
       <c r="M7" t="n">
-        <v>82.45690364783358</v>
+        <v>82.45690364783356</v>
       </c>
       <c r="N7" t="n">
         <v>126.1477543032699</v>
       </c>
       <c r="O7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="P7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="R7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="S7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="T7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="U7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="V7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="W7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="X7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.3649735533505</v>
+        <v>434.81371658237</v>
       </c>
       <c r="C8" t="n">
-        <v>233.3649735533505</v>
+        <v>434.81371658237</v>
       </c>
       <c r="D8" t="n">
-        <v>233.3649735533505</v>
+        <v>434.81371658237</v>
       </c>
       <c r="E8" t="n">
-        <v>233.3649735533505</v>
+        <v>236.4189734732054</v>
       </c>
       <c r="F8" t="n">
-        <v>43.48204031633031</v>
+        <v>229.473472724002</v>
       </c>
       <c r="G8" t="n">
-        <v>28.02472969498178</v>
+        <v>28.02472969498175</v>
       </c>
       <c r="H8" t="n">
-        <v>28.02472969498178</v>
+        <v>28.02472969498175</v>
       </c>
       <c r="I8" t="n">
-        <v>28.02472969498178</v>
+        <v>28.02472969498175</v>
       </c>
       <c r="J8" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K8" t="n">
         <v>118.9697463588208</v>
       </c>
       <c r="L8" t="n">
-        <v>299.0455979434794</v>
+        <v>299.0455979434793</v>
       </c>
       <c r="M8" t="n">
-        <v>361.4421039174794</v>
+        <v>496.485510986222</v>
       </c>
       <c r="N8" t="n">
-        <v>558.8820169602224</v>
+        <v>558.882016960221</v>
       </c>
       <c r="O8" t="n">
-        <v>708.0769671028704</v>
+        <v>708.076967102869</v>
       </c>
       <c r="P8" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="Q8" t="n">
-        <v>787.6454070266943</v>
+        <v>787.645407026693</v>
       </c>
       <c r="R8" t="n">
-        <v>636.2624596113916</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="S8" t="n">
-        <v>636.2624596113916</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="T8" t="n">
-        <v>636.2624596113916</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="U8" t="n">
-        <v>636.2624596113916</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="V8" t="n">
-        <v>434.8137165823711</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="W8" t="n">
-        <v>434.8137165823711</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="X8" t="n">
-        <v>434.8137165823711</v>
+        <v>636.2624596113902</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.3649735533505</v>
+        <v>636.2624596113902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>495.1187499187865</v>
+        <v>523.1501483984746</v>
       </c>
       <c r="C9" t="n">
-        <v>320.6657206376595</v>
+        <v>359.1084632533328</v>
       </c>
       <c r="D9" t="n">
-        <v>171.7313109764083</v>
+        <v>359.1084632533328</v>
       </c>
       <c r="E9" t="n">
-        <v>171.7313109764083</v>
+        <v>359.1084632533328</v>
       </c>
       <c r="F9" t="n">
-        <v>25.19675300329325</v>
+        <v>359.1084632533328</v>
       </c>
       <c r="G9" t="n">
-        <v>25.19675300329325</v>
+        <v>220.3776378359483</v>
       </c>
       <c r="H9" t="n">
-        <v>25.19675300329325</v>
+        <v>107.0085022435276</v>
       </c>
       <c r="I9" t="n">
-        <v>16.70887310068414</v>
+        <v>16.70887310068412</v>
       </c>
       <c r="J9" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K9" t="n">
         <v>141.3123005057358</v>
       </c>
       <c r="L9" t="n">
-        <v>338.7522135484788</v>
+        <v>141.3123005057358</v>
       </c>
       <c r="M9" t="n">
-        <v>417.6536317388275</v>
+        <v>338.7522135484785</v>
       </c>
       <c r="N9" t="n">
-        <v>417.6536317388275</v>
+        <v>348.2590732254972</v>
       </c>
       <c r="O9" t="n">
-        <v>615.0935447815705</v>
+        <v>545.6989862682399</v>
       </c>
       <c r="P9" t="n">
-        <v>797.7370223949214</v>
+        <v>728.3424638815907</v>
       </c>
       <c r="Q9" t="n">
-        <v>797.7370223949214</v>
+        <v>797.73702239492</v>
       </c>
       <c r="R9" t="n">
-        <v>696.5674929478071</v>
+        <v>696.5674929478057</v>
       </c>
       <c r="S9" t="n">
-        <v>696.5674929478071</v>
+        <v>523.1501483984746</v>
       </c>
       <c r="T9" t="n">
-        <v>696.5674929478071</v>
+        <v>523.1501483984746</v>
       </c>
       <c r="U9" t="n">
-        <v>495.1187499187865</v>
+        <v>523.1501483984746</v>
       </c>
       <c r="V9" t="n">
-        <v>495.1187499187865</v>
+        <v>523.1501483984746</v>
       </c>
       <c r="W9" t="n">
-        <v>495.1187499187865</v>
+        <v>523.1501483984746</v>
       </c>
       <c r="X9" t="n">
-        <v>495.1187499187865</v>
+        <v>523.1501483984746</v>
       </c>
       <c r="Y9" t="n">
-        <v>495.1187499187865</v>
+        <v>523.1501483984746</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="C10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="D10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="E10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="F10" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="G10" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="H10" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="I10" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="J10" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K10" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="L10" t="n">
-        <v>43.2688654556114</v>
+        <v>43.26886545561138</v>
       </c>
       <c r="M10" t="n">
-        <v>82.45690364783358</v>
+        <v>82.45690364783356</v>
       </c>
       <c r="N10" t="n">
         <v>126.1477543032699</v>
       </c>
       <c r="O10" t="n">
-        <v>150.4870309381692</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="P10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="Q10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="R10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="S10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="T10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="U10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="V10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="W10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="X10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
       <c r="Y10" t="n">
-        <v>147.7381009027081</v>
+        <v>150.4870309381691</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>797.7370223949215</v>
+        <v>773.7669455398695</v>
       </c>
       <c r="C11" t="n">
-        <v>797.7370223949215</v>
+        <v>773.7669455398695</v>
       </c>
       <c r="D11" t="n">
-        <v>797.7370223949215</v>
+        <v>773.7669455398695</v>
       </c>
       <c r="E11" t="n">
-        <v>620.3009695349601</v>
+        <v>773.7669455398695</v>
       </c>
       <c r="F11" t="n">
-        <v>418.8522265059396</v>
+        <v>572.3182025108492</v>
       </c>
       <c r="G11" t="n">
-        <v>217.403483476919</v>
+        <v>370.869459481829</v>
       </c>
       <c r="H11" t="n">
-        <v>15.95474044789843</v>
+        <v>169.4207164528088</v>
       </c>
       <c r="I11" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="J11" t="n">
-        <v>131.7225966808481</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K11" t="n">
-        <v>329.1625097235912</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="L11" t="n">
-        <v>332.9986853677401</v>
+        <v>213.3946534906411</v>
       </c>
       <c r="M11" t="n">
-        <v>402.8571963094354</v>
+        <v>249.3325754907725</v>
       </c>
       <c r="N11" t="n">
-        <v>600.2971093521785</v>
+        <v>446.7724885335152</v>
       </c>
       <c r="O11" t="n">
-        <v>797.7370223949215</v>
+        <v>600.2971093521774</v>
       </c>
       <c r="P11" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="Q11" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="R11" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="S11" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="T11" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="U11" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="V11" t="n">
-        <v>797.7370223949215</v>
+        <v>773.7669455398695</v>
       </c>
       <c r="W11" t="n">
-        <v>797.7370223949215</v>
+        <v>773.7669455398695</v>
       </c>
       <c r="X11" t="n">
-        <v>797.7370223949215</v>
+        <v>773.7669455398695</v>
       </c>
       <c r="Y11" t="n">
-        <v>797.7370223949215</v>
+        <v>773.7669455398695</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.21782095177576</v>
+        <v>698.532393896444</v>
       </c>
       <c r="C12" t="n">
-        <v>35.21782095177576</v>
+        <v>524.079364615317</v>
       </c>
       <c r="D12" t="n">
-        <v>35.21782095177576</v>
+        <v>375.1449549540657</v>
       </c>
       <c r="E12" t="n">
-        <v>35.21782095177576</v>
+        <v>215.9074999486103</v>
       </c>
       <c r="F12" t="n">
-        <v>15.95474044789843</v>
+        <v>215.9074999486103</v>
       </c>
       <c r="G12" t="n">
-        <v>15.95474044789843</v>
+        <v>77.99738689487637</v>
       </c>
       <c r="H12" t="n">
-        <v>15.95474044789843</v>
+        <v>77.99738689487637</v>
       </c>
       <c r="I12" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="J12" t="n">
-        <v>17.32882690120152</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K12" t="n">
-        <v>214.7687399439446</v>
+        <v>213.3946534906411</v>
       </c>
       <c r="L12" t="n">
-        <v>412.2086529866876</v>
+        <v>250.8786297358884</v>
       </c>
       <c r="M12" t="n">
-        <v>475.3075534322186</v>
+        <v>448.3185427786311</v>
       </c>
       <c r="N12" t="n">
-        <v>554.4851389316519</v>
+        <v>527.4961282780645</v>
       </c>
       <c r="O12" t="n">
-        <v>604.6973658680336</v>
+        <v>724.9360413208071</v>
       </c>
       <c r="P12" t="n">
-        <v>625.6640385293248</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="Q12" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="R12" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="S12" t="n">
-        <v>639.5640500388375</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="T12" t="n">
-        <v>639.5640500388375</v>
+        <v>698.532393896444</v>
       </c>
       <c r="U12" t="n">
-        <v>438.1153070098169</v>
+        <v>698.532393896444</v>
       </c>
       <c r="V12" t="n">
-        <v>236.6665639807964</v>
+        <v>698.532393896444</v>
       </c>
       <c r="W12" t="n">
-        <v>35.21782095177576</v>
+        <v>698.532393896444</v>
       </c>
       <c r="X12" t="n">
-        <v>35.21782095177576</v>
+        <v>698.532393896444</v>
       </c>
       <c r="Y12" t="n">
-        <v>35.21782095177576</v>
+        <v>698.532393896444</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>690.1407428339683</v>
+        <v>637.5059543573393</v>
       </c>
       <c r="C13" t="n">
-        <v>690.1407428339683</v>
+        <v>637.5059543573393</v>
       </c>
       <c r="D13" t="n">
-        <v>690.1407428339683</v>
+        <v>637.5059543573393</v>
       </c>
       <c r="E13" t="n">
-        <v>671.5782961091637</v>
+        <v>489.5928607749462</v>
       </c>
       <c r="F13" t="n">
-        <v>524.6883486112533</v>
+        <v>342.7029132770359</v>
       </c>
       <c r="G13" t="n">
-        <v>355.6885483495857</v>
+        <v>173.7031130153683</v>
       </c>
       <c r="H13" t="n">
-        <v>197.9401757821158</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="I13" t="n">
-        <v>61.61126488076409</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="J13" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25693351416658</v>
+        <v>72.25693351416655</v>
       </c>
       <c r="L13" t="n">
         <v>199.830791075325</v>
       </c>
       <c r="M13" t="n">
-        <v>344.728659793355</v>
+        <v>344.7286597933549</v>
       </c>
       <c r="N13" t="n">
         <v>491.615797477784</v>
@@ -5239,10 +5239,10 @@
         <v>690.1407428339683</v>
       </c>
       <c r="X13" t="n">
-        <v>690.1407428339683</v>
+        <v>637.5059543573393</v>
       </c>
       <c r="Y13" t="n">
-        <v>690.1407428339683</v>
+        <v>637.5059543573393</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>541.2595898963941</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="C14" t="n">
-        <v>541.2595898963941</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="D14" t="n">
-        <v>541.2595898963941</v>
+        <v>596.2882793658998</v>
       </c>
       <c r="E14" t="n">
-        <v>339.8108468673735</v>
+        <v>596.2882793658998</v>
       </c>
       <c r="F14" t="n">
-        <v>138.3621038383529</v>
+        <v>394.8395363368796</v>
       </c>
       <c r="G14" t="n">
-        <v>138.3621038383529</v>
+        <v>193.3907933078593</v>
       </c>
       <c r="H14" t="n">
-        <v>15.95474044789843</v>
+        <v>169.4207164528088</v>
       </c>
       <c r="I14" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="J14" t="n">
         <v>131.7225966808481</v>
       </c>
       <c r="K14" t="n">
-        <v>329.1625097235912</v>
+        <v>131.7225966808481</v>
       </c>
       <c r="L14" t="n">
-        <v>332.9986853677401</v>
+        <v>135.5587723249971</v>
       </c>
       <c r="M14" t="n">
-        <v>402.8571963094354</v>
+        <v>332.9986853677398</v>
       </c>
       <c r="N14" t="n">
-        <v>600.2971093521785</v>
+        <v>447.8395781252072</v>
       </c>
       <c r="O14" t="n">
-        <v>797.7370223949215</v>
+        <v>645.2794911679499</v>
       </c>
       <c r="P14" t="n">
-        <v>797.7370223949215</v>
+        <v>645.2794911679499</v>
       </c>
       <c r="Q14" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="R14" t="n">
-        <v>742.7083329254148</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="S14" t="n">
-        <v>742.7083329254148</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="T14" t="n">
-        <v>742.7083329254148</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="U14" t="n">
-        <v>742.7083329254148</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="V14" t="n">
-        <v>742.7083329254148</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="W14" t="n">
-        <v>742.7083329254148</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="X14" t="n">
-        <v>742.7083329254148</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="Y14" t="n">
-        <v>742.7083329254148</v>
+        <v>797.7370223949201</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.21782095177576</v>
+        <v>547.9193838103697</v>
       </c>
       <c r="C15" t="n">
-        <v>15.95474044789843</v>
+        <v>373.4663545292427</v>
       </c>
       <c r="D15" t="n">
-        <v>15.95474044789843</v>
+        <v>224.5319448679914</v>
       </c>
       <c r="E15" t="n">
-        <v>15.95474044789843</v>
+        <v>224.5319448679914</v>
       </c>
       <c r="F15" t="n">
-        <v>15.95474044789843</v>
+        <v>77.99738689487637</v>
       </c>
       <c r="G15" t="n">
-        <v>15.95474044789843</v>
+        <v>77.99738689487637</v>
       </c>
       <c r="H15" t="n">
-        <v>15.95474044789843</v>
+        <v>77.99738689487637</v>
       </c>
       <c r="I15" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="J15" t="n">
-        <v>91.21190284802826</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K15" t="n">
-        <v>288.6518158907713</v>
+        <v>121.3517101598699</v>
       </c>
       <c r="L15" t="n">
-        <v>449.9406242550722</v>
+        <v>318.7916232026126</v>
       </c>
       <c r="M15" t="n">
-        <v>647.3805372978153</v>
+        <v>381.8905236481435</v>
       </c>
       <c r="N15" t="n">
-        <v>726.5581227972486</v>
+        <v>579.3304366908862</v>
       </c>
       <c r="O15" t="n">
-        <v>776.7703497336303</v>
+        <v>776.7703497336289</v>
       </c>
       <c r="P15" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="Q15" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="R15" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="S15" t="n">
-        <v>639.5640500388375</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="T15" t="n">
-        <v>639.5640500388375</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="U15" t="n">
-        <v>438.1153070098169</v>
+        <v>797.7370223949201</v>
       </c>
       <c r="V15" t="n">
-        <v>236.6665639807964</v>
+        <v>749.36812683939</v>
       </c>
       <c r="W15" t="n">
-        <v>35.21782095177576</v>
+        <v>749.36812683939</v>
       </c>
       <c r="X15" t="n">
-        <v>35.21782095177576</v>
+        <v>749.36812683939</v>
       </c>
       <c r="Y15" t="n">
-        <v>35.21782095177576</v>
+        <v>547.9193838103697</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>690.1407428339683</v>
+        <v>671.5782961091636</v>
       </c>
       <c r="C16" t="n">
-        <v>690.1407428339683</v>
+        <v>671.5782961091636</v>
       </c>
       <c r="D16" t="n">
-        <v>690.1407428339683</v>
+        <v>671.5782961091636</v>
       </c>
       <c r="E16" t="n">
-        <v>671.5782961091637</v>
+        <v>671.5782961091636</v>
       </c>
       <c r="F16" t="n">
-        <v>524.6883486112533</v>
+        <v>524.6883486112532</v>
       </c>
       <c r="G16" t="n">
-        <v>355.6885483495857</v>
+        <v>355.6885483495856</v>
       </c>
       <c r="H16" t="n">
         <v>197.9401757821158</v>
       </c>
       <c r="I16" t="n">
-        <v>61.61126488076409</v>
+        <v>61.61126488076406</v>
       </c>
       <c r="J16" t="n">
-        <v>15.95474044789843</v>
+        <v>15.9547404478984</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25693351416658</v>
+        <v>72.25693351416655</v>
       </c>
       <c r="L16" t="n">
         <v>199.830791075325</v>
       </c>
       <c r="M16" t="n">
-        <v>344.728659793355</v>
+        <v>344.7286597933549</v>
       </c>
       <c r="N16" t="n">
         <v>491.615797477784</v>
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.5099885583422</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C17" t="n">
-        <v>159.5099885583422</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D17" t="n">
-        <v>159.5099885583422</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E17" t="n">
-        <v>159.5099885583422</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>159.5099885583422</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>159.5099885583422</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5552,13 +5552,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X17" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y17" t="n">
-        <v>546.109828622464</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
         <v>670.8219208598708</v>
@@ -5628,13 +5628,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.883908862959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
         <v>53.94298182036445</v>
@@ -5692,31 +5692,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T19" t="n">
-        <v>286.5323736931987</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U19" t="n">
-        <v>286.5323736931987</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V19" t="n">
-        <v>286.5323736931987</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5323736931987</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X19" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1920.409918978289</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C20" t="n">
-        <v>1551.447402037877</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D20" t="n">
-        <v>1193.181703431127</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E20" t="n">
-        <v>807.3934508328825</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
-        <v>396.407546043275</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5777,25 +5777,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2148.381336846134</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y20" t="n">
-        <v>2307.009759042411</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
         <v>814.0449459359563</v>
@@ -5832,10 +5832,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
         <v>1194.968834417902</v>
@@ -5850,22 +5850,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>698.7120650600561</v>
+        <v>2232.651169546477</v>
       </c>
       <c r="C22" t="n">
-        <v>698.7120650600561</v>
+        <v>2063.71498661857</v>
       </c>
       <c r="D22" t="n">
-        <v>698.7120650600561</v>
+        <v>2063.71498661857</v>
       </c>
       <c r="E22" t="n">
-        <v>698.7120650600561</v>
+        <v>2063.71498661857</v>
       </c>
       <c r="F22" t="n">
-        <v>551.8221175621458</v>
+        <v>2063.71498661857</v>
       </c>
       <c r="G22" t="n">
-        <v>393.6767897220517</v>
+        <v>2063.71498661857</v>
       </c>
       <c r="H22" t="n">
-        <v>235.9284171545819</v>
+        <v>2063.71498661857</v>
       </c>
       <c r="I22" t="n">
-        <v>99.59950625323012</v>
+        <v>2063.71498661857</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600561</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R22" t="n">
-        <v>698.7120650600561</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S22" t="n">
-        <v>698.7120650600561</v>
+        <v>2453.443748690007</v>
       </c>
       <c r="T22" t="n">
-        <v>698.7120650600561</v>
+        <v>2453.443748690007</v>
       </c>
       <c r="U22" t="n">
-        <v>698.7120650600561</v>
+        <v>2453.443748690007</v>
       </c>
       <c r="V22" t="n">
-        <v>698.7120650600561</v>
+        <v>2453.443748690007</v>
       </c>
       <c r="W22" t="n">
-        <v>698.7120650600561</v>
+        <v>2453.443748690007</v>
       </c>
       <c r="X22" t="n">
-        <v>698.7120650600561</v>
+        <v>2453.443748690007</v>
       </c>
       <c r="Y22" t="n">
-        <v>698.7120650600561</v>
+        <v>2232.651169546477</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1937.08349269302</v>
+        <v>994.3352828674997</v>
       </c>
       <c r="C23" t="n">
-        <v>1568.120975752609</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D23" t="n">
-        <v>1209.855277145858</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E23" t="n">
-        <v>824.067024547614</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F23" t="n">
-        <v>413.0811197580064</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6023,16 +6023,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2497.308868438628</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2144.540213168513</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757142</v>
+        <v>1771.074454907433</v>
       </c>
       <c r="Y23" t="n">
-        <v>2323.683332757142</v>
+        <v>1380.935122931621</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6087,22 +6087,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>190.2718927217162</v>
+        <v>2604.211680026144</v>
       </c>
       <c r="C25" t="n">
-        <v>190.2718927217162</v>
+        <v>2604.211680026144</v>
       </c>
       <c r="D25" t="n">
-        <v>190.2718927217162</v>
+        <v>2454.095040613808</v>
       </c>
       <c r="E25" t="n">
-        <v>190.2718927217162</v>
+        <v>2306.181947031415</v>
       </c>
       <c r="F25" t="n">
-        <v>190.2718927217162</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2718927217162</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>444.0275768541693</v>
+        <v>2604.211680026144</v>
       </c>
       <c r="W25" t="n">
-        <v>444.0275768541693</v>
+        <v>2604.211680026144</v>
       </c>
       <c r="X25" t="n">
-        <v>444.0275768541693</v>
+        <v>2604.211680026144</v>
       </c>
       <c r="Y25" t="n">
-        <v>371.9203575519559</v>
+        <v>2604.211680026144</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C26" t="n">
-        <v>1546.944160717209</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="D26" t="n">
-        <v>1188.678462110458</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E26" t="n">
-        <v>802.8902095122139</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F26" t="n">
-        <v>391.9043047226064</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6257,19 +6257,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757142</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.54400078133</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6339,7 +6339,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.59950625323009</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C28" t="n">
-        <v>99.59950625323009</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D28" t="n">
-        <v>99.59950625323009</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E28" t="n">
-        <v>99.59950625323009</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F28" t="n">
-        <v>99.59950625323009</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G28" t="n">
-        <v>99.59950625323009</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6412,22 +6412,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>320.3920853967602</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>320.3920853967602</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W28" t="n">
-        <v>320.3920853967602</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X28" t="n">
-        <v>320.3920853967602</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.59950625323009</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1194.175505447095</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C29" t="n">
-        <v>825.2129885066831</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="D29" t="n">
-        <v>466.9472898999326</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="E29" t="n">
-        <v>81.15903730168839</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="F29" t="n">
-        <v>81.15903730168839</v>
+        <v>919.9265187452468</v>
       </c>
       <c r="G29" t="n">
-        <v>81.15903730168839</v>
+        <v>501.9627106434336</v>
       </c>
       <c r="H29" t="n">
-        <v>81.15903730168839</v>
+        <v>174.7679906794365</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6488,25 +6488,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y29" t="n">
-        <v>1580.775345511217</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
         <v>670.8219208598708</v>
@@ -6564,25 +6564,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6640,31 +6640,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S31" t="n">
-        <v>570.4247794971948</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T31" t="n">
-        <v>343.1165921657965</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036445</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036445</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1372.955922978507</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C32" t="n">
-        <v>1369.426717132083</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="D32" t="n">
-        <v>1011.161018525332</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E32" t="n">
-        <v>625.3727659270879</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
@@ -6698,19 +6698,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6734,16 +6734,16 @@
         <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>2112.324418312743</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W32" t="n">
-        <v>1759.555763042629</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X32" t="n">
-        <v>1759.555763042629</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y32" t="n">
-        <v>1759.555763042629</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D34" t="n">
         <v>53.94298182036445</v>
@@ -6886,22 +6886,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2050.019976259698</v>
+        <v>1739.145928656049</v>
       </c>
       <c r="C35" t="n">
-        <v>1681.057459319286</v>
+        <v>1370.183411715637</v>
       </c>
       <c r="D35" t="n">
-        <v>1322.791760712536</v>
+        <v>1370.183411715637</v>
       </c>
       <c r="E35" t="n">
-        <v>937.0035081142917</v>
+        <v>984.3951591173927</v>
       </c>
       <c r="F35" t="n">
-        <v>526.0176033246842</v>
+        <v>573.4092543277852</v>
       </c>
       <c r="G35" t="n">
-        <v>108.053795222871</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>108.053795222871</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036444</v>
@@ -6941,7 +6941,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W35" t="n">
-        <v>2423.485734520778</v>
+        <v>2125.74576872017</v>
       </c>
       <c r="X35" t="n">
-        <v>2050.019976259698</v>
+        <v>2125.74576872017</v>
       </c>
       <c r="Y35" t="n">
-        <v>2050.019976259698</v>
+        <v>2125.74576872017</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641985</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517452</v>
@@ -7038,7 +7038,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
         <v>2488.762748073964</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.9958041606071</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="C37" t="n">
-        <v>204.0596212327002</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036444</v>
@@ -7120,25 +7120,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>554.7078863246074</v>
       </c>
       <c r="Y37" t="n">
-        <v>554.6442689908469</v>
+        <v>554.7078863246074</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>439.7312344186087</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C38" t="n">
-        <v>439.7312344186087</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982757</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="Y38" t="n">
-        <v>546.109828622464</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7290,10 +7290,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.69838933464703</v>
+        <v>2486.040172362641</v>
       </c>
       <c r="C40" t="n">
-        <v>97.69838933464703</v>
+        <v>2486.040172362641</v>
       </c>
       <c r="D40" t="n">
-        <v>97.69838933464703</v>
+        <v>2486.040172362641</v>
       </c>
       <c r="E40" t="n">
-        <v>97.69838933464703</v>
+        <v>2486.040172362641</v>
       </c>
       <c r="F40" t="n">
-        <v>97.69838933464703</v>
+        <v>2486.040172362641</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533504</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306028</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306028</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306028</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306028</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306028</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>2519.585513306028</v>
       </c>
       <c r="X40" t="n">
-        <v>500.1394333084169</v>
+        <v>2486.040172362641</v>
       </c>
       <c r="Y40" t="n">
-        <v>279.3468541648867</v>
+        <v>2486.040172362641</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>620.3009695349601</v>
+        <v>596.2882793658996</v>
       </c>
       <c r="C41" t="n">
-        <v>620.3009695349601</v>
+        <v>394.8395363368795</v>
       </c>
       <c r="D41" t="n">
-        <v>418.8522265059396</v>
+        <v>217.4034834769185</v>
       </c>
       <c r="E41" t="n">
-        <v>418.8522265059396</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="F41" t="n">
-        <v>418.8522265059396</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="G41" t="n">
-        <v>217.403483476919</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="H41" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="I41" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="J41" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="K41" t="n">
-        <v>15.95474044789843</v>
+        <v>201.5811076225428</v>
       </c>
       <c r="L41" t="n">
-        <v>205.4172832666924</v>
+        <v>205.4172832666917</v>
       </c>
       <c r="M41" t="n">
-        <v>402.8571963094354</v>
+        <v>402.8571963094344</v>
       </c>
       <c r="N41" t="n">
-        <v>600.2971093521785</v>
+        <v>600.297109352177</v>
       </c>
       <c r="O41" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="P41" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="Q41" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="R41" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="S41" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="T41" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="U41" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="V41" t="n">
-        <v>620.3009695349601</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="W41" t="n">
-        <v>620.3009695349601</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="X41" t="n">
-        <v>620.3009695349601</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="Y41" t="n">
-        <v>620.3009695349601</v>
+        <v>797.7370223949197</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="C42" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="D42" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="E42" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="F42" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="G42" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="H42" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="I42" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="J42" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="K42" t="n">
-        <v>213.3946534906415</v>
+        <v>51.02375025362618</v>
       </c>
       <c r="L42" t="n">
-        <v>407.8083964708326</v>
+        <v>88.50772649887344</v>
       </c>
       <c r="M42" t="n">
-        <v>470.9072969163635</v>
+        <v>151.6066269444044</v>
       </c>
       <c r="N42" t="n">
-        <v>550.0848824157969</v>
+        <v>230.7842124438377</v>
       </c>
       <c r="O42" t="n">
-        <v>600.2971093521785</v>
+        <v>428.2241254865803</v>
       </c>
       <c r="P42" t="n">
-        <v>797.7370223949215</v>
+        <v>625.664038529323</v>
       </c>
       <c r="Q42" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="R42" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="S42" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="T42" t="n">
-        <v>620.3009695349601</v>
+        <v>598.8584745176985</v>
       </c>
       <c r="U42" t="n">
-        <v>620.3009695349601</v>
+        <v>598.8584745176985</v>
       </c>
       <c r="V42" t="n">
-        <v>620.3009695349601</v>
+        <v>598.8584745176985</v>
       </c>
       <c r="W42" t="n">
-        <v>418.8522265059396</v>
+        <v>418.8522265059387</v>
       </c>
       <c r="X42" t="n">
-        <v>217.403483476919</v>
+        <v>217.4034834769185</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.95474044789843</v>
+        <v>335.0075627881411</v>
       </c>
       <c r="C43" t="n">
-        <v>15.95474044789843</v>
+        <v>166.0713798602341</v>
       </c>
       <c r="D43" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="E43" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="F43" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="G43" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="H43" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="I43" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="J43" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="K43" t="n">
-        <v>72.25693351416658</v>
+        <v>72.25693351416652</v>
       </c>
       <c r="L43" t="n">
-        <v>199.830791075325</v>
+        <v>199.8307910753249</v>
       </c>
       <c r="M43" t="n">
-        <v>344.728659793355</v>
+        <v>344.7286597933548</v>
       </c>
       <c r="N43" t="n">
-        <v>491.615797477784</v>
+        <v>491.6157974777839</v>
       </c>
       <c r="O43" t="n">
-        <v>611.2735479870241</v>
+        <v>611.273547987024</v>
       </c>
       <c r="P43" t="n">
-        <v>690.1407428339683</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="Q43" t="n">
-        <v>690.1407428339683</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="R43" t="n">
-        <v>690.1407428339683</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="S43" t="n">
-        <v>488.6919998049477</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="T43" t="n">
-        <v>488.6919998049477</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="U43" t="n">
-        <v>418.8522265059396</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="V43" t="n">
-        <v>217.403483476919</v>
+        <v>516.6560276183808</v>
       </c>
       <c r="W43" t="n">
-        <v>15.95474044789843</v>
+        <v>516.6560276183808</v>
       </c>
       <c r="X43" t="n">
-        <v>15.95474044789843</v>
+        <v>516.6560276183808</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.95474044789843</v>
+        <v>516.6560276183808</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>596.288279365901</v>
+        <v>217.4034834769185</v>
       </c>
       <c r="C44" t="n">
-        <v>394.8395363368804</v>
+        <v>217.4034834769185</v>
       </c>
       <c r="D44" t="n">
-        <v>193.3907933078598</v>
+        <v>217.4034834769185</v>
       </c>
       <c r="E44" t="n">
-        <v>193.3907933078598</v>
+        <v>217.4034834769185</v>
       </c>
       <c r="F44" t="n">
-        <v>15.95474044789843</v>
+        <v>217.4034834769185</v>
       </c>
       <c r="G44" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="H44" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="I44" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="J44" t="n">
-        <v>15.95474044789843</v>
+        <v>131.7225966808481</v>
       </c>
       <c r="K44" t="n">
-        <v>213.3946534906415</v>
+        <v>131.7225966808481</v>
       </c>
       <c r="L44" t="n">
-        <v>410.8345665333845</v>
+        <v>135.558772324997</v>
       </c>
       <c r="M44" t="n">
-        <v>608.2744795761275</v>
+        <v>171.4966943251283</v>
       </c>
       <c r="N44" t="n">
-        <v>649.4077231049946</v>
+        <v>368.9366073678709</v>
       </c>
       <c r="O44" t="n">
-        <v>797.7370223949215</v>
+        <v>566.3765204106136</v>
       </c>
       <c r="P44" t="n">
-        <v>797.7370223949215</v>
+        <v>763.8164334533562</v>
       </c>
       <c r="Q44" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="R44" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="S44" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="T44" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="U44" t="n">
-        <v>797.7370223949215</v>
+        <v>596.2882793658996</v>
       </c>
       <c r="V44" t="n">
-        <v>797.7370223949215</v>
+        <v>418.8522265059387</v>
       </c>
       <c r="W44" t="n">
-        <v>797.7370223949215</v>
+        <v>217.4034834769185</v>
       </c>
       <c r="X44" t="n">
-        <v>797.7370223949215</v>
+        <v>217.4034834769185</v>
       </c>
       <c r="Y44" t="n">
-        <v>797.7370223949215</v>
+        <v>217.4034834769185</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>428.0729423458329</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="C45" t="n">
-        <v>253.6199130647059</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="D45" t="n">
-        <v>253.6199130647059</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="E45" t="n">
-        <v>94.38245805925041</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="F45" t="n">
-        <v>94.38245805925041</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="G45" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="H45" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="I45" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="J45" t="n">
-        <v>15.95474044789843</v>
+        <v>91.2119028480282</v>
       </c>
       <c r="K45" t="n">
-        <v>15.95474044789843</v>
+        <v>288.6518158907708</v>
       </c>
       <c r="L45" t="n">
-        <v>53.43871669314571</v>
+        <v>407.8083964708312</v>
       </c>
       <c r="M45" t="n">
-        <v>250.8786297358888</v>
+        <v>470.9072969163621</v>
       </c>
       <c r="N45" t="n">
-        <v>448.3185427786318</v>
+        <v>550.0848824157954</v>
       </c>
       <c r="O45" t="n">
-        <v>645.7584558213748</v>
+        <v>600.297109352177</v>
       </c>
       <c r="P45" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="Q45" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="R45" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="S45" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="T45" t="n">
-        <v>797.7370223949215</v>
+        <v>797.7370223949197</v>
       </c>
       <c r="U45" t="n">
-        <v>797.7370223949215</v>
+        <v>620.3009695349588</v>
       </c>
       <c r="V45" t="n">
-        <v>797.7370223949215</v>
+        <v>418.8522265059387</v>
       </c>
       <c r="W45" t="n">
-        <v>596.288279365901</v>
+        <v>418.8522265059387</v>
       </c>
       <c r="X45" t="n">
-        <v>596.288279365901</v>
+        <v>217.4034834769185</v>
       </c>
       <c r="Y45" t="n">
-        <v>596.288279365901</v>
+        <v>15.95474044789839</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="C46" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="D46" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="E46" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="F46" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="G46" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="H46" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="I46" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="J46" t="n">
-        <v>15.95474044789843</v>
+        <v>15.95474044789839</v>
       </c>
       <c r="K46" t="n">
-        <v>72.25693351416658</v>
+        <v>72.25693351416652</v>
       </c>
       <c r="L46" t="n">
-        <v>199.830791075325</v>
+        <v>199.8307910753249</v>
       </c>
       <c r="M46" t="n">
-        <v>344.728659793355</v>
+        <v>344.7286597933548</v>
       </c>
       <c r="N46" t="n">
-        <v>491.615797477784</v>
+        <v>491.6157974777839</v>
       </c>
       <c r="O46" t="n">
-        <v>611.2735479870241</v>
+        <v>611.273547987024</v>
       </c>
       <c r="P46" t="n">
-        <v>690.1407428339683</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="Q46" t="n">
-        <v>690.1407428339683</v>
+        <v>690.1407428339681</v>
       </c>
       <c r="R46" t="n">
-        <v>690.1407428339683</v>
+        <v>541.9940842681522</v>
       </c>
       <c r="S46" t="n">
-        <v>690.1407428339683</v>
+        <v>399.0519483071582</v>
       </c>
       <c r="T46" t="n">
-        <v>690.1407428339683</v>
+        <v>197.6032052781381</v>
       </c>
       <c r="U46" t="n">
-        <v>620.3009695349601</v>
+        <v>197.6032052781381</v>
       </c>
       <c r="V46" t="n">
-        <v>418.8522265059396</v>
+        <v>197.6032052781381</v>
       </c>
       <c r="W46" t="n">
-        <v>217.403483476919</v>
+        <v>197.6032052781381</v>
       </c>
       <c r="X46" t="n">
-        <v>15.95474044789843</v>
+        <v>197.6032052781381</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.95474044789843</v>
+        <v>197.6032052781381</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>278.3036430997579</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>429.7804888260031</v>
+        <v>429.7804888260027</v>
       </c>
       <c r="N2" t="n">
-        <v>292.439837307702</v>
+        <v>428.8473191953209</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>341.5682895207486</v>
+        <v>278.360720522883</v>
       </c>
       <c r="N3" t="n">
-        <v>330.7759676820637</v>
+        <v>330.7759676820633</v>
       </c>
       <c r="O3" t="n">
-        <v>342.0305000431748</v>
+        <v>342.0305000431745</v>
       </c>
       <c r="P3" t="n">
-        <v>198.7269152536803</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>281.2537326628305</v>
       </c>
       <c r="M5" t="n">
-        <v>429.7804888260031</v>
+        <v>429.7804888260027</v>
       </c>
       <c r="N5" t="n">
-        <v>428.8473191953212</v>
+        <v>428.8473191953209</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>289.4467878100476</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>337.9886353786042</v>
       </c>
       <c r="M6" t="n">
-        <v>341.5682895207486</v>
+        <v>341.5682895207483</v>
       </c>
       <c r="N6" t="n">
-        <v>330.7759676820637</v>
+        <v>330.7759676820633</v>
       </c>
       <c r="O6" t="n">
-        <v>342.0305000431748</v>
+        <v>207.3487522837939</v>
       </c>
       <c r="P6" t="n">
-        <v>198.7269152536803</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8459,10 +8459,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>293.3730069383838</v>
+        <v>429.7804888260027</v>
       </c>
       <c r="N8" t="n">
-        <v>428.8473191953212</v>
+        <v>292.439837307701</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>337.9886353786045</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>221.8324361344917</v>
+        <v>341.5682895207483</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>140.9446006459784</v>
       </c>
       <c r="O9" t="n">
-        <v>342.0305000431748</v>
+        <v>342.0305000431745</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K11" t="n">
-        <v>226.3566267355532</v>
+        <v>26.92237113682282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>195.5593307056503</v>
       </c>
       <c r="M11" t="n">
-        <v>34.26322115309493</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>157.8855247614909</v>
+        <v>157.8855247614906</v>
       </c>
       <c r="O11" t="n">
-        <v>173.6709281084306</v>
+        <v>129.3120470740053</v>
       </c>
       <c r="P11" t="n">
-        <v>12.86109185980288</v>
+        <v>212.2953474585329</v>
       </c>
       <c r="Q11" t="n">
         <v>58.31748437003577</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>51.46166569714951</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>206.0739164081792</v>
+        <v>206.0739164081788</v>
       </c>
       <c r="L12" t="n">
-        <v>161.5716533308038</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>135.6979925224362</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>148.7148344508698</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>52.35788728567857</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>36.266192922115</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>226.3566267355532</v>
+        <v>26.92237113682282</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>34.26322115309493</v>
+        <v>163.133324285466</v>
       </c>
       <c r="N14" t="n">
-        <v>157.8855247614909</v>
+        <v>74.45217093798016</v>
       </c>
       <c r="O14" t="n">
-        <v>173.6709281084306</v>
+        <v>173.6709281084302</v>
       </c>
       <c r="P14" t="n">
         <v>12.86109185980288</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.31748437003577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>206.0739164081792</v>
+        <v>113.1012463770967</v>
       </c>
       <c r="L15" t="n">
-        <v>125.0553859788421</v>
+        <v>161.5716533308035</v>
       </c>
       <c r="M15" t="n">
-        <v>135.6979925224365</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>119.4568965083933</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>148.7148344508698</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>327.4218609627885</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0294169142014</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L30" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11060,25 +11060,25 @@
         <v>52.15938665394273</v>
       </c>
       <c r="K41" t="n">
-        <v>26.92237113682282</v>
+        <v>214.4237521213122</v>
       </c>
       <c r="L41" t="n">
-        <v>187.5013809844899</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>163.1333242854664</v>
+        <v>163.133324285466</v>
       </c>
       <c r="N41" t="n">
-        <v>157.8855247614909</v>
+        <v>157.8855247614904</v>
       </c>
       <c r="O41" t="n">
-        <v>173.6709281084306</v>
+        <v>173.6709281084302</v>
       </c>
       <c r="P41" t="n">
-        <v>12.86109185980288</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.31748437003577</v>
+        <v>58.3174843700358</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>206.0739164081792</v>
+        <v>42.06290303745669</v>
       </c>
       <c r="L42" t="n">
-        <v>158.5149158938827</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>148.7148344508697</v>
       </c>
       <c r="P42" t="n">
-        <v>178.2557983651029</v>
+        <v>178.2557983651025</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.266192922115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>226.3566267355532</v>
+        <v>26.92237113682285</v>
       </c>
       <c r="L44" t="n">
-        <v>195.5593307056507</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>163.1333242854664</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>157.8855247614904</v>
       </c>
       <c r="O44" t="n">
-        <v>124.0642475500304</v>
+        <v>173.6709281084301</v>
       </c>
       <c r="P44" t="n">
-        <v>12.86109185980288</v>
+        <v>212.2953474585328</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.31748437003577</v>
+        <v>92.58070552313018</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>6.639660809448799</v>
+        <v>206.0739164081787</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>82.49758013617489</v>
       </c>
       <c r="M45" t="n">
-        <v>135.6979925224365</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>119.4568965083937</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>148.7148344508701</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>132.3352463760156</v>
+        <v>178.2557983651025</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.266192922115</v>
+        <v>36.26619292211501</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>206.2686777409</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4417901429811</v>
+        <v>207.4417901429814</v>
       </c>
       <c r="G11" t="n">
-        <v>214.3499144220646</v>
+        <v>214.349914422065</v>
       </c>
       <c r="H11" t="n">
-        <v>124.4885171656268</v>
+        <v>124.4885171656271</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>304.0218823836348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,25 +23337,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>125.9987626945453</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,19 +23385,19 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>98.67718018495755</v>
       </c>
       <c r="U12" t="n">
-        <v>26.45367219013826</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>33.36633155069489</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>52.26072756218923</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,10 +23434,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>173.6012147971745</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>183.2995860647502</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>155.2487860219529</v>
       </c>
       <c r="E14" t="n">
-        <v>182.4961144735314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4417901429811</v>
+        <v>207.4417901429814</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>214.349914422065</v>
       </c>
       <c r="H14" t="n">
-        <v>202.7394830078072</v>
+        <v>300.1923966778571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23574,16 +23574,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>153.6380492894772</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.5310119231965</v>
@@ -23592,7 +23592,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,25 +23622,25 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>26.45367219013826</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>33.36633155069489</v>
+        <v>184.9153805494504</v>
       </c>
       <c r="W15" t="n">
-        <v>52.26072756218923</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>6.248440178574327</v>
       </c>
     </row>
     <row r="16">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>161.4551579243807</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>219.4114360937592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,13 +23792,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>116.8153033264593</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23932,19 +23932,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>20.33532920387805</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24017,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>175.3362150063966</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,19 +24136,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>10.74592769735779</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.855580181984038</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24209,22 +24209,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>58.23741346252945</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,16 +24263,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>129.910438116336</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24421,7 +24421,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>160.1296064416701</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>147.1985062429036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>307.4261179913852</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>79.20246034757548</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,19 +24497,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>107.6574498784847</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.0280783696519</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24680,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>124.9874213183506</v>
+        <v>32.31455747437995</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24728,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24880,19 +24880,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>278.5372228637417</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>361.7789779830471</v>
+        <v>342.3461955969664</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24974,16 +24974,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25126,7 +25126,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>69.58249272689014</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>211.747513639113</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25166,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>375.3666492476668</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>98.36161097637972</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,16 +25324,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>40.45865204701042</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>277.4190334016639</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>20.39139144845205</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,16 +25561,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>123.9919488199112</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>192.4997678550843</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>183.2995860647507</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>165.8386361722776</v>
       </c>
       <c r="D41" t="n">
-        <v>155.2487860219526</v>
+        <v>179.0213492893216</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>182.4961144735319</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>214.3499144220646</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>124.4885171656268</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,7 +25685,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>152.0905661387732</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25725,7 +25725,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>21.2280700670872</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>52.26072756218923</v>
+        <v>73.48879762927743</v>
       </c>
       <c r="X42" t="n">
-        <v>6.338729604747101</v>
+        <v>6.338729604747556</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.248440178573986</v>
+        <v>6.248440178574441</v>
       </c>
     </row>
     <row r="43">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,10 +25804,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,25 +25828,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>12.71128335128853</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>217.1404986759597</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>52.70338772509763</v>
+        <v>80.38777526039652</v>
       </c>
       <c r="W43" t="n">
-        <v>87.08874273786063</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>183.2995860647502</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>165.8386361722772</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>155.2487860219526</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>231.2143534103497</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>214.3499144220651</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25919,13 +25919,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>51.78991190955938</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>152.0905661387736</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>149.8067131186831</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,28 +25941,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>58.88757148795807</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -25998,19 +25998,19 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>50.22623545750736</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>33.36633155069535</v>
       </c>
       <c r="W45" t="n">
-        <v>52.26072756218923</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>6.338729604747556</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>6.248440178574441</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26041,10 +26041,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,28 +26065,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>70.63282434863493</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>25.60084985935435</v>
       </c>
       <c r="U46" t="n">
-        <v>217.1404986759597</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>52.70338772509763</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>87.08874273786063</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>26.27539979030678</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434613.7974010717</v>
+        <v>434613.7974010714</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434613.7974010717</v>
+        <v>434613.7974010713</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744772.1888539586</v>
+        <v>744772.1888539589</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>744772.1888539586</v>
+        <v>744772.1888539589</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>744772.1888539589</v>
+        <v>744772.1888539586</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>744772.1888539589</v>
+        <v>744772.1888539586</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434613.7974010718</v>
+        <v>434613.7974010713</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434613.7974010718</v>
+        <v>434613.7974010714</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185701</v>
@@ -26320,40 +26320,40 @@
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>212089.4701056956</v>
+        <v>212089.4701056955</v>
       </c>
       <c r="F2" t="n">
-        <v>212089.4701056956</v>
+        <v>212089.4701056954</v>
       </c>
       <c r="G2" t="n">
+        <v>346983.1320189091</v>
+      </c>
+      <c r="H2" t="n">
+        <v>346983.1320189091</v>
+      </c>
+      <c r="I2" t="n">
+        <v>346983.1320189091</v>
+      </c>
+      <c r="J2" t="n">
+        <v>346983.1320189091</v>
+      </c>
+      <c r="K2" t="n">
         <v>346983.132018909</v>
-      </c>
-      <c r="H2" t="n">
-        <v>346983.132018909</v>
-      </c>
-      <c r="I2" t="n">
-        <v>346983.1320189089</v>
-      </c>
-      <c r="J2" t="n">
-        <v>346983.1320189088</v>
-      </c>
-      <c r="K2" t="n">
-        <v>346983.1320189091</v>
       </c>
       <c r="L2" t="n">
         <v>346983.132018909</v>
       </c>
       <c r="M2" t="n">
+        <v>346983.1320189089</v>
+      </c>
+      <c r="N2" t="n">
         <v>346983.132018909</v>
       </c>
-      <c r="N2" t="n">
-        <v>346983.1320189091</v>
-      </c>
       <c r="O2" t="n">
-        <v>212089.4701056957</v>
+        <v>212089.4701056955</v>
       </c>
       <c r="P2" t="n">
-        <v>212089.4701056956</v>
+        <v>212089.4701056955</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66835.00603901331</v>
+        <v>66835.00603901321</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>130150.0892071544</v>
+        <v>130150.0892071545</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>52180.77637187421</v>
+        <v>52180.77637187412</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363397.5337192724</v>
+        <v>361120.1056344947</v>
       </c>
       <c r="C4" t="n">
-        <v>363397.5337192724</v>
+        <v>361120.1056344947</v>
       </c>
       <c r="D4" t="n">
-        <v>363397.5337192724</v>
+        <v>361120.1056344947</v>
       </c>
       <c r="E4" t="n">
-        <v>29182.33275734201</v>
+        <v>28278.0068234198</v>
       </c>
       <c r="F4" t="n">
-        <v>29182.33275734201</v>
+        <v>28278.0068234198</v>
       </c>
       <c r="G4" t="n">
-        <v>82799.09519504687</v>
+        <v>80234.29431677572</v>
       </c>
       <c r="H4" t="n">
-        <v>82799.09519504687</v>
+        <v>80234.29431677572</v>
       </c>
       <c r="I4" t="n">
-        <v>82799.09519504687</v>
+        <v>80234.29431677572</v>
       </c>
       <c r="J4" t="n">
-        <v>82799.09519504686</v>
+        <v>80234.29431677572</v>
       </c>
       <c r="K4" t="n">
-        <v>82799.09519504687</v>
+        <v>80234.29431677572</v>
       </c>
       <c r="L4" t="n">
-        <v>82799.09519504686</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="M4" t="n">
-        <v>82799.09519504686</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="N4" t="n">
-        <v>82799.09519504686</v>
+        <v>80234.29431677569</v>
       </c>
       <c r="O4" t="n">
-        <v>29182.33275734201</v>
+        <v>28278.00682341979</v>
       </c>
       <c r="P4" t="n">
-        <v>29182.33275734201</v>
+        <v>28278.00682341979</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45753.2027404028</v>
+        <v>45753.20274040278</v>
       </c>
       <c r="C5" t="n">
-        <v>45753.2027404028</v>
+        <v>45753.20274040278</v>
       </c>
       <c r="D5" t="n">
-        <v>45753.2027404028</v>
+        <v>45753.20274040278</v>
       </c>
       <c r="E5" t="n">
-        <v>20360.41462033529</v>
+        <v>20360.41462033527</v>
       </c>
       <c r="F5" t="n">
-        <v>20360.41462033529</v>
+        <v>20360.41462033527</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26506,10 +26506,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>20360.41462033529</v>
+        <v>20360.41462033526</v>
       </c>
       <c r="P5" t="n">
-        <v>20360.41462033529</v>
+        <v>20360.41462033526</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16639.31941988142</v>
+        <v>18916.74750465946</v>
       </c>
       <c r="C6" t="n">
-        <v>83474.32545889492</v>
+        <v>85751.75354367268</v>
       </c>
       <c r="D6" t="n">
-        <v>83474.32545889486</v>
+        <v>85751.7535436725</v>
       </c>
       <c r="E6" t="n">
-        <v>-140933.6703349818</v>
+        <v>-140029.3444010596</v>
       </c>
       <c r="F6" t="n">
-        <v>162546.7227280183</v>
+        <v>163451.0486619403</v>
       </c>
       <c r="G6" t="n">
-        <v>84802.4695532983</v>
+        <v>87367.27043156944</v>
       </c>
       <c r="H6" t="n">
-        <v>214952.5587604527</v>
+        <v>217517.3596387239</v>
       </c>
       <c r="I6" t="n">
-        <v>214952.5587604525</v>
+        <v>217517.3596387239</v>
       </c>
       <c r="J6" t="n">
-        <v>162771.7823885783</v>
+        <v>165336.5832668498</v>
       </c>
       <c r="K6" t="n">
-        <v>214952.5587604528</v>
+        <v>217517.3596387238</v>
       </c>
       <c r="L6" t="n">
-        <v>214952.5587604527</v>
+        <v>217517.3596387239</v>
       </c>
       <c r="M6" t="n">
-        <v>214952.5587604527</v>
+        <v>217517.3596387237</v>
       </c>
       <c r="N6" t="n">
-        <v>214952.5587604528</v>
+        <v>217517.3596387238</v>
       </c>
       <c r="O6" t="n">
-        <v>162546.7227280183</v>
+        <v>163451.0486619405</v>
       </c>
       <c r="P6" t="n">
-        <v>162546.7227280183</v>
+        <v>163451.0486619404</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="C4" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="D4" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="E4" t="n">
-        <v>199.4342555987304</v>
+        <v>199.43425559873</v>
       </c>
       <c r="F4" t="n">
-        <v>199.4342555987304</v>
+        <v>199.43425559873</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26808,10 +26808,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26823,13 +26823,13 @@
         <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>199.4342555987304</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="P4" t="n">
-        <v>199.4342555987304</v>
+        <v>199.4342555987299</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>474.8530171558252</v>
+        <v>474.8530171558256</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>474.8530171558252</v>
+        <v>474.8530171558256</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,28 +27379,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>165.8386361722775</v>
       </c>
       <c r="D2" t="n">
-        <v>155.2487860219526</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>182.4961144735314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>256.5077901400296</v>
+        <v>207.4417901429814</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>215.868481916405</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04163397167557</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,7 +27433,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>247.4930670867822</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>99.22895100015154</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>6.338729604747471</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6066114577229</v>
       </c>
     </row>
     <row r="4">
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366916</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>218.8919418370615</v>
+        <v>207.4417901429814</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>11.04163397167557</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>51.91139730910649</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>128.3180028714049</v>
       </c>
       <c r="W5" t="n">
-        <v>149.8067131186827</v>
+        <v>348.7418310568812</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,19 +27698,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>26.678286164479</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>134.111587261945</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>52.2607275621896</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>6.338729604747471</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>6.248440178574356</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>56.32934533914266</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>183.2995860647506</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>185.5195743941888</v>
       </c>
       <c r="F8" t="n">
-        <v>218.8919418370615</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>215.868481916405</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>128.3180028714046</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>186.8036830573232</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10.30723069462536</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>80.99363174783205</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>26.50712648224447</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>14.95552117266971</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>58.21379205477732</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="N2" t="n">
-        <v>63.02677371111109</v>
+        <v>199.43425559873</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>199.4342555987303</v>
+        <v>136.2266866008647</v>
       </c>
       <c r="N3" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="O3" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="P3" t="n">
-        <v>64.75250783935005</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>45.48731769284323</v>
       </c>
       <c r="M5" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="N5" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>58.21379205477808</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
       <c r="M6" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="N6" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="O6" t="n">
-        <v>199.4342555987303</v>
+        <v>64.75250783934948</v>
       </c>
       <c r="P6" t="n">
-        <v>64.75250783935005</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35179,10 +35179,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>63.02677371111109</v>
+        <v>199.43425559873</v>
       </c>
       <c r="N8" t="n">
-        <v>199.4342555987303</v>
+        <v>63.02677371111006</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>199.4342555987303</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>79.69840221247337</v>
+        <v>199.43425559873</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>9.602888562645118</v>
       </c>
       <c r="O9" t="n">
-        <v>199.4342555987303</v>
+        <v>199.43425559873</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3.874924893079708</v>
+        <v>199.43425559873</v>
       </c>
       <c r="M11" t="n">
-        <v>70.56415246635892</v>
+        <v>36.30093131326399</v>
       </c>
       <c r="N11" t="n">
-        <v>199.4342555987304</v>
+        <v>199.43425559873</v>
       </c>
       <c r="O11" t="n">
-        <v>199.4342555987304</v>
+        <v>155.0753745643052</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>199.43425559873</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.387966114447569</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.4342555987304</v>
+        <v>199.43425559873</v>
       </c>
       <c r="L12" t="n">
-        <v>199.4342555987304</v>
+        <v>37.86260226792655</v>
       </c>
       <c r="M12" t="n">
-        <v>63.73626307629388</v>
+        <v>199.43425559873</v>
       </c>
       <c r="N12" t="n">
         <v>79.97735909033671</v>
       </c>
       <c r="O12" t="n">
-        <v>50.71942114786026</v>
+        <v>199.43425559873</v>
       </c>
       <c r="P12" t="n">
-        <v>21.17845723362748</v>
+        <v>73.53634451930606</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>3.874924893079708</v>
       </c>
       <c r="M14" t="n">
-        <v>70.56415246635892</v>
+        <v>199.43425559873</v>
       </c>
       <c r="N14" t="n">
-        <v>199.4342555987304</v>
+        <v>116.0009017752196</v>
       </c>
       <c r="O14" t="n">
-        <v>199.4342555987304</v>
+        <v>199.43425559873</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.4342555987304</v>
+        <v>106.4615855676479</v>
       </c>
       <c r="L15" t="n">
-        <v>162.9179882467686</v>
+        <v>199.43425559873</v>
       </c>
       <c r="M15" t="n">
-        <v>199.4342555987304</v>
+        <v>63.73626307629388</v>
       </c>
       <c r="N15" t="n">
-        <v>79.97735909033671</v>
+        <v>199.43425559873</v>
       </c>
       <c r="O15" t="n">
-        <v>50.71942114786026</v>
+        <v>199.43425559873</v>
       </c>
       <c r="P15" t="n">
         <v>21.17845723362748</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35890,7 +35890,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>365.284463230715</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36200,7 +36200,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36437,13 +36437,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L30" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -37078,7 +37078,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,10 +37394,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37555,10 +37555,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37631,10 +37631,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>187.5013809844893</v>
       </c>
       <c r="L41" t="n">
-        <v>191.3763058775696</v>
+        <v>3.87492489307968</v>
       </c>
       <c r="M41" t="n">
-        <v>199.4342555987304</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="N41" t="n">
-        <v>199.4342555987304</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="O41" t="n">
-        <v>199.4342555987304</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>199.4342555987304</v>
+        <v>35.42324222800787</v>
       </c>
       <c r="L42" t="n">
-        <v>196.3775181618092</v>
+        <v>37.86260226792652</v>
       </c>
       <c r="M42" t="n">
-        <v>63.73626307629388</v>
+        <v>63.73626307629385</v>
       </c>
       <c r="N42" t="n">
-        <v>79.97735909033671</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O42" t="n">
-        <v>50.71942114786026</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="P42" t="n">
-        <v>199.4342555987304</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>199.4342555987304</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>199.4342555987304</v>
+        <v>3.87492489307968</v>
       </c>
       <c r="M44" t="n">
-        <v>199.4342555987304</v>
+        <v>36.30093131326393</v>
       </c>
       <c r="N44" t="n">
-        <v>41.54873083723948</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="O44" t="n">
-        <v>149.8275750403302</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>34.26322115309438</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="L45" t="n">
-        <v>37.86260226792655</v>
+        <v>120.3601824041014</v>
       </c>
       <c r="M45" t="n">
-        <v>199.4342555987304</v>
+        <v>63.73626307629385</v>
       </c>
       <c r="N45" t="n">
-        <v>199.4342555987304</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O45" t="n">
-        <v>199.4342555987304</v>
+        <v>50.71942114786023</v>
       </c>
       <c r="P45" t="n">
-        <v>153.5137036096431</v>
+        <v>199.4342555987299</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>960959.463761444</v>
+        <v>987623.1728788754</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2781523.791147226</v>
+        <v>1384172.199406467</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9530324.193536609</v>
+        <v>8399778.573036591</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8485521.320109604</v>
+        <v>8949434.627186958</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>199.43425559873</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>199.43425559873</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3.852585821054341</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>38.88501798484931</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07608431958149595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>199.43425559873</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +943,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4991376605318371</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="S6" t="n">
-        <v>37.57158384189286</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>215.463570623987</v>
       </c>
       <c r="E8" t="n">
-        <v>196.410795678073</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>199.43425559873</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>162.4012682936904</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>133.6262871373656</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>144.014144810548</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>199.43425559873</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>199.43425559873</v>
+        <v>414.530919372088</v>
       </c>
       <c r="H11" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>180.7203706105862</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2839074563927</v>
       </c>
       <c r="V11" t="n">
-        <v>23.73037608650009</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1458,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.9305580501643</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>108.2471285920753</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>75.17852303819713</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>74.51814466017009</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>98.21258221349139</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9142137182744</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>117.471165792181</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1534,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>12.97116152489231</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>161.7264837016246</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>217.9830836791034</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>52.10844059186266</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>199.43425559873</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>199.43425559873</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>199.43425559873</v>
+        <v>414.530919372088</v>
       </c>
       <c r="H14" t="n">
-        <v>23.73037608650003</v>
+        <v>331.570419558287</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>180.7203706105862</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>90.97496116023224</v>
       </c>
     </row>
     <row r="15">
@@ -1683,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>75.17852303819713</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>74.51814466017009</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>164.0126367014202</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.5002136733761</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9142137182744</v>
       </c>
       <c r="V15" t="n">
-        <v>47.88520659997481</v>
+        <v>38.83967949226545</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>199.43425559873</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>145.0389644964652</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>68.8820590101802</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>32.32574275240565</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>255.8940731710739</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>295.9408816142891</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1980,13 +1982,13 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034768</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2044,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="X19" t="n">
-        <v>205.3743261851591</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>351.7553012748425</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>152.4160434637383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2160,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2223,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034768</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>8.777525990011505</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.34437900655296</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,16 +2320,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>197.8418203537989</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>251.1266986696862</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2448,7 +2450,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T24" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U24" t="n">
         <v>225.8879277888686</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.73991206543091</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>92.00803688215785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>47.2569236292977</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>136.0696023912437</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>126.5499088748945</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.68157701938528</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2810,7 +2812,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>119.6167587704813</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -2846,16 +2848,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>235.0690254684078</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3004,16 +3006,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>7.744651378236042</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>262.5770567221875</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>22.92669617404118</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3080,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.3397947832073</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3229,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>13.96214174992418</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>38.41752077312813</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>215.7890775924894</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3354,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G36" t="n">
         <v>136.5310119231965</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>171.6868869030085</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>129.0666178516128</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>349.339709230017</v>
+        <v>159.5623709710778</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>147.445065564638</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3594,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
@@ -3664,25 +3666,25 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.54110646053104</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>33.20988753395282</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.4342555987299</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>199.4342555987299</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>175.6616923313613</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>199.4342555987299</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>401.7886500152027</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3819,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>61.41336926494543</v>
       </c>
       <c r="W42" t="n">
-        <v>178.2061855316422</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>199.4342555987299</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.4342555987299</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3940,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>54.47555601903318</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>199.4342555987299</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>220.9058729892978</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>199.4342555987299</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>175.6616923313613</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>199.4342555987299</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>121.3851339469606</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>175.6616923313613</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
-        <v>199.4342555987299</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>199.4342555987299</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.4342555987299</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>106.4061678803923</v>
       </c>
       <c r="S46" t="n">
-        <v>141.512714601384</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>199.4342555987299</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3709587820424</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="C2" t="n">
-        <v>430.9222157530222</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="D2" t="n">
-        <v>430.9222157530222</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="E2" t="n">
-        <v>430.9222157530222</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="F2" t="n">
-        <v>229.473472724002</v>
+        <v>75.63582555698088</v>
       </c>
       <c r="G2" t="n">
-        <v>28.02472969498175</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="H2" t="n">
-        <v>28.02472969498175</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I2" t="n">
-        <v>28.02472969498175</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J2" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>73.58639458212795</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>253.6622461667865</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>451.1021592095292</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>648.542072252272</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>797.73702239492</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>797.73702239492</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>787.645407026693</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>636.2624596113902</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S2" t="n">
-        <v>636.2624596113902</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T2" t="n">
-        <v>636.2624596113902</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U2" t="n">
-        <v>632.3709587820424</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V2" t="n">
-        <v>632.3709587820424</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W2" t="n">
-        <v>632.3709587820424</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X2" t="n">
-        <v>632.3709587820424</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="Y2" t="n">
-        <v>632.3709587820424</v>
+        <v>82.58132630618435</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>427.9960894977697</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>253.5430602166427</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>253.5430602166427</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E3" t="n">
-        <v>253.5430602166427</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F3" t="n">
-        <v>107.0085022435276</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G3" t="n">
-        <v>107.0085022435276</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>107.0085022435276</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>16.70887310068412</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>15.9547404478984</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>15.9547404478984</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M3" t="n">
-        <v>150.8191601827544</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>348.2590732254972</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>545.6989862682399</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>728.3424638815907</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>797.73702239492</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>797.73702239492</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>797.73702239492</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>797.73702239492</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>797.73702239492</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>797.73702239492</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>797.73702239492</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>596.2882793658998</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>596.2114265178377</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>43.26886545561138</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>82.45690364783356</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>126.1477543032699</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>150.4870309381691</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>150.4870309381691</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.4870309381691</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R4" t="n">
-        <v>150.4870309381691</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S4" t="n">
-        <v>150.4870309381691</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T4" t="n">
-        <v>150.4870309381691</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U4" t="n">
-        <v>150.4870309381691</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>150.4870309381691</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>150.4870309381691</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>232.8607940982671</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C5" t="n">
-        <v>232.8607940982671</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D5" t="n">
-        <v>232.8607940982671</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E5" t="n">
-        <v>232.8607940982671</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F5" t="n">
-        <v>31.41205106924694</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G5" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>118.9697463588208</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>164.0021908747356</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4421039174783</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N5" t="n">
-        <v>558.882016960221</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>708.076967102869</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>797.73702239492</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>787.645407026693</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>636.2624596113902</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>636.2624596113902</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T5" t="n">
-        <v>636.2624596113902</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U5" t="n">
-        <v>434.81371658237</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V5" t="n">
-        <v>233.3649735533498</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W5" t="n">
-        <v>232.8607940982671</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X5" t="n">
-        <v>232.8607940982671</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y5" t="n">
-        <v>232.8607940982671</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155.4396985180686</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="C6" t="n">
-        <v>155.4396985180686</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="D6" t="n">
-        <v>155.4396985180686</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="E6" t="n">
-        <v>155.4396985180686</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="F6" t="n">
-        <v>155.4396985180686</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="G6" t="n">
-        <v>16.70887310068412</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H6" t="n">
-        <v>16.70887310068412</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>16.70887310068412</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>141.3123005057358</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>338.7522135484785</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>536.1921265912213</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>733.632039633964</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>797.73702239492</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>797.73702239492</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>797.73702239492</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>797.73702239492</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="S6" t="n">
-        <v>759.7859276051292</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="T6" t="n">
-        <v>759.7859276051292</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="U6" t="n">
-        <v>759.7859276051292</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="V6" t="n">
-        <v>759.7859276051292</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="W6" t="n">
-        <v>558.3371845761091</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="X6" t="n">
-        <v>356.8884415470889</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="Y6" t="n">
-        <v>155.4396985180686</v>
+        <v>93.44061023954541</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.4870309381691</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C7" t="n">
-        <v>38.44917663565886</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="D7" t="n">
-        <v>38.44917663565886</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="E7" t="n">
-        <v>38.44917663565886</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="F7" t="n">
-        <v>38.44917663565886</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="G7" t="n">
-        <v>38.44917663565886</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="H7" t="n">
-        <v>38.44917663565886</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="I7" t="n">
-        <v>38.44917663565886</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="J7" t="n">
-        <v>38.44917663565886</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>15.9547404478984</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>43.26886545561138</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>82.45690364783356</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>126.1477543032699</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>150.4870309381691</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>150.4870309381691</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.4870309381691</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>150.4870309381691</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="S7" t="n">
-        <v>150.4870309381691</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="T7" t="n">
-        <v>150.4870309381691</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="U7" t="n">
-        <v>150.4870309381691</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="V7" t="n">
-        <v>150.4870309381691</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="W7" t="n">
-        <v>150.4870309381691</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X7" t="n">
-        <v>150.4870309381691</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.4870309381691</v>
+        <v>46.15803044872652</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>434.81371658237</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C8" t="n">
-        <v>434.81371658237</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D8" t="n">
-        <v>434.81371658237</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>236.4189734732054</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>229.473472724002</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>28.02472969498175</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>28.02472969498175</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>28.02472969498175</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>15.9547404478984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>118.9697463588208</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.0455979434793</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>496.485510986222</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>558.882016960221</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>708.076967102869</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>797.73702239492</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>787.645407026693</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>636.2624596113902</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>636.2624596113902</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>636.2624596113902</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>636.2624596113902</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V8" t="n">
-        <v>636.2624596113902</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W8" t="n">
-        <v>636.2624596113902</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X8" t="n">
-        <v>636.2624596113902</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y8" t="n">
-        <v>636.2624596113902</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>523.1501483984746</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C9" t="n">
-        <v>359.1084632533328</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D9" t="n">
-        <v>359.1084632533328</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="E9" t="n">
-        <v>359.1084632533328</v>
+        <v>154.2571907237133</v>
       </c>
       <c r="F9" t="n">
-        <v>359.1084632533328</v>
+        <v>154.2571907237133</v>
       </c>
       <c r="G9" t="n">
-        <v>220.3776378359483</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>107.0085022435276</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>16.70887310068412</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>15.9547404478984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.3123005057358</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>141.3123005057358</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7522135484785</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>348.2590732254972</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>545.6989862682399</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>728.3424638815907</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>797.73702239492</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>696.5674929478057</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>523.1501483984746</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>523.1501483984746</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>523.1501483984746</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>523.1501483984746</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>523.1501483984746</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>523.1501483984746</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>523.1501483984746</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>15.9547404478984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>15.9547404478984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>15.9547404478984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>15.9547404478984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>15.9547404478984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>15.9547404478984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.26886545561138</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.45690364783356</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.1477543032699</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.4870309381691</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>773.7669455398695</v>
+        <v>1434.718271327547</v>
       </c>
       <c r="C11" t="n">
-        <v>773.7669455398695</v>
+        <v>1434.718271327547</v>
       </c>
       <c r="D11" t="n">
-        <v>773.7669455398695</v>
+        <v>1434.718271327547</v>
       </c>
       <c r="E11" t="n">
-        <v>773.7669455398695</v>
+        <v>1048.930018729303</v>
       </c>
       <c r="F11" t="n">
-        <v>572.3182025108492</v>
+        <v>637.9441139396954</v>
       </c>
       <c r="G11" t="n">
-        <v>370.869459481829</v>
+        <v>219.2260135638489</v>
       </c>
       <c r="H11" t="n">
-        <v>169.4207164528088</v>
+        <v>219.2260135638489</v>
       </c>
       <c r="I11" t="n">
-        <v>15.9547404478984</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="J11" t="n">
-        <v>15.9547404478984</v>
+        <v>89.7024173204521</v>
       </c>
       <c r="K11" t="n">
-        <v>15.9547404478984</v>
+        <v>289.913803723854</v>
       </c>
       <c r="L11" t="n">
-        <v>213.3946534906411</v>
+        <v>590.5703600013142</v>
       </c>
       <c r="M11" t="n">
-        <v>249.3325754907725</v>
+        <v>941.7152546494182</v>
       </c>
       <c r="N11" t="n">
-        <v>446.7724885335152</v>
+        <v>1283.9100432578</v>
       </c>
       <c r="O11" t="n">
-        <v>600.2971093521774</v>
+        <v>1561.847240808267</v>
       </c>
       <c r="P11" t="n">
-        <v>797.7370223949201</v>
+        <v>1761.385825705728</v>
       </c>
       <c r="Q11" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="R11" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="S11" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="T11" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="U11" t="n">
-        <v>797.7370223949201</v>
+        <v>1580.187104469515</v>
       </c>
       <c r="V11" t="n">
-        <v>773.7669455398695</v>
+        <v>1580.187104469515</v>
       </c>
       <c r="W11" t="n">
-        <v>773.7669455398695</v>
+        <v>1580.187104469515</v>
       </c>
       <c r="X11" t="n">
-        <v>773.7669455398695</v>
+        <v>1580.187104469515</v>
       </c>
       <c r="Y11" t="n">
-        <v>773.7669455398695</v>
+        <v>1580.187104469515</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>698.532393896444</v>
+        <v>989.4317675755559</v>
       </c>
       <c r="C12" t="n">
-        <v>524.079364615317</v>
+        <v>814.9787382944289</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1449549540657</v>
+        <v>666.0443286331777</v>
       </c>
       <c r="E12" t="n">
-        <v>215.9074999486103</v>
+        <v>506.8068736277221</v>
       </c>
       <c r="F12" t="n">
-        <v>215.9074999486103</v>
+        <v>360.2723156546071</v>
       </c>
       <c r="G12" t="n">
-        <v>77.99738689487637</v>
+        <v>221.9586206544411</v>
       </c>
       <c r="H12" t="n">
-        <v>77.99738689487637</v>
+        <v>112.6180867230519</v>
       </c>
       <c r="I12" t="n">
-        <v>15.9547404478984</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="J12" t="n">
-        <v>15.9547404478984</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="K12" t="n">
-        <v>213.3946534906411</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="L12" t="n">
-        <v>250.8786297358884</v>
+        <v>355.4112970345678</v>
       </c>
       <c r="M12" t="n">
-        <v>448.3185427786311</v>
+        <v>779.3346932356715</v>
       </c>
       <c r="N12" t="n">
-        <v>527.4961282780645</v>
+        <v>1227.272890636458</v>
       </c>
       <c r="O12" t="n">
-        <v>724.9360413208071</v>
+        <v>1573.297248033447</v>
       </c>
       <c r="P12" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="Q12" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="R12" t="n">
-        <v>797.7370223949201</v>
+        <v>1758.738380021255</v>
       </c>
       <c r="S12" t="n">
-        <v>797.7370223949201</v>
+        <v>1758.738380021255</v>
       </c>
       <c r="T12" t="n">
-        <v>698.532393896444</v>
+        <v>1758.738380021255</v>
       </c>
       <c r="U12" t="n">
-        <v>698.532393896444</v>
+        <v>1530.542204548251</v>
       </c>
       <c r="V12" t="n">
-        <v>698.532393896444</v>
+        <v>1411.884461323825</v>
       </c>
       <c r="W12" t="n">
-        <v>698.532393896444</v>
+        <v>1157.647104595624</v>
       </c>
       <c r="X12" t="n">
-        <v>698.532393896444</v>
+        <v>1157.647104595624</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.532393896444</v>
+        <v>1157.647104595624</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>637.5059543573393</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="C13" t="n">
-        <v>637.5059543573393</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="D13" t="n">
-        <v>637.5059543573393</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="E13" t="n">
-        <v>489.5928607749462</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="F13" t="n">
-        <v>342.7029132770359</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="G13" t="n">
-        <v>173.7031130153683</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="H13" t="n">
-        <v>15.9547404478984</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="I13" t="n">
-        <v>15.9547404478984</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="J13" t="n">
-        <v>15.9547404478984</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25693351416655</v>
+        <v>54.4545825185775</v>
       </c>
       <c r="L13" t="n">
-        <v>199.830791075325</v>
+        <v>132.7261268640588</v>
       </c>
       <c r="M13" t="n">
-        <v>344.7286597933549</v>
+        <v>225.6416189905563</v>
       </c>
       <c r="N13" t="n">
-        <v>491.615797477784</v>
+        <v>321.782404812475</v>
       </c>
       <c r="O13" t="n">
-        <v>611.2735479870241</v>
+        <v>394.5676858416278</v>
       </c>
       <c r="P13" t="n">
-        <v>690.1407428339683</v>
+        <v>433.3273855790349</v>
       </c>
       <c r="Q13" t="n">
-        <v>690.1407428339683</v>
+        <v>420.2252022205578</v>
       </c>
       <c r="R13" t="n">
-        <v>690.1407428339683</v>
+        <v>256.8651176734622</v>
       </c>
       <c r="S13" t="n">
-        <v>690.1407428339683</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="T13" t="n">
-        <v>690.1407428339683</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="U13" t="n">
-        <v>690.1407428339683</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="V13" t="n">
-        <v>690.1407428339683</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="W13" t="n">
-        <v>690.1407428339683</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="X13" t="n">
-        <v>637.5059543573393</v>
+        <v>36.68018466426692</v>
       </c>
       <c r="Y13" t="n">
-        <v>637.5059543573393</v>
+        <v>36.68018466426692</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>797.7370223949201</v>
+        <v>1742.115333051495</v>
       </c>
       <c r="C14" t="n">
-        <v>797.7370223949201</v>
+        <v>1742.115333051495</v>
       </c>
       <c r="D14" t="n">
-        <v>596.2882793658998</v>
+        <v>1383.849634444744</v>
       </c>
       <c r="E14" t="n">
-        <v>596.2882793658998</v>
+        <v>1383.849634444744</v>
       </c>
       <c r="F14" t="n">
-        <v>394.8395363368796</v>
+        <v>972.8637296551369</v>
       </c>
       <c r="G14" t="n">
-        <v>193.3907933078593</v>
+        <v>554.1456292792903</v>
       </c>
       <c r="H14" t="n">
-        <v>169.4207164528088</v>
+        <v>219.2260135638489</v>
       </c>
       <c r="I14" t="n">
-        <v>15.9547404478984</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="J14" t="n">
-        <v>131.7225966808481</v>
+        <v>89.70241732045153</v>
       </c>
       <c r="K14" t="n">
-        <v>131.7225966808481</v>
+        <v>289.9138037238534</v>
       </c>
       <c r="L14" t="n">
-        <v>135.5587723249971</v>
+        <v>590.5703600013137</v>
       </c>
       <c r="M14" t="n">
-        <v>332.9986853677398</v>
+        <v>941.7152546494177</v>
       </c>
       <c r="N14" t="n">
-        <v>447.8395781252072</v>
+        <v>1283.9100432578</v>
       </c>
       <c r="O14" t="n">
-        <v>645.2794911679499</v>
+        <v>1561.847240808266</v>
       </c>
       <c r="P14" t="n">
-        <v>645.2794911679499</v>
+        <v>1761.385825705727</v>
       </c>
       <c r="Q14" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="R14" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="S14" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="T14" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="U14" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="V14" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="W14" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="X14" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="Y14" t="n">
-        <v>797.7370223949201</v>
+        <v>1742.115333051495</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>547.9193838103697</v>
+        <v>287.0711160041789</v>
       </c>
       <c r="C15" t="n">
-        <v>373.4663545292427</v>
+        <v>112.6180867230519</v>
       </c>
       <c r="D15" t="n">
-        <v>224.5319448679914</v>
+        <v>112.6180867230519</v>
       </c>
       <c r="E15" t="n">
-        <v>224.5319448679914</v>
+        <v>112.6180867230519</v>
       </c>
       <c r="F15" t="n">
-        <v>77.99738689487637</v>
+        <v>112.6180867230519</v>
       </c>
       <c r="G15" t="n">
-        <v>77.99738689487637</v>
+        <v>112.6180867230519</v>
       </c>
       <c r="H15" t="n">
-        <v>77.99738689487637</v>
+        <v>112.6180867230519</v>
       </c>
       <c r="I15" t="n">
-        <v>15.9547404478984</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="J15" t="n">
-        <v>15.9547404478984</v>
+        <v>74.56648351262993</v>
       </c>
       <c r="K15" t="n">
-        <v>121.3517101598699</v>
+        <v>74.56648351262993</v>
       </c>
       <c r="L15" t="n">
-        <v>318.7916232026126</v>
+        <v>393.2975958829308</v>
       </c>
       <c r="M15" t="n">
-        <v>381.8905236481435</v>
+        <v>817.2209920840344</v>
       </c>
       <c r="N15" t="n">
-        <v>579.3304366908862</v>
+        <v>1227.272890636458</v>
       </c>
       <c r="O15" t="n">
-        <v>776.7703497336289</v>
+        <v>1573.297248033447</v>
       </c>
       <c r="P15" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="Q15" t="n">
-        <v>797.7370223949201</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="R15" t="n">
-        <v>797.7370223949201</v>
+        <v>1758.738380021255</v>
       </c>
       <c r="S15" t="n">
-        <v>797.7370223949201</v>
+        <v>1593.06905001982</v>
       </c>
       <c r="T15" t="n">
-        <v>797.7370223949201</v>
+        <v>1392.563783683077</v>
       </c>
       <c r="U15" t="n">
-        <v>797.7370223949201</v>
+        <v>1164.367608210072</v>
       </c>
       <c r="V15" t="n">
-        <v>749.36812683939</v>
+        <v>1125.135608722935</v>
       </c>
       <c r="W15" t="n">
-        <v>749.36812683939</v>
+        <v>870.8982519947338</v>
       </c>
       <c r="X15" t="n">
-        <v>749.36812683939</v>
+        <v>663.0467517892009</v>
       </c>
       <c r="Y15" t="n">
-        <v>547.9193838103697</v>
+        <v>455.286453024247</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>671.5782961091636</v>
+        <v>400.6751201725646</v>
       </c>
       <c r="C16" t="n">
-        <v>671.5782961091636</v>
+        <v>400.6751201725646</v>
       </c>
       <c r="D16" t="n">
-        <v>671.5782961091636</v>
+        <v>400.6751201725646</v>
       </c>
       <c r="E16" t="n">
-        <v>671.5782961091636</v>
+        <v>252.7620265901714</v>
       </c>
       <c r="F16" t="n">
-        <v>524.6883486112532</v>
+        <v>252.7620265901714</v>
       </c>
       <c r="G16" t="n">
-        <v>355.6885483495856</v>
+        <v>252.7620265901714</v>
       </c>
       <c r="H16" t="n">
-        <v>197.9401757821158</v>
+        <v>252.7620265901714</v>
       </c>
       <c r="I16" t="n">
-        <v>61.61126488076406</v>
+        <v>106.2580220482873</v>
       </c>
       <c r="J16" t="n">
-        <v>15.9547404478984</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25693351416655</v>
+        <v>54.45458251857749</v>
       </c>
       <c r="L16" t="n">
-        <v>199.830791075325</v>
+        <v>132.7261268640588</v>
       </c>
       <c r="M16" t="n">
-        <v>344.7286597933549</v>
+        <v>225.6416189905563</v>
       </c>
       <c r="N16" t="n">
-        <v>491.615797477784</v>
+        <v>321.782404812475</v>
       </c>
       <c r="O16" t="n">
-        <v>611.2735479870241</v>
+        <v>394.5676858416278</v>
       </c>
       <c r="P16" t="n">
-        <v>690.1407428339683</v>
+        <v>433.3273855790349</v>
       </c>
       <c r="Q16" t="n">
-        <v>690.1407428339683</v>
+        <v>433.3273855790349</v>
       </c>
       <c r="R16" t="n">
-        <v>690.1407428339683</v>
+        <v>433.3273855790349</v>
       </c>
       <c r="S16" t="n">
-        <v>690.1407428339683</v>
+        <v>433.3273855790349</v>
       </c>
       <c r="T16" t="n">
-        <v>690.1407428339683</v>
+        <v>433.3273855790349</v>
       </c>
       <c r="U16" t="n">
-        <v>690.1407428339683</v>
+        <v>433.3273855790349</v>
       </c>
       <c r="V16" t="n">
-        <v>690.1407428339683</v>
+        <v>433.3273855790349</v>
       </c>
       <c r="W16" t="n">
-        <v>690.1407428339683</v>
+        <v>433.3273855790349</v>
       </c>
       <c r="X16" t="n">
-        <v>690.1407428339683</v>
+        <v>400.6751201725646</v>
       </c>
       <c r="Y16" t="n">
-        <v>690.1407428339683</v>
+        <v>400.6751201725646</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1363.553390680693</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="C17" t="n">
-        <v>1363.553390680693</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D17" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E17" t="n">
         <v>1363.553390680693</v>
@@ -5510,10 +5512,10 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W17" t="n">
-        <v>1363.553390680693</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="X17" t="n">
-        <v>1363.553390680693</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="Y17" t="n">
-        <v>1363.553390680693</v>
+        <v>2366.086203674651</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5591,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5598,19 +5600,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5628,10 +5630,10 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
         <v>1364.473611002105</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5692,31 +5694,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>261.391796148808</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>261.391796148808</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>261.391796148808</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1422.14692331494</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C20" t="n">
-        <v>1422.14692331494</v>
+        <v>739.4034003911121</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.14692331494</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5777,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T20" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U20" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V20" t="n">
-        <v>2148.381336846134</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="W20" t="n">
-        <v>1795.61268157602</v>
+        <v>1837.140060718707</v>
       </c>
       <c r="X20" t="n">
-        <v>1422.14692331494</v>
+        <v>1463.674302457627</v>
       </c>
       <c r="Y20" t="n">
-        <v>1422.14692331494</v>
+        <v>1463.674302457627</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
         <v>814.0449459359563</v>
@@ -5826,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5868,7 +5870,7 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
         <v>1364.473611002105</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2232.651169546477</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="C22" t="n">
-        <v>2063.71498661857</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="D22" t="n">
-        <v>2063.71498661857</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="E22" t="n">
-        <v>2063.71498661857</v>
+        <v>2031.829276500851</v>
       </c>
       <c r="F22" t="n">
-        <v>2063.71498661857</v>
+        <v>2031.829276500851</v>
       </c>
       <c r="G22" t="n">
-        <v>2063.71498661857</v>
+        <v>2031.829276500851</v>
       </c>
       <c r="H22" t="n">
-        <v>2063.71498661857</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I22" t="n">
-        <v>2063.71498661857</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L22" t="n">
         <v>2206.839139259579</v>
@@ -5929,31 +5931,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>2453.443748690007</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>2453.443748690007</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>2453.443748690007</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V22" t="n">
-        <v>2453.443748690007</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W22" t="n">
-        <v>2453.443748690007</v>
+        <v>2407.731920981261</v>
       </c>
       <c r="X22" t="n">
-        <v>2453.443748690007</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y22" t="n">
-        <v>2232.651169546477</v>
+        <v>2179.742370083244</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>994.3352828674997</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>625.3727659270879</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>625.3727659270879</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E23" t="n">
-        <v>625.3727659270879</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6014,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V23" t="n">
-        <v>2497.308868438628</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W23" t="n">
-        <v>2144.540213168513</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X23" t="n">
-        <v>1771.074454907433</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y23" t="n">
-        <v>1380.935122931621</v>
+        <v>2013.546485980901</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6096,13 +6098,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2604.211680026144</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C25" t="n">
-        <v>2604.211680026144</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D25" t="n">
-        <v>2454.095040613808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E25" t="n">
-        <v>2306.181947031415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V25" t="n">
-        <v>2604.211680026144</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W25" t="n">
-        <v>2604.211680026144</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X25" t="n">
-        <v>2604.211680026144</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y25" t="n">
-        <v>2604.211680026144</v>
+        <v>259.1560728187101</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1386.090004781549</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C26" t="n">
-        <v>1386.090004781549</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="D26" t="n">
-        <v>1338.355738489329</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="E26" t="n">
-        <v>952.5674858910851</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>191.3870246398026</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6269,7 +6271,7 @@
         <v>1386.090004781549</v>
       </c>
       <c r="Y26" t="n">
-        <v>1386.090004781549</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>380.6911546495019</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C28" t="n">
-        <v>380.6911546495019</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D28" t="n">
-        <v>380.6911546495019</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E28" t="n">
-        <v>380.6911546495019</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="F28" t="n">
-        <v>380.6911546495019</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036445</v>
@@ -6415,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>380.6911546495019</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1330.912423534854</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C29" t="n">
-        <v>1330.912423534854</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D29" t="n">
-        <v>1330.912423534854</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E29" t="n">
-        <v>1330.912423534854</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F29" t="n">
-        <v>919.9265187452468</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>501.9627106434336</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>174.7679906794365</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2009.86478676585</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.512263598976</v>
+        <v>1678.801899422279</v>
       </c>
       <c r="W29" t="n">
-        <v>1717.512263598976</v>
+        <v>1326.033244152165</v>
       </c>
       <c r="X29" t="n">
-        <v>1717.512263598976</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="Y29" t="n">
-        <v>1717.512263598976</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6542,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
         <v>2188.831293537797</v>
@@ -6640,25 +6642,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>471.4038777286579</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>463.5809975486215</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>463.5809975486215</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W31" t="n">
-        <v>463.5809975486215</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X31" t="n">
         <v>235.5914466506042</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1327.013560149308</v>
+        <v>976.6605612216329</v>
       </c>
       <c r="C32" t="n">
-        <v>1303.85528118563</v>
+        <v>976.6605612216329</v>
       </c>
       <c r="D32" t="n">
-        <v>945.5895825788796</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="E32" t="n">
-        <v>945.5895825788796</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F32" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
@@ -6701,16 +6703,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6728,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2479.63414679276</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>2479.63414679276</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.387305656314</v>
+        <v>2479.63414679276</v>
       </c>
       <c r="W32" t="n">
-        <v>2090.6186503862</v>
+        <v>2126.865491522646</v>
       </c>
       <c r="X32" t="n">
-        <v>1717.15289212512</v>
+        <v>1753.399733261566</v>
       </c>
       <c r="Y32" t="n">
-        <v>1327.013560149308</v>
+        <v>1363.260401285755</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
         <v>266.206002764199</v>
@@ -6804,22 +6806,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
         <v>53.94298182036445</v>
@@ -6877,31 +6879,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V34" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W34" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>424.8522003762303</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1739.145928656049</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C35" t="n">
-        <v>1370.183411715637</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D35" t="n">
-        <v>1370.183411715637</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E35" t="n">
-        <v>984.3951591173927</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F35" t="n">
-        <v>573.4092543277852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2478.514423990285</v>
+        <v>1775.577696228101</v>
       </c>
       <c r="W35" t="n">
-        <v>2125.74576872017</v>
+        <v>1775.577696228101</v>
       </c>
       <c r="X35" t="n">
-        <v>2125.74576872017</v>
+        <v>1402.111937967022</v>
       </c>
       <c r="Y35" t="n">
-        <v>2125.74576872017</v>
+        <v>1011.97260599121</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961344</v>
@@ -7011,13 +7013,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
         <v>713.8062203571349</v>
@@ -7026,13 +7028,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7041,16 +7043,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.0594214943677</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C37" t="n">
-        <v>373.0594214943677</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D37" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7120,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>554.7078863246074</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>554.7078863246074</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>554.7078863246074</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>554.7078863246074</v>
+        <v>597.7586631441991</v>
       </c>
       <c r="W37" t="n">
-        <v>554.7078863246074</v>
+        <v>597.7586631441991</v>
       </c>
       <c r="X37" t="n">
-        <v>554.7078863246074</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y37" t="n">
-        <v>554.7078863246074</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1954.141365880777</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C38" t="n">
-        <v>1954.141365880777</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D38" t="n">
-        <v>1595.875667274026</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>799.1015098861747</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
@@ -7175,13 +7177,13 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
         <v>1836.345445977174</v>
@@ -7214,10 +7216,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2344.280697856589</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y38" t="n">
-        <v>1954.141365880777</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="39">
@@ -7233,13 +7235,13 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7254,13 +7256,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517452</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2486.040172362641</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C40" t="n">
-        <v>2486.040172362641</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D40" t="n">
-        <v>2486.040172362641</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E40" t="n">
-        <v>2486.040172362641</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F40" t="n">
-        <v>2486.040172362641</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G40" t="n">
-        <v>2317.040372100974</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H40" t="n">
-        <v>2159.291999533504</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632152</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2667.732171871844</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R40" t="n">
-        <v>2519.585513306028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S40" t="n">
-        <v>2519.585513306028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T40" t="n">
-        <v>2519.585513306028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U40" t="n">
-        <v>2519.585513306028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V40" t="n">
-        <v>2519.585513306028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W40" t="n">
-        <v>2519.585513306028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X40" t="n">
-        <v>2486.040172362641</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y40" t="n">
-        <v>2486.040172362641</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>596.2882793658996</v>
+        <v>442.5273058917444</v>
       </c>
       <c r="C41" t="n">
-        <v>394.8395363368795</v>
+        <v>442.5273058917444</v>
       </c>
       <c r="D41" t="n">
-        <v>217.4034834769185</v>
+        <v>442.5273058917444</v>
       </c>
       <c r="E41" t="n">
-        <v>15.95474044789839</v>
+        <v>442.5273058917444</v>
       </c>
       <c r="F41" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="G41" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="H41" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="I41" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="J41" t="n">
-        <v>15.95474044789839</v>
+        <v>152.4480408972166</v>
       </c>
       <c r="K41" t="n">
-        <v>201.5811076225428</v>
+        <v>446.6988519172151</v>
       </c>
       <c r="L41" t="n">
-        <v>205.4172832666917</v>
+        <v>450.535027561364</v>
       </c>
       <c r="M41" t="n">
-        <v>402.8571963094344</v>
+        <v>519.2883029519948</v>
       </c>
       <c r="N41" t="n">
-        <v>600.297109352177</v>
+        <v>973.2055881722978</v>
       </c>
       <c r="O41" t="n">
-        <v>797.7370223949197</v>
+        <v>1375.703461837812</v>
       </c>
       <c r="P41" t="n">
-        <v>797.7370223949197</v>
+        <v>1681.551701986376</v>
       </c>
       <c r="Q41" t="n">
-        <v>797.7370223949197</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="R41" t="n">
-        <v>797.7370223949197</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="S41" t="n">
-        <v>797.7370223949197</v>
+        <v>1657.831745527516</v>
       </c>
       <c r="T41" t="n">
-        <v>797.7370223949197</v>
+        <v>1439.197078499579</v>
       </c>
       <c r="U41" t="n">
-        <v>797.7370223949197</v>
+        <v>1185.43529313767</v>
       </c>
       <c r="V41" t="n">
-        <v>797.7370223949197</v>
+        <v>1185.43529313767</v>
       </c>
       <c r="W41" t="n">
-        <v>797.7370223949197</v>
+        <v>832.6666378675561</v>
       </c>
       <c r="X41" t="n">
-        <v>797.7370223949197</v>
+        <v>832.6666378675561</v>
       </c>
       <c r="Y41" t="n">
-        <v>797.7370223949197</v>
+        <v>442.5273058917444</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15.95474044789839</v>
+        <v>516.9052269239644</v>
       </c>
       <c r="C42" t="n">
-        <v>15.95474044789839</v>
+        <v>342.4521976428374</v>
       </c>
       <c r="D42" t="n">
-        <v>15.95474044789839</v>
+        <v>342.4521976428374</v>
       </c>
       <c r="E42" t="n">
-        <v>15.95474044789839</v>
+        <v>183.2147426373819</v>
       </c>
       <c r="F42" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="G42" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="H42" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="I42" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="J42" t="n">
-        <v>15.95474044789839</v>
+        <v>111.9373470643967</v>
       </c>
       <c r="K42" t="n">
-        <v>51.02375025362618</v>
+        <v>112.3099498923196</v>
       </c>
       <c r="L42" t="n">
-        <v>88.50772649887344</v>
+        <v>149.7939261375668</v>
       </c>
       <c r="M42" t="n">
-        <v>151.6066269444044</v>
+        <v>603.7112113578698</v>
       </c>
       <c r="N42" t="n">
-        <v>230.7842124438377</v>
+        <v>1057.628496578173</v>
       </c>
       <c r="O42" t="n">
-        <v>428.2241254865803</v>
+        <v>1497.764419598517</v>
       </c>
       <c r="P42" t="n">
-        <v>625.664038529323</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="Q42" t="n">
-        <v>797.7370223949197</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="R42" t="n">
-        <v>797.7370223949197</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="S42" t="n">
-        <v>797.7370223949197</v>
+        <v>1675.836260857262</v>
       </c>
       <c r="T42" t="n">
-        <v>598.8584745176985</v>
+        <v>1476.957712980041</v>
       </c>
       <c r="U42" t="n">
-        <v>598.8584745176985</v>
+        <v>1248.78808895088</v>
       </c>
       <c r="V42" t="n">
-        <v>598.8584745176985</v>
+        <v>1186.754382622653</v>
       </c>
       <c r="W42" t="n">
-        <v>418.8522265059387</v>
+        <v>932.5170258944511</v>
       </c>
       <c r="X42" t="n">
-        <v>217.4034834769185</v>
+        <v>724.6655256889183</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.95474044789839</v>
+        <v>516.9052269239644</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>335.0075627881411</v>
+        <v>1159.823230827276</v>
       </c>
       <c r="C43" t="n">
-        <v>166.0713798602341</v>
+        <v>1159.823230827276</v>
       </c>
       <c r="D43" t="n">
-        <v>15.95474044789839</v>
+        <v>1159.823230827276</v>
       </c>
       <c r="E43" t="n">
-        <v>15.95474044789839</v>
+        <v>1159.823230827276</v>
       </c>
       <c r="F43" t="n">
-        <v>15.95474044789839</v>
+        <v>1159.823230827276</v>
       </c>
       <c r="G43" t="n">
-        <v>15.95474044789839</v>
+        <v>1159.823230827276</v>
       </c>
       <c r="H43" t="n">
-        <v>15.95474044789839</v>
+        <v>1159.823230827276</v>
       </c>
       <c r="I43" t="n">
-        <v>15.95474044789839</v>
+        <v>1159.823230827276</v>
       </c>
       <c r="J43" t="n">
-        <v>15.95474044789839</v>
+        <v>1159.823230827276</v>
       </c>
       <c r="K43" t="n">
-        <v>72.25693351416652</v>
+        <v>1216.125423893544</v>
       </c>
       <c r="L43" t="n">
-        <v>199.8307910753249</v>
+        <v>1343.699281454702</v>
       </c>
       <c r="M43" t="n">
-        <v>344.7286597933548</v>
+        <v>1488.597150172732</v>
       </c>
       <c r="N43" t="n">
-        <v>491.6157974777839</v>
+        <v>1635.484287857161</v>
       </c>
       <c r="O43" t="n">
-        <v>611.273547987024</v>
+        <v>1755.142038366401</v>
       </c>
       <c r="P43" t="n">
-        <v>690.1407428339681</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="Q43" t="n">
-        <v>690.1407428339681</v>
+        <v>1804.592314066967</v>
       </c>
       <c r="R43" t="n">
-        <v>690.1407428339681</v>
+        <v>1656.445655501151</v>
       </c>
       <c r="S43" t="n">
-        <v>690.1407428339681</v>
+        <v>1442.157232319314</v>
       </c>
       <c r="T43" t="n">
-        <v>690.1407428339681</v>
+        <v>1214.849044987916</v>
       </c>
       <c r="U43" t="n">
-        <v>690.1407428339681</v>
+        <v>1214.849044987916</v>
       </c>
       <c r="V43" t="n">
-        <v>516.6560276183808</v>
+        <v>1214.849044987916</v>
       </c>
       <c r="W43" t="n">
-        <v>516.6560276183808</v>
+        <v>1214.849044987916</v>
       </c>
       <c r="X43" t="n">
-        <v>516.6560276183808</v>
+        <v>1214.849044987916</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.6560276183808</v>
+        <v>1159.823230827276</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>217.4034834769185</v>
+        <v>677.7812382098152</v>
       </c>
       <c r="C44" t="n">
-        <v>217.4034834769185</v>
+        <v>677.7812382098152</v>
       </c>
       <c r="D44" t="n">
-        <v>217.4034834769185</v>
+        <v>677.7812382098152</v>
       </c>
       <c r="E44" t="n">
-        <v>217.4034834769185</v>
+        <v>677.7812382098152</v>
       </c>
       <c r="F44" t="n">
-        <v>217.4034834769185</v>
+        <v>677.7812382098152</v>
       </c>
       <c r="G44" t="n">
-        <v>15.95474044789839</v>
+        <v>259.8174301080021</v>
       </c>
       <c r="H44" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="I44" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="J44" t="n">
-        <v>131.7225966808481</v>
+        <v>152.4480408972166</v>
       </c>
       <c r="K44" t="n">
-        <v>131.7225966808481</v>
+        <v>446.6988519172151</v>
       </c>
       <c r="L44" t="n">
-        <v>135.558772324997</v>
+        <v>864.0196299663099</v>
       </c>
       <c r="M44" t="n">
-        <v>171.4966943251283</v>
+        <v>1317.936915186613</v>
       </c>
       <c r="N44" t="n">
-        <v>368.9366073678709</v>
+        <v>1359.07015871548</v>
       </c>
       <c r="O44" t="n">
-        <v>566.3765204106136</v>
+        <v>1681.551701986376</v>
       </c>
       <c r="P44" t="n">
-        <v>763.8164334533562</v>
+        <v>1681.551701986376</v>
       </c>
       <c r="Q44" t="n">
-        <v>797.7370223949197</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="R44" t="n">
-        <v>797.7370223949197</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="S44" t="n">
-        <v>797.7370223949197</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="T44" t="n">
-        <v>797.7370223949197</v>
+        <v>1615.374566185408</v>
       </c>
       <c r="U44" t="n">
-        <v>596.2882793658996</v>
+        <v>1361.6127808235</v>
       </c>
       <c r="V44" t="n">
-        <v>418.8522265059387</v>
+        <v>1030.549893479929</v>
       </c>
       <c r="W44" t="n">
-        <v>217.4034834769185</v>
+        <v>677.7812382098152</v>
       </c>
       <c r="X44" t="n">
-        <v>217.4034834769185</v>
+        <v>677.7812382098152</v>
       </c>
       <c r="Y44" t="n">
-        <v>217.4034834769185</v>
+        <v>677.7812382098152</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15.95474044789839</v>
+        <v>211.1332139453939</v>
       </c>
       <c r="C45" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="D45" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="E45" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="F45" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="G45" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="H45" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="I45" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="J45" t="n">
-        <v>91.2119028480282</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="K45" t="n">
-        <v>288.6518158907708</v>
+        <v>112.3099498923196</v>
       </c>
       <c r="L45" t="n">
-        <v>407.8083964708312</v>
+        <v>149.7939261375668</v>
       </c>
       <c r="M45" t="n">
-        <v>470.9072969163621</v>
+        <v>603.7112113578698</v>
       </c>
       <c r="N45" t="n">
-        <v>550.0848824157954</v>
+        <v>1057.628496578173</v>
       </c>
       <c r="O45" t="n">
-        <v>600.297109352177</v>
+        <v>1497.764419598517</v>
       </c>
       <c r="P45" t="n">
-        <v>797.7370223949197</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="Q45" t="n">
-        <v>797.7370223949197</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="R45" t="n">
-        <v>797.7370223949197</v>
+        <v>1834.009233213346</v>
       </c>
       <c r="S45" t="n">
-        <v>797.7370223949197</v>
+        <v>1711.397986802274</v>
       </c>
       <c r="T45" t="n">
-        <v>797.7370223949197</v>
+        <v>1512.519438925053</v>
       </c>
       <c r="U45" t="n">
-        <v>620.3009695349588</v>
+        <v>1284.349814895893</v>
       </c>
       <c r="V45" t="n">
-        <v>418.8522265059387</v>
+        <v>1049.19770666415</v>
       </c>
       <c r="W45" t="n">
-        <v>418.8522265059387</v>
+        <v>794.9603499359487</v>
       </c>
       <c r="X45" t="n">
-        <v>217.4034834769185</v>
+        <v>587.1088497304158</v>
       </c>
       <c r="Y45" t="n">
-        <v>15.95474044789839</v>
+        <v>379.348550965462</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.95474044789839</v>
+        <v>194.4285572317368</v>
       </c>
       <c r="C46" t="n">
-        <v>15.95474044789839</v>
+        <v>194.4285572317368</v>
       </c>
       <c r="D46" t="n">
-        <v>15.95474044789839</v>
+        <v>194.4285572317368</v>
       </c>
       <c r="E46" t="n">
-        <v>15.95474044789839</v>
+        <v>194.4285572317368</v>
       </c>
       <c r="F46" t="n">
-        <v>15.95474044789839</v>
+        <v>194.4285572317368</v>
       </c>
       <c r="G46" t="n">
-        <v>15.95474044789839</v>
+        <v>194.4285572317368</v>
       </c>
       <c r="H46" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="I46" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="J46" t="n">
-        <v>15.95474044789839</v>
+        <v>36.68018466426691</v>
       </c>
       <c r="K46" t="n">
-        <v>72.25693351416652</v>
+        <v>92.98237773053503</v>
       </c>
       <c r="L46" t="n">
-        <v>199.8307910753249</v>
+        <v>220.5562352916934</v>
       </c>
       <c r="M46" t="n">
-        <v>344.7286597933548</v>
+        <v>365.4541040097233</v>
       </c>
       <c r="N46" t="n">
-        <v>491.6157974777839</v>
+        <v>512.3412416941524</v>
       </c>
       <c r="O46" t="n">
-        <v>611.273547987024</v>
+        <v>631.9989922033925</v>
       </c>
       <c r="P46" t="n">
-        <v>690.1407428339681</v>
+        <v>710.8661870503366</v>
       </c>
       <c r="Q46" t="n">
-        <v>690.1407428339681</v>
+        <v>710.8661870503366</v>
       </c>
       <c r="R46" t="n">
-        <v>541.9940842681522</v>
+        <v>603.3852093933747</v>
       </c>
       <c r="S46" t="n">
-        <v>399.0519483071582</v>
+        <v>603.3852093933747</v>
       </c>
       <c r="T46" t="n">
-        <v>197.6032052781381</v>
+        <v>376.0770220619764</v>
       </c>
       <c r="U46" t="n">
-        <v>197.6032052781381</v>
+        <v>376.0770220619764</v>
       </c>
       <c r="V46" t="n">
-        <v>197.6032052781381</v>
+        <v>376.0770220619764</v>
       </c>
       <c r="W46" t="n">
-        <v>197.6032052781381</v>
+        <v>376.0770220619764</v>
       </c>
       <c r="X46" t="n">
-        <v>197.6032052781381</v>
+        <v>376.0770220619764</v>
       </c>
       <c r="Y46" t="n">
-        <v>197.6032052781381</v>
+        <v>376.0770220619764</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>278.3036430997579</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>429.7804888260027</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>428.8473191953209</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
-        <v>278.360720522883</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>330.7759676820633</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>342.0305000431745</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>281.2537326628305</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>429.7804888260027</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>428.8473191953209</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>337.9886353786042</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
-        <v>341.5682895207483</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>330.7759676820633</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>207.3487522837939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>429.7804888260027</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>292.439837307701</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>341.5682895207483</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>140.9446006459784</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>342.0305000431745</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>26.92237113682282</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>195.5593307056503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>157.8855247614906</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>129.3120470740053</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>212.2953474585329</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.31748437003577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>87.82204660468861</v>
       </c>
       <c r="K12" t="n">
-        <v>206.0739164081788</v>
+        <v>71.1575983382768</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>135.6979925224362</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>476.4007550892273</v>
       </c>
       <c r="O12" t="n">
-        <v>148.7148344508698</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>52.35788728567857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.266192922115</v>
+        <v>87.26790555049345</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K14" t="n">
-        <v>26.92237113682282</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>163.133324285466</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>74.45217093798016</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>173.6709281084302</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>12.86109185980288</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>113.1012463770967</v>
+        <v>71.1575983382768</v>
       </c>
       <c r="L15" t="n">
-        <v>161.5716533308035</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>119.4568965083933</v>
+        <v>438.1317663535067</v>
       </c>
       <c r="O15" t="n">
-        <v>148.7148344508698</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.266192922115</v>
+        <v>87.26790555049345</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9182,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783513</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,7 +10205,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10358,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,7 +10904,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>435.9238900028821</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>214.4237521213122</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>163.133324285466</v>
+        <v>33.1468216065651</v>
       </c>
       <c r="N41" t="n">
-        <v>157.8855247614904</v>
+        <v>416.9535774660969</v>
       </c>
       <c r="O41" t="n">
-        <v>173.6709281084302</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>12.86109185980291</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.3174843700358</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>42.06290303745669</v>
+        <v>7.016027302300174</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>394.7660452270426</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>378.5249492129998</v>
       </c>
       <c r="O42" t="n">
-        <v>148.7148344508697</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>178.2557983651025</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>36.26619292211501</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>26.92237113682285</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>422.2013769900725</v>
       </c>
       <c r="N44" t="n">
-        <v>157.8855247614904</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>173.6709281084301</v>
+        <v>299.9756051065642</v>
       </c>
       <c r="P44" t="n">
-        <v>212.2953474585328</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.58070552313018</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>206.0739164081787</v>
+        <v>83.03336306000708</v>
       </c>
       <c r="L45" t="n">
-        <v>82.49758013617489</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>394.7660452270426</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>378.5249492129998</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>178.2557983651025</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>36.26619292211501</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>238.7196968529325</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4417901429814</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>214.349914422065</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>124.4885171656271</v>
+        <v>331.570419558287</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>101.3863965129731</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>191.4322636515617</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>219.7172156429431</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>304.0218823836348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23346,13 +23348,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>164.0126367014202</v>
       </c>
       <c r="T12" t="n">
-        <v>98.67718018495755</v>
+        <v>198.5002136733761</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>115.3294213572442</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23422,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.6447683102764</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>159.1490415517819</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>145.0389644964652</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>68.8820590101802</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>44.20042750127769</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>226.4663240405932</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3001451174991</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>173.6012147971745</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23498,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>155.2487860219529</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4417901429814</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>214.349914422065</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>300.1923966778571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>101.3863965129731</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>191.4322636515617</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>219.7172156429431</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.2839074563927</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>295.2629774958214</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.9305580501643</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>108.2471285920753</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>184.9153805494504</v>
+        <v>193.9609076571598</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.248440178574327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>161.4551579243807</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.6447683102764</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>159.1490415517819</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>57.17158902617</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>161.7264837016246</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>217.9830836791034</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>226.4663240405932</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3001451174991</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>193.3839126366315</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23732,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>109.3788185999337</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>53.30008710312387</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23932,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="X19" t="n">
-        <v>20.33532920387805</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>30.97854038863812</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>175.3362150063966</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,13 +24144,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>147.3933628517836</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>4.855580181984038</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>129.910438116336</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>135.1112399863674</v>
       </c>
     </row>
     <row r="24">
@@ -24336,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.0920681165064</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24412,7 +24414,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24421,7 +24423,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>160.1296064416701</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>307.4261179913852</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>187.8531703731134</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>8.415712917443699</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.0280783696519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.31455747437995</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24734,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>16.15514203988147</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>278.5372228637417</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>342.3461955969664</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,10 +24970,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>1.108525574450482</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25117,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>19.66077927292511</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>211.747513639113</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>375.3666492476668</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>111.9631808776455</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>40.45865204701042</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25369,13 +25371,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>123.0710254722152</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>20.39139144845205</v>
+        <v>210.1687297073912</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25552,25 +25554,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>14.65885272800597</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>192.4997678550843</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>183.2995860647507</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>165.8386361722776</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>179.0213492893216</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>182.4961144735319</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>5.08739572650876</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25676,25 +25678,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25707,16 +25709,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.5310119231965</v>
@@ -25755,25 +25757,25 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>171.3872178844798</v>
       </c>
       <c r="W42" t="n">
-        <v>73.48879762927743</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>6.338729604747556</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.248440178574441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25828,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>80.38777526039652</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>164.1090973330616</v>
       </c>
     </row>
     <row r="44">
@@ -25877,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>214.3499144220651</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>103.0168997750593</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25916,16 +25918,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>51.78991190955938</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>152.0905661387736</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>149.8067131186831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25992,25 +25994,25 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>35.20610868556251</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>50.22623545750736</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>33.36633155069535</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>6.338729604747556</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>6.248440178574441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26040,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923383</v>
@@ -26068,13 +26070,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>40.25902409976553</v>
       </c>
       <c r="S46" t="n">
-        <v>70.63282434863493</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>25.60084985935435</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1014986.870871555</v>
+        <v>998106.9462627155</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1014986.870871555</v>
+        <v>998106.9462627155</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1014986.870871555</v>
+        <v>1019506.242488672</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434613.7974010714</v>
+        <v>602925.6091390899</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434613.7974010713</v>
+        <v>602925.6091390899</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>744772.1888539589</v>
+        <v>744772.1888539586</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>744772.1888539589</v>
+        <v>744772.1888539586</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>744772.1888539589</v>
+        <v>744772.1888539586</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434613.7974010713</v>
+        <v>603828.5388066728</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434613.7974010714</v>
+        <v>603828.5388066727</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>212089.4701056955</v>
+        <v>274160.3014835796</v>
       </c>
       <c r="F2" t="n">
-        <v>212089.4701056954</v>
+        <v>274160.3014835796</v>
       </c>
       <c r="G2" t="n">
-        <v>346983.1320189091</v>
+        <v>346983.132018909</v>
       </c>
       <c r="H2" t="n">
-        <v>346983.1320189091</v>
+        <v>346983.132018909</v>
       </c>
       <c r="I2" t="n">
-        <v>346983.1320189091</v>
+        <v>346983.132018909</v>
       </c>
       <c r="J2" t="n">
-        <v>346983.1320189091</v>
+        <v>346983.1320189089</v>
       </c>
       <c r="K2" t="n">
-        <v>346983.132018909</v>
+        <v>346983.1320189092</v>
       </c>
       <c r="L2" t="n">
-        <v>346983.132018909</v>
+        <v>346983.1320189089</v>
       </c>
       <c r="M2" t="n">
+        <v>346983.1320189093</v>
+      </c>
+      <c r="N2" t="n">
         <v>346983.1320189089</v>
       </c>
-      <c r="N2" t="n">
-        <v>346983.132018909</v>
-      </c>
       <c r="O2" t="n">
-        <v>212089.4701056955</v>
+        <v>285684.1131878133</v>
       </c>
       <c r="P2" t="n">
-        <v>212089.4701056955</v>
+        <v>285684.1131878133</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66835.00603901321</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>61157.49184790745</v>
       </c>
       <c r="E3" t="n">
-        <v>303480.3930630001</v>
+        <v>219182.2894942056</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>130150.0892071545</v>
+        <v>203564.6653126943</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>52180.77637187412</v>
+        <v>11546.91810999091</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>49829.0917467043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>54198.88439295653</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361120.1056344947</v>
+        <v>386095.5528670329</v>
       </c>
       <c r="C4" t="n">
-        <v>361120.1056344947</v>
+        <v>386095.5528670329</v>
       </c>
       <c r="D4" t="n">
-        <v>361120.1056344947</v>
+        <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
-        <v>28278.0068234198</v>
+        <v>77798.35504820556</v>
       </c>
       <c r="F4" t="n">
-        <v>28278.0068234198</v>
+        <v>77798.35504820553</v>
       </c>
       <c r="G4" t="n">
-        <v>80234.29431677572</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="H4" t="n">
-        <v>80234.29431677572</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="I4" t="n">
         <v>80234.29431677572</v>
@@ -26445,19 +26447,19 @@
         <v>80234.29431677572</v>
       </c>
       <c r="L4" t="n">
-        <v>80234.2943167757</v>
+        <v>80234.29431677572</v>
       </c>
       <c r="M4" t="n">
-        <v>80234.2943167757</v>
+        <v>80234.29431677572</v>
       </c>
       <c r="N4" t="n">
-        <v>80234.29431677569</v>
+        <v>80234.29431677572</v>
       </c>
       <c r="O4" t="n">
-        <v>28278.00682341979</v>
+        <v>56624.0712693942</v>
       </c>
       <c r="P4" t="n">
-        <v>28278.00682341979</v>
+        <v>56624.07126939419</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45753.20274040278</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>45753.20274040278</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>45753.20274040278</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>20360.41462033527</v>
+        <v>32062.31718005102</v>
       </c>
       <c r="F5" t="n">
-        <v>20360.41462033527</v>
+        <v>32062.31718005101</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26506,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>20360.41462033526</v>
+        <v>36111.75222477534</v>
       </c>
       <c r="P5" t="n">
-        <v>20360.41462033526</v>
+        <v>36111.75222477534</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18916.74750465946</v>
+        <v>55428.96696663577</v>
       </c>
       <c r="C6" t="n">
-        <v>85751.75354367268</v>
+        <v>70218.67297087981</v>
       </c>
       <c r="D6" t="n">
-        <v>85751.7535436725</v>
+        <v>28753.03402999161</v>
       </c>
       <c r="E6" t="n">
-        <v>-140029.3444010596</v>
+        <v>-54882.66023888254</v>
       </c>
       <c r="F6" t="n">
-        <v>163451.0486619403</v>
+        <v>164299.629255323</v>
       </c>
       <c r="G6" t="n">
-        <v>87367.27043156944</v>
+        <v>13952.69432602949</v>
       </c>
       <c r="H6" t="n">
-        <v>217517.3596387239</v>
+        <v>217517.3596387238</v>
       </c>
       <c r="I6" t="n">
         <v>217517.3596387239</v>
       </c>
       <c r="J6" t="n">
-        <v>165336.5832668498</v>
+        <v>205970.4415287328</v>
       </c>
       <c r="K6" t="n">
-        <v>217517.3596387238</v>
+        <v>217517.359638724</v>
       </c>
       <c r="L6" t="n">
-        <v>217517.3596387239</v>
+        <v>167688.2678920194</v>
       </c>
       <c r="M6" t="n">
+        <v>163318.4752457676</v>
+      </c>
+      <c r="N6" t="n">
         <v>217517.3596387237</v>
       </c>
-      <c r="N6" t="n">
-        <v>217517.3596387238</v>
-      </c>
       <c r="O6" t="n">
-        <v>163451.0486619405</v>
+        <v>192948.2896936437</v>
       </c>
       <c r="P6" t="n">
-        <v>163451.0486619404</v>
+        <v>192948.2896936438</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>191.989763082943</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>191.989763082943</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.43425559873</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>199.43425559873</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>199.43425559873</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>199.43425559873</v>
+        <v>458.5023083033365</v>
       </c>
       <c r="F4" t="n">
-        <v>199.43425559873</v>
+        <v>458.5023083033364</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>199.4342555987299</v>
+        <v>458.5023083033364</v>
       </c>
       <c r="P4" t="n">
-        <v>199.4342555987299</v>
+        <v>458.5023083033364</v>
       </c>
     </row>
   </sheetData>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>191.989763082943</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>185.7539011341436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.43425559873</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>217.4880194256775</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>474.8530171558256</v>
+        <v>215.7849644512191</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.43425559873</v>
+        <v>44.13217237922868</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>196.8821164984306</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>217.4880194256775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.43425559873</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>217.4880194256775</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>474.8530171558256</v>
+        <v>215.7849644512191</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>165.8386361722775</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4417901429814</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>215.868481916405</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>247.4930670867822</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>330.8460826936197</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>99.21849105784395</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27521,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>6.338729604747471</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6066114577229</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27576,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4417901429814</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>386.4218192980553</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27661,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>51.91139730910649</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>128.3180028714049</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>348.7418310568812</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>62.03280804727645</v>
       </c>
       <c r="S6" t="n">
-        <v>134.111587261945</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>52.2607275621896</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>6.338729604747471</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.248440178574356</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>56.32934533914266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>73.42748985075127</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27813,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.2995860647506</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>139.2194709966959</v>
       </c>
       <c r="E8" t="n">
-        <v>185.5195743941888</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>215.868481916405</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>10.30723069462536</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.717230025845026</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27998,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>0.7718181430470065</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>7.904382557480157</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>29.75551895981975</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>65.50710011843593</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>98.17816211361573</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>121.7986916088906</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>135.5245125103028</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>137.7174408092351</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>130.0426741493114</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>110.9884137428384</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>83.34767649496747</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>48.48272142817656</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>17.58780593468368</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>3.378633921188273</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.0617454514437605</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.4129591130463303</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>3.988315644421137</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>14.21810981321795</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>39.01558006197808</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>66.68384063608219</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>89.66465303227447</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>104.6344208802039</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>107.4037826514664</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>98.25347809396612</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>78.85707835004881</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>52.71386853552806</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>25.63968949247304</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>7.670534402417577</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>1.664515021445515</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.02716836270041647</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.3462110481823562</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>3.078130955657678</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>10.41151043079304</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>24.47712110649258</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>40.2234290524592</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>51.47214074522049</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>54.27015548916697</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>52.97973249139642</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>48.93535797399342</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>41.87265259107332</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>28.99045422552439</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>15.56690767554485</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>6.033514357868878</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>1.479265387688249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0188842389917649</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>0.7718181430470065</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>7.904382557480157</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>29.75551895981975</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>65.50710011843593</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>98.17816211361573</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>121.7986916088906</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>135.5245125103028</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>137.7174408092351</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>130.0426741493114</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>110.9884137428384</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>83.34767649496747</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>48.48272142817656</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>17.58780593468368</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>3.378633921188273</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.0617454514437605</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.4129591130463303</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>3.988315644421137</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>14.21810981321795</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>39.01558006197808</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>66.68384063608219</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>89.66465303227447</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>104.6344208802039</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>107.4037826514664</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>98.25347809396612</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>78.85707835004881</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>52.71386853552806</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>25.63968949247304</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>7.670534402417577</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>1.664515021445515</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.02716836270041647</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.3462110481823562</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>3.078130955657678</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>10.41151043079304</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>24.47712110649258</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>40.2234290524592</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>51.47214074522049</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>54.27015548916697</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>52.97973249139642</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>48.93535797399342</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>41.87265259107332</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>28.99045422552439</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>15.56690767554485</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>6.033514357868878</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>1.479265387688249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0188842389917649</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>58.21379205477732</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>199.43425559873</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N2" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
-        <v>136.2266866008647</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>199.43425559873</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>45.48731769284323</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>199.43425559873</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N5" t="n">
-        <v>199.43425559873</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>199.43425559873</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M6" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>64.75250783934948</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>199.43425559873</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>63.02677371111006</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>199.43425559873</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>9.602888562645118</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>53.55781076382341</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>202.2337236397999</v>
       </c>
       <c r="L11" t="n">
-        <v>199.43425559873</v>
+        <v>303.6934911893538</v>
       </c>
       <c r="M11" t="n">
-        <v>36.30093131326399</v>
+        <v>354.6918127758626</v>
       </c>
       <c r="N11" t="n">
-        <v>199.43425559873</v>
+        <v>345.6513016246283</v>
       </c>
       <c r="O11" t="n">
-        <v>155.0753745643052</v>
+        <v>280.74464399037</v>
       </c>
       <c r="P11" t="n">
-        <v>199.43425559873</v>
+        <v>201.5541261590515</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>73.35697728042267</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.43425559873</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>37.86260226792655</v>
+        <v>321.9506185558595</v>
       </c>
       <c r="M12" t="n">
-        <v>199.43425559873</v>
+        <v>428.2054507081855</v>
       </c>
       <c r="N12" t="n">
-        <v>79.97735909033671</v>
+        <v>452.4628256573604</v>
       </c>
       <c r="O12" t="n">
-        <v>199.43425559873</v>
+        <v>349.5195529262512</v>
       </c>
       <c r="P12" t="n">
-        <v>73.53634451930606</v>
+        <v>263.3454395756557</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>17.95393722657634</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>79.06216600553662</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>93.85403245100755</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>97.11190487062501</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>73.52048588803309</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>39.15121185596681</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>53.55781076382285</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>202.2337236397999</v>
       </c>
       <c r="L14" t="n">
-        <v>3.874924893079708</v>
+        <v>303.6934911893538</v>
       </c>
       <c r="M14" t="n">
-        <v>199.43425559873</v>
+        <v>354.6918127758626</v>
       </c>
       <c r="N14" t="n">
-        <v>116.0009017752196</v>
+        <v>345.6513016246283</v>
       </c>
       <c r="O14" t="n">
-        <v>199.43425559873</v>
+        <v>280.74464399037</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>201.5541261590515</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>73.35697728042267</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.26898873572022</v>
       </c>
       <c r="K15" t="n">
-        <v>106.4615855676479</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>199.43425559873</v>
+        <v>321.9506185558595</v>
       </c>
       <c r="M15" t="n">
-        <v>63.73626307629388</v>
+        <v>428.2054507081855</v>
       </c>
       <c r="N15" t="n">
-        <v>199.43425559873</v>
+        <v>414.1938369216398</v>
       </c>
       <c r="O15" t="n">
-        <v>199.43425559873</v>
+        <v>349.5195529262512</v>
       </c>
       <c r="P15" t="n">
-        <v>21.17845723362748</v>
+        <v>263.3454395756557</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>17.95393722657634</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>79.06216600553662</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>93.85403245100755</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>97.11190487062501</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>73.52048588803309</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>39.15121185596681</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
@@ -35902,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35975,7 +35977,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36200,7 +36202,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36443,7 +36445,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36923,7 +36925,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -37078,7 +37080,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37394,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343413</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37631,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932188</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>187.5013809844893</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
         <v>3.87492489307968</v>
       </c>
       <c r="M41" t="n">
-        <v>199.4342555987299</v>
+        <v>69.44775291982903</v>
       </c>
       <c r="N41" t="n">
-        <v>199.4342555987299</v>
+        <v>458.5023083033364</v>
       </c>
       <c r="O41" t="n">
-        <v>199.4342555987299</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>35.42324222800787</v>
+        <v>0.3763664928513465</v>
       </c>
       <c r="L42" t="n">
         <v>37.86260226792652</v>
       </c>
       <c r="M42" t="n">
-        <v>63.73626307629385</v>
+        <v>458.5023083033364</v>
       </c>
       <c r="N42" t="n">
-        <v>79.97735909033668</v>
+        <v>458.5023083033364</v>
       </c>
       <c r="O42" t="n">
-        <v>199.4342555987299</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>199.4342555987299</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>3.87492489307968</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>36.30093131326393</v>
+        <v>458.5023083033364</v>
       </c>
       <c r="N44" t="n">
-        <v>199.4342555987299</v>
+        <v>41.54873083723948</v>
       </c>
       <c r="O44" t="n">
-        <v>199.4342555987299</v>
+        <v>325.738932596864</v>
       </c>
       <c r="P44" t="n">
-        <v>199.4342555987299</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>34.26322115309438</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>199.4342555987299</v>
+        <v>76.39370225055825</v>
       </c>
       <c r="L45" t="n">
-        <v>120.3601824041014</v>
+        <v>37.86260226792652</v>
       </c>
       <c r="M45" t="n">
-        <v>63.73626307629385</v>
+        <v>458.5023083033364</v>
       </c>
       <c r="N45" t="n">
-        <v>79.97735909033668</v>
+        <v>458.5023083033364</v>
       </c>
       <c r="O45" t="n">
-        <v>50.71942114786023</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>199.4342555987299</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_9_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>987623.1728788754</v>
+        <v>947695.7398223756</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1384172.199406467</v>
+        <v>1534490.518704258</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8399778.573036591</v>
+        <v>8217514.83939528</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8949434.627186958</v>
+        <v>8996543.703039018</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>37.20662970553737</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>38.88501798484931</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="4">
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>27.291937497222</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>42.20118209180435</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F5" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
-        <v>28.88091821707973</v>
+        <v>26.92232807701202</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
+        <v>42.20118209180436</v>
+      </c>
+      <c r="R7" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>215.463570623987</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>133.6262871373656</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>144.014144810548</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>10.33288643304093</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.530919372088</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>180.7203706105862</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>188.657324202171</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2839074563927</v>
+        <v>251.2741654857531</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.9305580501643</v>
+        <v>136.8654028774251</v>
       </c>
       <c r="H12" t="n">
-        <v>108.2471285920753</v>
+        <v>30.11620014908827</v>
       </c>
       <c r="I12" t="n">
-        <v>75.17852303819713</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>74.51814466017009</v>
+        <v>70.47280858431071</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9142137182744</v>
+        <v>225.9099271937521</v>
       </c>
       <c r="V12" t="n">
-        <v>117.471165792181</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.97116152489231</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>161.7264837016246</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>217.9830836791034</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>185.3495708855943</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>227.6289873205841</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.530919372088</v>
+        <v>414.4091447390923</v>
       </c>
       <c r="H14" t="n">
-        <v>331.570419558287</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>180.7203706105862</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>93.7369707230539</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.1841471870042</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2741654857531</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>90.97496116023224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>75.17852303819713</v>
+        <v>72.93524187151895</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>74.51814466017009</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>164.0126367014202</v>
+        <v>162.80240794462</v>
       </c>
       <c r="T15" t="n">
-        <v>198.5002136733761</v>
+        <v>1.716761794685419</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9142137182744</v>
+        <v>225.9099271937521</v>
       </c>
       <c r="V15" t="n">
-        <v>38.83967949226545</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.590144402156</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.0389644964652</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.8820590101802</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>226.2329309786241</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>43.66413882864236</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>32.32574275240565</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>255.8940731710739</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>28.42119448601557</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034768</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2061,13 +2061,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
-        <v>155.4526127311942</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.7553012748425</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>278.9270494795691</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2216,7 +2216,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034768</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>8.777525990011505</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>93.95831792021254</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>128.007473935708</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>251.1266986696862</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T24" t="n">
-        <v>196.889762398448</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U24" t="n">
         <v>225.8879277888686</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.73991206543091</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>44.85034555736554</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>356.2902744290516</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>136.0696023912437</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>126.5499088748945</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>235.0690254684078</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>259.8218710709062</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>108.219802131625</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>262.5770567221875</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>215.3397947832073</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>113.3035999618932</v>
       </c>
     </row>
     <row r="33">
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>127.0044127072327</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>32.49138749858555</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>317.3735290007863</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3325,7 +3325,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>215.7890775924894</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.5310119231965</v>
@@ -3395,7 +3395,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>129.0666178516128</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>308.1500721494438</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>159.5623709710778</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.445065564638</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,25 +3666,25 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>62.95369569505498</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.54110646053104</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>401.7886500152027</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.41434449381261</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>24.26127214033469</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>61.41336926494543</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>118.9283458032789</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.47555601903318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>130.302711576476</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>220.9058729892978</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,19 +4061,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>96.91427784656803</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>121.3851339469606</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8879277888686</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>148.3725158629813</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>106.4061678803923</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.58132630618435</v>
+        <v>108.260178376266</v>
       </c>
       <c r="C2" t="n">
-        <v>82.58132630618435</v>
+        <v>108.260178376266</v>
       </c>
       <c r="D2" t="n">
-        <v>82.58132630618435</v>
+        <v>108.260178376266</v>
       </c>
       <c r="E2" t="n">
-        <v>82.58132630618435</v>
+        <v>108.260178376266</v>
       </c>
       <c r="F2" t="n">
-        <v>75.63582555698088</v>
+        <v>70.67772412824843</v>
       </c>
       <c r="G2" t="n">
-        <v>60.17851493563234</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="H2" t="n">
-        <v>15.60056303742164</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I2" t="n">
-        <v>15.60056303742164</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>132.8378388614781</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R2" t="n">
-        <v>121.8591222504766</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S2" t="n">
-        <v>121.8591222504766</v>
+        <v>108.260178376266</v>
       </c>
       <c r="T2" t="n">
-        <v>121.8591222504766</v>
+        <v>108.260178376266</v>
       </c>
       <c r="U2" t="n">
-        <v>121.8591222504766</v>
+        <v>108.260178376266</v>
       </c>
       <c r="V2" t="n">
-        <v>121.8591222504766</v>
+        <v>108.260178376266</v>
       </c>
       <c r="W2" t="n">
-        <v>121.8591222504766</v>
+        <v>108.260178376266</v>
       </c>
       <c r="X2" t="n">
-        <v>82.58132630618435</v>
+        <v>108.260178376266</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.58132630618435</v>
+        <v>108.260178376266</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="D3" t="n">
-        <v>131.9507376187037</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="E3" t="n">
-        <v>131.9507376187037</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F3" t="n">
-        <v>131.9507376187037</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>89.14698820604177</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>3.920842809732961</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.73598234693722</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>46.15803044872652</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C5" t="n">
-        <v>77.28117035226589</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D5" t="n">
-        <v>77.28117035226589</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E5" t="n">
-        <v>77.28117035226589</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F5" t="n">
-        <v>32.70321845405519</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
         <v>3.530573790338288</v>
@@ -4573,46 +4573,46 @@
         <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>45.45613755060546</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X5" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y5" t="n">
-        <v>77.28117035226589</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.44061023954541</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>93.44061023954541</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D6" t="n">
-        <v>93.44061023954541</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E6" t="n">
-        <v>93.44061023954541</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F6" t="n">
-        <v>93.44061023954541</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G6" t="n">
-        <v>93.44061023954541</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I6" t="n">
         <v>4.284706443124001</v>
@@ -4652,46 +4652,46 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>89.14698820604177</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>138.0185621377561</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>93.44061023954541</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>93.44061023954541</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>93.44061023954541</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>93.44061023954541</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>93.44061023954541</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
         <v>3.530573790338288</v>
@@ -4746,31 +4746,31 @@
         <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R7" t="n">
-        <v>90.73598234693722</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S7" t="n">
-        <v>90.73598234693722</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T7" t="n">
-        <v>90.73598234693722</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U7" t="n">
-        <v>90.73598234693722</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>90.73598234693722</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.15803044872652</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>499.3853800778592</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C8" t="n">
-        <v>499.3853800778592</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D8" t="n">
-        <v>281.7454097505996</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E8" t="n">
-        <v>281.7454097505996</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y8" t="n">
-        <v>499.3853800778592</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>313.4946457291688</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C9" t="n">
-        <v>313.4946457291688</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D9" t="n">
-        <v>313.4946457291688</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E9" t="n">
-        <v>154.2571907237133</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F9" t="n">
-        <v>154.2571907237133</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y9" t="n">
-        <v>481.7099827492369</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1434.718271327547</v>
+        <v>435.7207918523545</v>
       </c>
       <c r="C11" t="n">
-        <v>1434.718271327547</v>
+        <v>435.7207918523545</v>
       </c>
       <c r="D11" t="n">
-        <v>1434.718271327547</v>
+        <v>425.2835328290809</v>
       </c>
       <c r="E11" t="n">
-        <v>1048.930018729303</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="F11" t="n">
-        <v>637.9441139396954</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="G11" t="n">
-        <v>219.2260135638489</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="H11" t="n">
-        <v>219.2260135638489</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="I11" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="J11" t="n">
-        <v>89.7024173204521</v>
+        <v>102.7496279466723</v>
       </c>
       <c r="K11" t="n">
-        <v>289.913803723854</v>
+        <v>318.2963024222879</v>
       </c>
       <c r="L11" t="n">
-        <v>590.5703600013142</v>
+        <v>637.9776395922599</v>
       </c>
       <c r="M11" t="n">
-        <v>941.7152546494182</v>
+        <v>1010.291268666119</v>
       </c>
       <c r="N11" t="n">
-        <v>1283.9100432578</v>
+        <v>1373.997323954495</v>
       </c>
       <c r="O11" t="n">
-        <v>1561.847240808267</v>
+        <v>1672.247000643172</v>
       </c>
       <c r="P11" t="n">
-        <v>1761.385825705728</v>
+        <v>1889.121816539282</v>
       </c>
       <c r="Q11" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R11" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="S11" t="n">
-        <v>1834.009233213346</v>
+        <v>1784.201057802264</v>
       </c>
       <c r="T11" t="n">
-        <v>1834.009233213346</v>
+        <v>1784.201057802264</v>
       </c>
       <c r="U11" t="n">
-        <v>1580.187104469515</v>
+        <v>1530.388769432817</v>
       </c>
       <c r="V11" t="n">
-        <v>1580.187104469515</v>
+        <v>1199.325882089246</v>
       </c>
       <c r="W11" t="n">
-        <v>1580.187104469515</v>
+        <v>1199.325882089246</v>
       </c>
       <c r="X11" t="n">
-        <v>1580.187104469515</v>
+        <v>825.8601238281663</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.187104469515</v>
+        <v>435.7207918523545</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.4317675755559</v>
+        <v>837.3230180371525</v>
       </c>
       <c r="C12" t="n">
-        <v>814.9787382944289</v>
+        <v>662.8699887560255</v>
       </c>
       <c r="D12" t="n">
-        <v>666.0443286331777</v>
+        <v>513.9355790947742</v>
       </c>
       <c r="E12" t="n">
-        <v>506.8068736277221</v>
+        <v>354.6981240893187</v>
       </c>
       <c r="F12" t="n">
-        <v>360.2723156546071</v>
+        <v>208.1635661162037</v>
       </c>
       <c r="G12" t="n">
-        <v>221.9586206544411</v>
+        <v>69.91568442183487</v>
       </c>
       <c r="H12" t="n">
-        <v>112.6180867230519</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="I12" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="J12" t="n">
-        <v>36.68018466426692</v>
+        <v>83.47575671172197</v>
       </c>
       <c r="K12" t="n">
-        <v>36.68018466426692</v>
+        <v>285.2662392395934</v>
       </c>
       <c r="L12" t="n">
-        <v>355.4112970345678</v>
+        <v>618.0028417773897</v>
       </c>
       <c r="M12" t="n">
-        <v>779.3346932356715</v>
+        <v>1058.269984407666</v>
       </c>
       <c r="N12" t="n">
-        <v>1227.272890636458</v>
+        <v>1525.896701635054</v>
       </c>
       <c r="O12" t="n">
-        <v>1573.297248033447</v>
+        <v>1701.734663854863</v>
       </c>
       <c r="P12" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="Q12" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R12" t="n">
-        <v>1758.738380021255</v>
+        <v>1903.579356406163</v>
       </c>
       <c r="S12" t="n">
-        <v>1758.738380021255</v>
+        <v>1903.579356406163</v>
       </c>
       <c r="T12" t="n">
-        <v>1758.738380021255</v>
+        <v>1903.579356406163</v>
       </c>
       <c r="U12" t="n">
-        <v>1530.542204548251</v>
+        <v>1675.387510755909</v>
       </c>
       <c r="V12" t="n">
-        <v>1411.884461323825</v>
+        <v>1675.387510755909</v>
       </c>
       <c r="W12" t="n">
-        <v>1157.647104595624</v>
+        <v>1421.150154027707</v>
       </c>
       <c r="X12" t="n">
-        <v>1157.647104595624</v>
+        <v>1213.298653822174</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.647104595624</v>
+        <v>1005.538355057221</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="C13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="D13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="E13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="F13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="G13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="H13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="I13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="J13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="K13" t="n">
-        <v>54.4545825185775</v>
+        <v>63.55251999715894</v>
       </c>
       <c r="L13" t="n">
-        <v>132.7261268640588</v>
+        <v>149.8639388832537</v>
       </c>
       <c r="M13" t="n">
-        <v>225.6416189905563</v>
+        <v>251.2563514392362</v>
       </c>
       <c r="N13" t="n">
-        <v>321.782404812475</v>
+        <v>355.6724954696756</v>
       </c>
       <c r="O13" t="n">
-        <v>394.5676858416278</v>
+        <v>436.1014092099363</v>
       </c>
       <c r="P13" t="n">
-        <v>433.3273855790349</v>
+        <v>481.4015572100511</v>
       </c>
       <c r="Q13" t="n">
-        <v>420.2252022205578</v>
+        <v>481.4015572100511</v>
       </c>
       <c r="R13" t="n">
-        <v>256.8651176734622</v>
+        <v>481.4015572100511</v>
       </c>
       <c r="S13" t="n">
-        <v>36.68018466426692</v>
+        <v>481.4015572100511</v>
       </c>
       <c r="T13" t="n">
-        <v>36.68018466426692</v>
+        <v>481.4015572100511</v>
       </c>
       <c r="U13" t="n">
-        <v>36.68018466426692</v>
+        <v>294.1797684367235</v>
       </c>
       <c r="V13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="W13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="X13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.68018466426692</v>
+        <v>39.49528023083661</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1742.115333051495</v>
+        <v>1073.806898545926</v>
       </c>
       <c r="C14" t="n">
-        <v>1742.115333051495</v>
+        <v>1073.806898545926</v>
       </c>
       <c r="D14" t="n">
-        <v>1383.849634444744</v>
+        <v>843.8786285251338</v>
       </c>
       <c r="E14" t="n">
-        <v>1383.849634444744</v>
+        <v>458.0903759268895</v>
       </c>
       <c r="F14" t="n">
-        <v>972.8637296551369</v>
+        <v>458.0903759268895</v>
       </c>
       <c r="G14" t="n">
-        <v>554.1456292792903</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="H14" t="n">
-        <v>219.2260135638489</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="I14" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J14" t="n">
-        <v>89.70241732045153</v>
+        <v>102.7496279466725</v>
       </c>
       <c r="K14" t="n">
-        <v>289.9138037238534</v>
+        <v>318.2963024222881</v>
       </c>
       <c r="L14" t="n">
-        <v>590.5703600013137</v>
+        <v>637.9776395922603</v>
       </c>
       <c r="M14" t="n">
-        <v>941.7152546494177</v>
+        <v>1010.291268666119</v>
       </c>
       <c r="N14" t="n">
-        <v>1283.9100432578</v>
+        <v>1373.997323954495</v>
       </c>
       <c r="O14" t="n">
-        <v>1561.847240808266</v>
+        <v>1672.247000643172</v>
       </c>
       <c r="P14" t="n">
-        <v>1761.385825705727</v>
+        <v>1889.121816539282</v>
       </c>
       <c r="Q14" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R14" t="n">
-        <v>1834.009233213346</v>
+        <v>1880.080202730665</v>
       </c>
       <c r="S14" t="n">
-        <v>1834.009233213346</v>
+        <v>1880.080202730665</v>
       </c>
       <c r="T14" t="n">
-        <v>1834.009233213346</v>
+        <v>1658.682074258944</v>
       </c>
       <c r="U14" t="n">
-        <v>1834.009233213346</v>
+        <v>1404.869785889496</v>
       </c>
       <c r="V14" t="n">
-        <v>1834.009233213346</v>
+        <v>1073.806898545926</v>
       </c>
       <c r="W14" t="n">
-        <v>1834.009233213346</v>
+        <v>1073.806898545926</v>
       </c>
       <c r="X14" t="n">
-        <v>1834.009233213346</v>
+        <v>1073.806898545926</v>
       </c>
       <c r="Y14" t="n">
-        <v>1742.115333051495</v>
+        <v>1073.806898545926</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>287.0711160041789</v>
+        <v>742.3266936381682</v>
       </c>
       <c r="C15" t="n">
-        <v>112.6180867230519</v>
+        <v>567.8736643570412</v>
       </c>
       <c r="D15" t="n">
-        <v>112.6180867230519</v>
+        <v>418.9392546957899</v>
       </c>
       <c r="E15" t="n">
-        <v>112.6180867230519</v>
+        <v>259.7017996903344</v>
       </c>
       <c r="F15" t="n">
-        <v>112.6180867230519</v>
+        <v>113.1672417172194</v>
       </c>
       <c r="G15" t="n">
-        <v>112.6180867230519</v>
+        <v>113.1672417172194</v>
       </c>
       <c r="H15" t="n">
-        <v>112.6180867230519</v>
+        <v>113.1672417172194</v>
       </c>
       <c r="I15" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J15" t="n">
-        <v>74.56648351262993</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="K15" t="n">
-        <v>74.56648351262993</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="L15" t="n">
-        <v>393.2975958829308</v>
+        <v>302.6542752763829</v>
       </c>
       <c r="M15" t="n">
-        <v>817.2209920840344</v>
+        <v>742.9214179066596</v>
       </c>
       <c r="N15" t="n">
-        <v>1227.272890636458</v>
+        <v>1210.548135134047</v>
       </c>
       <c r="O15" t="n">
-        <v>1573.297248033447</v>
+        <v>1571.919544851329</v>
       </c>
       <c r="P15" t="n">
-        <v>1834.009233213346</v>
+        <v>1844.948892538297</v>
       </c>
       <c r="Q15" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.738380021255</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="S15" t="n">
-        <v>1593.06905001982</v>
+        <v>1810.317134830094</v>
       </c>
       <c r="T15" t="n">
-        <v>1392.563783683077</v>
+        <v>1808.583032007179</v>
       </c>
       <c r="U15" t="n">
-        <v>1164.367608210072</v>
+        <v>1580.391186356924</v>
       </c>
       <c r="V15" t="n">
-        <v>1125.135608722935</v>
+        <v>1580.391186356924</v>
       </c>
       <c r="W15" t="n">
-        <v>870.8982519947338</v>
+        <v>1326.153829628723</v>
       </c>
       <c r="X15" t="n">
-        <v>663.0467517892009</v>
+        <v>1118.30232942319</v>
       </c>
       <c r="Y15" t="n">
-        <v>455.286453024247</v>
+        <v>910.5420306582362</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>400.6751201725646</v>
+        <v>208.7782543744285</v>
       </c>
       <c r="C16" t="n">
-        <v>400.6751201725646</v>
+        <v>208.7782543744285</v>
       </c>
       <c r="D16" t="n">
-        <v>400.6751201725646</v>
+        <v>208.7782543744285</v>
       </c>
       <c r="E16" t="n">
-        <v>252.7620265901714</v>
+        <v>208.7782543744285</v>
       </c>
       <c r="F16" t="n">
-        <v>252.7620265901714</v>
+        <v>208.7782543744285</v>
       </c>
       <c r="G16" t="n">
-        <v>252.7620265901714</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="H16" t="n">
-        <v>252.7620265901714</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="I16" t="n">
-        <v>106.2580220482873</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J16" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="K16" t="n">
-        <v>54.45458251857749</v>
+        <v>63.55251999715897</v>
       </c>
       <c r="L16" t="n">
-        <v>132.7261268640588</v>
+        <v>149.8639388832537</v>
       </c>
       <c r="M16" t="n">
-        <v>225.6416189905563</v>
+        <v>251.2563514392363</v>
       </c>
       <c r="N16" t="n">
-        <v>321.782404812475</v>
+        <v>355.6724954696757</v>
       </c>
       <c r="O16" t="n">
-        <v>394.5676858416278</v>
+        <v>436.1014092099364</v>
       </c>
       <c r="P16" t="n">
-        <v>433.3273855790349</v>
+        <v>481.4015572100512</v>
       </c>
       <c r="Q16" t="n">
-        <v>433.3273855790349</v>
+        <v>481.4015572100512</v>
       </c>
       <c r="R16" t="n">
-        <v>433.3273855790349</v>
+        <v>481.4015572100512</v>
       </c>
       <c r="S16" t="n">
-        <v>433.3273855790349</v>
+        <v>481.4015572100512</v>
       </c>
       <c r="T16" t="n">
-        <v>433.3273855790349</v>
+        <v>252.8834451104309</v>
       </c>
       <c r="U16" t="n">
-        <v>433.3273855790349</v>
+        <v>252.8834451104309</v>
       </c>
       <c r="V16" t="n">
-        <v>433.3273855790349</v>
+        <v>208.7782543744285</v>
       </c>
       <c r="W16" t="n">
-        <v>433.3273855790349</v>
+        <v>208.7782543744285</v>
       </c>
       <c r="X16" t="n">
-        <v>400.6751201725646</v>
+        <v>208.7782543744285</v>
       </c>
       <c r="Y16" t="n">
-        <v>400.6751201725646</v>
+        <v>208.7782543744285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2366.086203674651</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036444</v>
@@ -5521,7 +5521,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2366.086203674651</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W17" t="n">
-        <v>2366.086203674651</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X17" t="n">
-        <v>2366.086203674651</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2366.086203674651</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036444</v>
@@ -5606,7 +5606,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
         <v>2188.831293537796</v>
@@ -5636,7 +5636,7 @@
         <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5709,10 +5709,10 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036444</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1108.365917331524</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="C20" t="n">
-        <v>739.4034003911121</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="D20" t="n">
-        <v>381.1377017843616</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="E20" t="n">
-        <v>381.1377017843616</v>
+        <v>335.6874762441716</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2520.971603332392</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2520.971603332392</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V20" t="n">
-        <v>2189.908715988821</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W20" t="n">
-        <v>1837.140060718707</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X20" t="n">
-        <v>1463.674302457627</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y20" t="n">
-        <v>1463.674302457627</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5867,10 +5867,10 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
         <v>1364.473611002105</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2179.742370083244</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C22" t="n">
-        <v>2179.742370083244</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D22" t="n">
-        <v>2179.742370083244</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E22" t="n">
-        <v>2031.829276500851</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F22" t="n">
-        <v>2031.829276500851</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G22" t="n">
-        <v>2031.829276500851</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632152</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="W22" t="n">
-        <v>2407.731920981261</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="X22" t="n">
-        <v>2179.742370083244</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="Y22" t="n">
-        <v>2179.742370083244</v>
+        <v>485.0749338020197</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1626.94664591678</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C23" t="n">
-        <v>1626.94664591678</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.680947310029</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2267.209817970484</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="V23" t="n">
-        <v>2267.209817970484</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="W23" t="n">
-        <v>2267.209817970484</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="X23" t="n">
-        <v>2267.209817970484</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="Y23" t="n">
-        <v>2013.546485980901</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6098,13 +6098,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6135,19 +6135,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U25" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V25" t="n">
-        <v>259.1560728187101</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W25" t="n">
-        <v>259.1560728187101</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X25" t="n">
-        <v>259.1560728187101</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y25" t="n">
-        <v>259.1560728187101</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>609.3508327416157</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="C26" t="n">
-        <v>609.3508327416157</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="D26" t="n">
-        <v>609.3508327416157</v>
+        <v>741.0268678743128</v>
       </c>
       <c r="E26" t="n">
-        <v>609.3508327416157</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>609.3508327416157</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>191.3870246398026</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,19 +6226,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2112.324418312743</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>1759.555763042629</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X26" t="n">
-        <v>1386.090004781549</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y26" t="n">
-        <v>995.9506728057374</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="27">
@@ -6287,10 +6287,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
@@ -6299,31 +6299,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036445</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>952.5674858910851</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C29" t="n">
-        <v>952.5674858910851</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D29" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U29" t="n">
-        <v>2009.86478676585</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V29" t="n">
-        <v>1678.801899422279</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="W29" t="n">
-        <v>1326.033244152165</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="X29" t="n">
-        <v>952.5674858910851</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y29" t="n">
-        <v>952.5674858910851</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6557,10 +6557,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>332.1920961943572</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>163.2559132664503</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>163.2559132664503</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>163.2559132664503</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>163.2559132664503</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>163.2559132664503</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W31" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X31" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y31" t="n">
-        <v>235.5914466506042</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>976.6605612216329</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C32" t="n">
-        <v>976.6605612216329</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D32" t="n">
-        <v>618.3948626148824</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E32" t="n">
-        <v>618.3948626148824</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>207.4089578252748</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6706,13 +6706,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2479.63414679276</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2479.63414679276</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2479.63414679276</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W32" t="n">
-        <v>2126.865491522646</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X32" t="n">
-        <v>1753.399733261566</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y32" t="n">
-        <v>1363.260401285755</v>
+        <v>1526.329725433337</v>
       </c>
     </row>
     <row r="33">
@@ -6779,31 +6779,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073964</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6882,28 +6882,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R34" t="n">
-        <v>570.4247794971948</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S34" t="n">
-        <v>570.4247794971948</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="T34" t="n">
-        <v>343.1165921657965</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U34" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V34" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>625.3727659270879</v>
+        <v>743.4848209837926</v>
       </c>
       <c r="C35" t="n">
-        <v>625.3727659270879</v>
+        <v>374.5223040433809</v>
       </c>
       <c r="D35" t="n">
-        <v>625.3727659270879</v>
+        <v>374.5223040433809</v>
       </c>
       <c r="E35" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>1775.577696228101</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>1775.577696228101</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X35" t="n">
-        <v>1402.111937967022</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y35" t="n">
-        <v>1011.97260599121</v>
+        <v>1130.084661047914</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961344</v>
@@ -7043,16 +7043,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>369.7691122461817</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C37" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D37" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>597.7586631441991</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>597.7586631441991</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>369.7691122461817</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y37" t="n">
-        <v>369.7691122461817</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2149.375138862102</v>
+        <v>1152.132006003442</v>
       </c>
       <c r="C38" t="n">
-        <v>1780.41262192169</v>
+        <v>783.1694890630299</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.14692331494</v>
+        <v>783.1694890630299</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>783.1694890630299</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>783.1694890630299</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>365.2056809612168</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
@@ -7201,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X38" t="n">
-        <v>2535.974978926224</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y38" t="n">
-        <v>2535.974978926224</v>
+        <v>1538.731846067563</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
         <v>665.1105362747051</v>
@@ -7253,49 +7253,49 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C40" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D40" t="n">
-        <v>548.5954256477204</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E40" t="n">
-        <v>400.6823320653273</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="F40" t="n">
-        <v>253.7923845674169</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="G40" t="n">
-        <v>84.79258430574933</v>
+        <v>117.5325734315311</v>
       </c>
       <c r="H40" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
         <v>53.94298182036444</v>
@@ -7353,31 +7353,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U40" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V40" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W40" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X40" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y40" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>442.5273058917444</v>
+        <v>777.6759049844413</v>
       </c>
       <c r="C41" t="n">
-        <v>442.5273058917444</v>
+        <v>777.6759049844413</v>
       </c>
       <c r="D41" t="n">
-        <v>442.5273058917444</v>
+        <v>777.6759049844413</v>
       </c>
       <c r="E41" t="n">
-        <v>442.5273058917444</v>
+        <v>777.6759049844413</v>
       </c>
       <c r="F41" t="n">
-        <v>36.68018466426691</v>
+        <v>366.6900001948338</v>
       </c>
       <c r="G41" t="n">
-        <v>36.68018466426691</v>
+        <v>366.6900001948338</v>
       </c>
       <c r="H41" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="I41" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J41" t="n">
-        <v>152.4480408972166</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="K41" t="n">
-        <v>446.6988519172151</v>
+        <v>333.7460912508351</v>
       </c>
       <c r="L41" t="n">
-        <v>450.535027561364</v>
+        <v>751.06686929993</v>
       </c>
       <c r="M41" t="n">
-        <v>519.2883029519948</v>
+        <v>1232.023189457966</v>
       </c>
       <c r="N41" t="n">
-        <v>973.2055881722978</v>
+        <v>1706.129888154697</v>
       </c>
       <c r="O41" t="n">
-        <v>1375.703461837812</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="P41" t="n">
-        <v>1681.551701986376</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="Q41" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R41" t="n">
-        <v>1834.009233213346</v>
+        <v>1927.880835285455</v>
       </c>
       <c r="S41" t="n">
-        <v>1657.831745527516</v>
+        <v>1927.880835285455</v>
       </c>
       <c r="T41" t="n">
-        <v>1439.197078499579</v>
+        <v>1927.880835285455</v>
       </c>
       <c r="U41" t="n">
-        <v>1185.43529313767</v>
+        <v>1927.880835285455</v>
       </c>
       <c r="V41" t="n">
-        <v>1185.43529313767</v>
+        <v>1927.880835285455</v>
       </c>
       <c r="W41" t="n">
-        <v>832.6666378675561</v>
+        <v>1927.880835285455</v>
       </c>
       <c r="X41" t="n">
-        <v>832.6666378675561</v>
+        <v>1554.415077024375</v>
       </c>
       <c r="Y41" t="n">
-        <v>442.5273058917444</v>
+        <v>1164.275745048563</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>516.9052269239644</v>
+        <v>693.161067647073</v>
       </c>
       <c r="C42" t="n">
-        <v>342.4521976428374</v>
+        <v>518.708038365946</v>
       </c>
       <c r="D42" t="n">
-        <v>342.4521976428374</v>
+        <v>369.7736287046947</v>
       </c>
       <c r="E42" t="n">
-        <v>183.2147426373819</v>
+        <v>210.5361736992392</v>
       </c>
       <c r="F42" t="n">
-        <v>36.68018466426691</v>
+        <v>64.00161572612419</v>
       </c>
       <c r="G42" t="n">
-        <v>36.68018466426691</v>
+        <v>64.00161572612419</v>
       </c>
       <c r="H42" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="I42" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J42" t="n">
-        <v>111.9373470643967</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="K42" t="n">
-        <v>112.3099498923196</v>
+        <v>294.7426006719351</v>
       </c>
       <c r="L42" t="n">
-        <v>149.7939261375668</v>
+        <v>699.3585187676069</v>
       </c>
       <c r="M42" t="n">
-        <v>603.7112113578698</v>
+        <v>1119.205689407225</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.628496578173</v>
+        <v>1198.383274906658</v>
       </c>
       <c r="O42" t="n">
-        <v>1497.764419598517</v>
+        <v>1638.519197927002</v>
       </c>
       <c r="P42" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="Q42" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R42" t="n">
-        <v>1834.009233213346</v>
+        <v>1924.550640953656</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.836260857262</v>
+        <v>1766.377668597572</v>
       </c>
       <c r="T42" t="n">
-        <v>1476.957712980041</v>
+        <v>1766.377668597572</v>
       </c>
       <c r="U42" t="n">
-        <v>1248.78808895088</v>
+        <v>1766.377668597572</v>
       </c>
       <c r="V42" t="n">
-        <v>1186.754382622653</v>
+        <v>1531.225560365829</v>
       </c>
       <c r="W42" t="n">
-        <v>932.5170258944511</v>
+        <v>1276.988203637628</v>
       </c>
       <c r="X42" t="n">
-        <v>724.6655256889183</v>
+        <v>1069.136703432095</v>
       </c>
       <c r="Y42" t="n">
-        <v>516.9052269239644</v>
+        <v>861.3764046671411</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1159.823230827276</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="C43" t="n">
-        <v>1159.823230827276</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="D43" t="n">
-        <v>1159.823230827276</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="E43" t="n">
-        <v>1159.823230827276</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="F43" t="n">
-        <v>1159.823230827276</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="G43" t="n">
-        <v>1159.823230827276</v>
+        <v>317.3732950238407</v>
       </c>
       <c r="H43" t="n">
-        <v>1159.823230827276</v>
+        <v>159.6249224563708</v>
       </c>
       <c r="I43" t="n">
-        <v>1159.823230827276</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J43" t="n">
-        <v>1159.823230827276</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="K43" t="n">
-        <v>1216.125423893544</v>
+        <v>95.79747329710474</v>
       </c>
       <c r="L43" t="n">
-        <v>1343.699281454702</v>
+        <v>223.3713308582631</v>
       </c>
       <c r="M43" t="n">
-        <v>1488.597150172732</v>
+        <v>368.2691995762931</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.484287857161</v>
+        <v>515.1563372607222</v>
       </c>
       <c r="O43" t="n">
-        <v>1755.142038366401</v>
+        <v>634.8140877699624</v>
       </c>
       <c r="P43" t="n">
-        <v>1834.009233213346</v>
+        <v>713.6812826169065</v>
       </c>
       <c r="Q43" t="n">
-        <v>1804.592314066967</v>
+        <v>713.6812826169065</v>
       </c>
       <c r="R43" t="n">
-        <v>1656.445655501151</v>
+        <v>713.6812826169065</v>
       </c>
       <c r="S43" t="n">
-        <v>1442.157232319314</v>
+        <v>713.6812826169065</v>
       </c>
       <c r="T43" t="n">
-        <v>1214.849044987916</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="U43" t="n">
-        <v>1214.849044987916</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="V43" t="n">
-        <v>1214.849044987916</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="W43" t="n">
-        <v>1214.849044987916</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="X43" t="n">
-        <v>1214.849044987916</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="Y43" t="n">
-        <v>1159.823230827276</v>
+        <v>486.3730952855083</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>677.7812382098152</v>
+        <v>974.866241513193</v>
       </c>
       <c r="C44" t="n">
-        <v>677.7812382098152</v>
+        <v>974.866241513193</v>
       </c>
       <c r="D44" t="n">
-        <v>677.7812382098152</v>
+        <v>974.866241513193</v>
       </c>
       <c r="E44" t="n">
-        <v>677.7812382098152</v>
+        <v>589.0779889149487</v>
       </c>
       <c r="F44" t="n">
-        <v>677.7812382098152</v>
+        <v>457.4590883326497</v>
       </c>
       <c r="G44" t="n">
-        <v>259.8174301080021</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="H44" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="I44" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J44" t="n">
-        <v>152.4480408972166</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="K44" t="n">
-        <v>446.6988519172151</v>
+        <v>333.7460912508351</v>
       </c>
       <c r="L44" t="n">
-        <v>864.0196299663099</v>
+        <v>751.06686929993</v>
       </c>
       <c r="M44" t="n">
-        <v>1317.936915186613</v>
+        <v>1232.023189457966</v>
       </c>
       <c r="N44" t="n">
-        <v>1359.07015871548</v>
+        <v>1706.129888154697</v>
       </c>
       <c r="O44" t="n">
-        <v>1681.551701986376</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="P44" t="n">
-        <v>1681.551701986376</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="Q44" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R44" t="n">
-        <v>1834.009233213346</v>
+        <v>1919.735322072324</v>
       </c>
       <c r="S44" t="n">
-        <v>1834.009233213346</v>
+        <v>1919.735322072324</v>
       </c>
       <c r="T44" t="n">
-        <v>1615.374566185408</v>
+        <v>1701.100655044387</v>
       </c>
       <c r="U44" t="n">
-        <v>1361.6127808235</v>
+        <v>1701.100655044387</v>
       </c>
       <c r="V44" t="n">
-        <v>1030.549893479929</v>
+        <v>1701.100655044387</v>
       </c>
       <c r="W44" t="n">
-        <v>677.7812382098152</v>
+        <v>1348.331999774273</v>
       </c>
       <c r="X44" t="n">
-        <v>677.7812382098152</v>
+        <v>974.866241513193</v>
       </c>
       <c r="Y44" t="n">
-        <v>677.7812382098152</v>
+        <v>974.866241513193</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>211.1332139453939</v>
+        <v>723.0563144116206</v>
       </c>
       <c r="C45" t="n">
-        <v>36.68018466426691</v>
+        <v>548.6032851304936</v>
       </c>
       <c r="D45" t="n">
-        <v>36.68018466426691</v>
+        <v>450.7100751844653</v>
       </c>
       <c r="E45" t="n">
-        <v>36.68018466426691</v>
+        <v>291.4726201790098</v>
       </c>
       <c r="F45" t="n">
-        <v>36.68018466426691</v>
+        <v>144.9380622058948</v>
       </c>
       <c r="G45" t="n">
-        <v>36.68018466426691</v>
+        <v>144.9380622058948</v>
       </c>
       <c r="H45" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="I45" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J45" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="K45" t="n">
-        <v>112.3099498923196</v>
+        <v>294.7426006719351</v>
       </c>
       <c r="L45" t="n">
-        <v>149.7939261375668</v>
+        <v>699.3585187676069</v>
       </c>
       <c r="M45" t="n">
-        <v>603.7112113578698</v>
+        <v>762.4574192131379</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.628496578173</v>
+        <v>1198.383274906658</v>
       </c>
       <c r="O45" t="n">
-        <v>1497.764419598517</v>
+        <v>1638.519197927002</v>
       </c>
       <c r="P45" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="Q45" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="R45" t="n">
-        <v>1834.009233213346</v>
+        <v>1974.764011541831</v>
       </c>
       <c r="S45" t="n">
-        <v>1711.397986802274</v>
+        <v>1816.591039185747</v>
       </c>
       <c r="T45" t="n">
-        <v>1512.519438925053</v>
+        <v>1816.591039185747</v>
       </c>
       <c r="U45" t="n">
-        <v>1284.349814895893</v>
+        <v>1588.421415156587</v>
       </c>
       <c r="V45" t="n">
-        <v>1049.19770666415</v>
+        <v>1353.269306924844</v>
       </c>
       <c r="W45" t="n">
-        <v>794.9603499359487</v>
+        <v>1099.031950196643</v>
       </c>
       <c r="X45" t="n">
-        <v>587.1088497304158</v>
+        <v>1099.031950196643</v>
       </c>
       <c r="Y45" t="n">
-        <v>379.348550965462</v>
+        <v>891.2716514316887</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>194.4285572317368</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="C46" t="n">
-        <v>194.4285572317368</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="D46" t="n">
-        <v>194.4285572317368</v>
+        <v>336.2564558731725</v>
       </c>
       <c r="E46" t="n">
-        <v>194.4285572317368</v>
+        <v>336.2564558731725</v>
       </c>
       <c r="F46" t="n">
-        <v>194.4285572317368</v>
+        <v>189.3665083752622</v>
       </c>
       <c r="G46" t="n">
-        <v>194.4285572317368</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="H46" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="I46" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="J46" t="n">
-        <v>36.68018466426691</v>
+        <v>39.49528023083662</v>
       </c>
       <c r="K46" t="n">
-        <v>92.98237773053503</v>
+        <v>95.79747329710474</v>
       </c>
       <c r="L46" t="n">
-        <v>220.5562352916934</v>
+        <v>223.3713308582631</v>
       </c>
       <c r="M46" t="n">
-        <v>365.4541040097233</v>
+        <v>368.2691995762931</v>
       </c>
       <c r="N46" t="n">
-        <v>512.3412416941524</v>
+        <v>515.1563372607222</v>
       </c>
       <c r="O46" t="n">
-        <v>631.9989922033925</v>
+        <v>634.8140877699624</v>
       </c>
       <c r="P46" t="n">
-        <v>710.8661870503366</v>
+        <v>713.6812826169065</v>
       </c>
       <c r="Q46" t="n">
-        <v>710.8661870503366</v>
+        <v>713.6812826169065</v>
       </c>
       <c r="R46" t="n">
-        <v>603.3852093933747</v>
+        <v>713.6812826169065</v>
       </c>
       <c r="S46" t="n">
-        <v>603.3852093933747</v>
+        <v>713.6812826169065</v>
       </c>
       <c r="T46" t="n">
-        <v>376.0770220619764</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="U46" t="n">
-        <v>376.0770220619764</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="V46" t="n">
-        <v>376.0770220619764</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="W46" t="n">
-        <v>376.0770220619764</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="X46" t="n">
-        <v>376.0770220619764</v>
+        <v>486.3730952855083</v>
       </c>
       <c r="Y46" t="n">
-        <v>376.0770220619764</v>
+        <v>486.3730952855083</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8221,19 +8221,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,22 +8300,22 @@
         <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
         <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>87.82204660468861</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>71.1575983382768</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>476.4007550892273</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>206.4547965520098</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.26790555049345</v>
+        <v>78.95090490399646</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>81.66631162234282</v>
       </c>
       <c r="K15" t="n">
-        <v>71.1575983382768</v>
+        <v>60.63646678240541</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>300.5599336951258</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>438.1317663535067</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.26790555049345</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9254,10 +9254,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783513</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>33.1468216065651</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>416.9535774660969</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>245.5842718906436</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>58.3174843700358</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>7.016027302300174</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>394.7660452270426</v>
+        <v>360.3517880748356</v>
       </c>
       <c r="N42" t="n">
-        <v>378.5249492129998</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,19 +11305,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>422.2013769900725</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>299.9756051065642</v>
+        <v>245.5842718906436</v>
       </c>
       <c r="P44" t="n">
         <v>12.86109185980291</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>58.3174843700358</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,16 +11378,16 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>83.03336306000708</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>394.7660452270426</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>378.5249492129998</v>
+        <v>360.3517880748354</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>238.7196968529325</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>344.350155187642</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.4091447390923</v>
       </c>
       <c r="H11" t="n">
-        <v>331.570419558287</v>
+        <v>330.3232950981193</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>176.0256540720176</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>101.3863965129731</v>
+        <v>93.73697072305393</v>
       </c>
       <c r="S11" t="n">
-        <v>191.4322636515617</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.7172156429431</v>
+        <v>219.1841471870042</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.50166664311122</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>72.93524187151895</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>164.0126367014202</v>
+        <v>162.80240794462</v>
       </c>
       <c r="T12" t="n">
-        <v>198.5002136733761</v>
+        <v>198.2375926043089</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>115.3294213572442</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.6447683102764</v>
+        <v>167.590144402156</v>
       </c>
       <c r="H13" t="n">
-        <v>159.1490415517819</v>
+        <v>158.663385350493</v>
       </c>
       <c r="I13" t="n">
-        <v>145.0389644964652</v>
+        <v>143.3962746049891</v>
       </c>
       <c r="J13" t="n">
-        <v>68.8820590101802</v>
+        <v>65.02014870606585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.20042750127769</v>
+        <v>52.59758159255843</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>159.270394160137</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>217.0311379348592</v>
       </c>
       <c r="T13" t="n">
-        <v>226.4663240405932</v>
+        <v>226.2329309786241</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3001451174991</v>
+        <v>100.9475947460074</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>127.0540543000988</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>330.3232950981193</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>176.0256540720175</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>101.3863965129731</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>191.4322636515617</v>
+        <v>188.657324202171</v>
       </c>
       <c r="T14" t="n">
-        <v>219.7172156429431</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2839074563927</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>295.2629774958214</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,19 +23579,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.9305580501643</v>
+        <v>136.8654028774251</v>
       </c>
       <c r="H15" t="n">
-        <v>108.2471285920753</v>
+        <v>107.6178667921995</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>70.4728085843107</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.5208308096235</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>193.9609076571598</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6447683102764</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>159.1490415517819</v>
+        <v>158.663385350493</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>143.3962746049891</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.02014870606584</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.17158902617</v>
+        <v>52.59758159255841</v>
       </c>
       <c r="R16" t="n">
-        <v>161.7264837016246</v>
+        <v>159.270394160137</v>
       </c>
       <c r="S16" t="n">
-        <v>217.9830836791034</v>
+        <v>217.0311379348592</v>
       </c>
       <c r="T16" t="n">
-        <v>226.4663240405932</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3001451174991</v>
+        <v>286.2971656316017</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>208.4735044951856</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>193.3839126366315</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>109.3788185999337</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>326.2618471346674</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
-        <v>131.0703856053968</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.97854038863812</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>127.9489962621424</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>147.3933628517836</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>45.199959188537</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24186,13 +24186,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>158.1793254036155</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>123.2166935725812</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>135.1112399863674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.0920681165064</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,10 +24414,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>241.6726527792255</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>25.6400956432102</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>187.8531703731134</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>8.415712917443699</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>16.15514203988147</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>67.93038739922872</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>47.95108671017019</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24888,10 +24888,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>23.94594161440352</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.108525574450482</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>272.9343386941604</v>
       </c>
     </row>
     <row r="33">
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.66077927292511</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>179.6541514514334</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>64.5568410714755</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>111.9631808776455</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,7 +25332,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>40.32635200869791</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25368,16 +25368,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>123.0710254722152</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>15.77270061491333</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>210.1687297073912</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25554,25 +25554,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>93.21719314674016</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>14.65885272800597</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>5.08739572650876</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>8.064058080999118</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>80.12708201497287</v>
       </c>
       <c r="I42" t="n">
         <v>61.42221998250819</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>171.3872178844798</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>16.0372759890594</v>
       </c>
       <c r="J43" t="n">
         <v>45.19995918853701</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>164.1090973330616</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>276.5733341652355</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0168997750593</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25949,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>50.53078771807073</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>61.42221998250819</v>
@@ -25994,10 +25994,10 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>35.20610868556251</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>18.93728639606962</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923383</v>
@@ -26070,7 +26070,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>40.25902409976553</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998106.9462627155</v>
+        <v>997588.0271037318</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1019506.242488672</v>
+        <v>998106.9462627155</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>602925.6091390899</v>
+        <v>626056.9518802259</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>602925.6091390899</v>
+        <v>626056.9518802261</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>744772.1888539586</v>
+        <v>744772.1888539589</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>603828.5388066728</v>
+        <v>626812.6381271079</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>603828.5388066727</v>
+        <v>626812.6381271078</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>274160.3014835796</v>
+        <v>286035.7365901468</v>
       </c>
       <c r="F2" t="n">
-        <v>274160.3014835796</v>
+        <v>286035.7365901464</v>
       </c>
       <c r="G2" t="n">
-        <v>346983.132018909</v>
+        <v>346983.1320189091</v>
       </c>
       <c r="H2" t="n">
         <v>346983.132018909</v>
       </c>
       <c r="I2" t="n">
+        <v>346983.1320189089</v>
+      </c>
+      <c r="J2" t="n">
         <v>346983.132018909</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>346983.1320189089</v>
       </c>
-      <c r="K2" t="n">
-        <v>346983.1320189092</v>
-      </c>
       <c r="L2" t="n">
-        <v>346983.1320189089</v>
+        <v>346983.132018909</v>
       </c>
       <c r="M2" t="n">
-        <v>346983.1320189093</v>
+        <v>346983.1320189091</v>
       </c>
       <c r="N2" t="n">
-        <v>346983.1320189089</v>
+        <v>346983.1320189091</v>
       </c>
       <c r="O2" t="n">
-        <v>285684.1131878133</v>
+        <v>295680.3261182037</v>
       </c>
       <c r="P2" t="n">
-        <v>285684.1131878133</v>
+        <v>295680.3261182039</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>13265.4675990829</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1469.420920626199</v>
       </c>
       <c r="D3" t="n">
-        <v>61157.49184790745</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>219182.2894942056</v>
+        <v>312809.7618613446</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.261091817170383e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>203564.6653126943</v>
+        <v>170368.7711797671</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999091</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1170.585694982309</v>
       </c>
       <c r="L3" t="n">
-        <v>49829.0917467043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>54198.88439295653</v>
+        <v>112031.8587974743</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386095.5528670329</v>
+        <v>386863.3429119225</v>
       </c>
       <c r="C4" t="n">
         <v>386095.5528670329</v>
       </c>
       <c r="D4" t="n">
-        <v>354433.2672769093</v>
+        <v>386095.5528670329</v>
       </c>
       <c r="E4" t="n">
-        <v>77798.35504820556</v>
+        <v>78195.5908943652</v>
       </c>
       <c r="F4" t="n">
-        <v>77798.35504820553</v>
+        <v>78195.59089436522</v>
       </c>
       <c r="G4" t="n">
         <v>80234.2943167757</v>
@@ -26438,10 +26438,10 @@
         <v>80234.2943167757</v>
       </c>
       <c r="I4" t="n">
-        <v>80234.29431677572</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="J4" t="n">
-        <v>80234.29431677572</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="K4" t="n">
         <v>80234.29431677572</v>
@@ -26453,13 +26453,13 @@
         <v>80234.29431677572</v>
       </c>
       <c r="N4" t="n">
-        <v>80234.29431677572</v>
+        <v>80234.2943167757</v>
       </c>
       <c r="O4" t="n">
-        <v>56624.0712693942</v>
+        <v>60474.26041460632</v>
       </c>
       <c r="P4" t="n">
-        <v>56624.07126939419</v>
+        <v>60474.26041460632</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
         <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>32062.31718005102</v>
+        <v>34862.14320172168</v>
       </c>
       <c r="F5" t="n">
-        <v>32062.31718005101</v>
+        <v>34862.14320172169</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>36111.75222477534</v>
+        <v>38251.22485536832</v>
       </c>
       <c r="P5" t="n">
-        <v>36111.75222477534</v>
+        <v>38251.22485536832</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55428.96696663577</v>
+        <v>56461.95168828471</v>
       </c>
       <c r="C6" t="n">
-        <v>70218.67297087981</v>
+        <v>68749.25205025378</v>
       </c>
       <c r="D6" t="n">
-        <v>28753.03402999161</v>
+        <v>70218.67297087998</v>
       </c>
       <c r="E6" t="n">
-        <v>-54882.66023888254</v>
+        <v>-148439.6479226356</v>
       </c>
       <c r="F6" t="n">
-        <v>164299.629255323</v>
+        <v>164370.1139387084</v>
       </c>
       <c r="G6" t="n">
-        <v>13952.69432602949</v>
+        <v>41080.17471313763</v>
       </c>
       <c r="H6" t="n">
-        <v>217517.3596387238</v>
+        <v>211448.9458929046</v>
       </c>
       <c r="I6" t="n">
-        <v>217517.3596387239</v>
+        <v>211448.9458929046</v>
       </c>
       <c r="J6" t="n">
-        <v>205970.4415287328</v>
+        <v>201092.0619891008</v>
       </c>
       <c r="K6" t="n">
-        <v>217517.359638724</v>
+        <v>210278.3601979222</v>
       </c>
       <c r="L6" t="n">
-        <v>167688.2678920194</v>
+        <v>211448.9458929047</v>
       </c>
       <c r="M6" t="n">
-        <v>163318.4752457676</v>
+        <v>99417.08709543038</v>
       </c>
       <c r="N6" t="n">
-        <v>217517.3596387237</v>
+        <v>211448.9458929047</v>
       </c>
       <c r="O6" t="n">
-        <v>192948.2896936437</v>
+        <v>188748.8101898805</v>
       </c>
       <c r="P6" t="n">
-        <v>192948.2896936438</v>
+        <v>188748.8101898807</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>191.989763082943</v>
+        <v>222.2812030406355</v>
       </c>
       <c r="F3" t="n">
-        <v>191.989763082943</v>
+        <v>222.2812030406356</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>458.5023083033365</v>
+        <v>493.6910028854577</v>
       </c>
       <c r="F4" t="n">
-        <v>458.5023083033364</v>
+        <v>493.6910028854577</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>458.5023083033364</v>
+        <v>493.6910028854577</v>
       </c>
       <c r="P4" t="n">
-        <v>458.5023083033364</v>
+        <v>493.6910028854577</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>191.989763082943</v>
+        <v>222.2812030406355</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.39075054832453e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>185.7539011341436</v>
+        <v>155.4624611764511</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="D4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>217.4880194256775</v>
+        <v>449.5588305062291</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>215.7849644512191</v>
+        <v>180.5962698690977</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922868</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.548295417387976</v>
       </c>
       <c r="L4" t="n">
-        <v>196.8821164984306</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>217.4880194256775</v>
+        <v>449.5588305062291</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="L4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>217.4880194256775</v>
+        <v>449.5588305062291</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7849644512191</v>
+        <v>180.5962698690977</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>369.6694160361741</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.8460826936197</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27463,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>99.21849105784395</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,10 +27511,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>191.8224945792435</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="4">
@@ -27551,10 +27551,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>181.8154159451679</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F5" t="n">
         <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>386.4218192980553</v>
+        <v>388.380409438123</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>62.03280804727645</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,7 +27751,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>43.96086115989003</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>139.2194709966959</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27940,22 +27940,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>3.717230025845026</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>74.11041813112978</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>205.7779651231156</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7718181430470065</v>
+        <v>0.8935927760427551</v>
       </c>
       <c r="H11" t="n">
-        <v>7.904382557480157</v>
+        <v>9.151507017647868</v>
       </c>
       <c r="I11" t="n">
-        <v>29.75551895981975</v>
+        <v>34.45023549838834</v>
       </c>
       <c r="J11" t="n">
-        <v>65.50710011843593</v>
+        <v>75.84256987565885</v>
       </c>
       <c r="K11" t="n">
-        <v>98.17816211361573</v>
+        <v>113.6683520855487</v>
       </c>
       <c r="L11" t="n">
-        <v>121.7986916088906</v>
+        <v>141.0156420053672</v>
       </c>
       <c r="M11" t="n">
-        <v>135.5245125103028</v>
+        <v>156.9070725363175</v>
       </c>
       <c r="N11" t="n">
-        <v>137.7174408092351</v>
+        <v>159.445993011249</v>
       </c>
       <c r="O11" t="n">
-        <v>130.0426741493114</v>
+        <v>150.5603298444739</v>
       </c>
       <c r="P11" t="n">
-        <v>110.9884137428384</v>
+        <v>128.4997581859183</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.34767649496747</v>
+        <v>96.49796689388714</v>
       </c>
       <c r="R11" t="n">
-        <v>48.48272142817656</v>
+        <v>56.13214721809576</v>
       </c>
       <c r="S11" t="n">
-        <v>17.58780593468368</v>
+        <v>20.3627453840743</v>
       </c>
       <c r="T11" t="n">
-        <v>3.378633921188273</v>
+        <v>3.911702377127162</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0617454514437605</v>
+        <v>0.07148742208342039</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4129591130463303</v>
+        <v>0.4781142857855178</v>
       </c>
       <c r="H12" t="n">
-        <v>3.988315644421137</v>
+        <v>4.617577444296976</v>
       </c>
       <c r="I12" t="n">
-        <v>14.21810981321795</v>
+        <v>16.46139097989612</v>
       </c>
       <c r="J12" t="n">
-        <v>39.01558006197808</v>
+        <v>45.17131504432387</v>
       </c>
       <c r="K12" t="n">
-        <v>66.68384063608219</v>
+        <v>77.20497219195356</v>
       </c>
       <c r="L12" t="n">
-        <v>89.66465303227447</v>
+        <v>103.8116127974213</v>
       </c>
       <c r="M12" t="n">
-        <v>104.6344208802039</v>
+        <v>121.1432556571463</v>
       </c>
       <c r="N12" t="n">
-        <v>107.4037826514664</v>
+        <v>124.3495571613834</v>
       </c>
       <c r="O12" t="n">
-        <v>98.25347809396612</v>
+        <v>113.7555511447675</v>
       </c>
       <c r="P12" t="n">
-        <v>78.85707835004881</v>
+        <v>91.29885866021877</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.71386853552806</v>
+        <v>61.03086918202506</v>
       </c>
       <c r="R12" t="n">
-        <v>25.63968949247304</v>
+        <v>29.68502556833243</v>
       </c>
       <c r="S12" t="n">
-        <v>7.670534402417577</v>
+        <v>8.880763159217837</v>
       </c>
       <c r="T12" t="n">
-        <v>1.664515021445515</v>
+        <v>1.927136090512679</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02716836270041647</v>
+        <v>0.03145488722273145</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3462110481823562</v>
+        <v>0.4008349563027853</v>
       </c>
       <c r="H13" t="n">
-        <v>3.078130955657678</v>
+        <v>3.563787156946584</v>
       </c>
       <c r="I13" t="n">
-        <v>10.41151043079304</v>
+        <v>12.05420032226922</v>
       </c>
       <c r="J13" t="n">
-        <v>24.47712110649258</v>
+        <v>28.33903141060692</v>
       </c>
       <c r="K13" t="n">
-        <v>40.2234290524592</v>
+        <v>46.56973401408722</v>
       </c>
       <c r="L13" t="n">
-        <v>51.47214074522049</v>
+        <v>59.59322613977956</v>
       </c>
       <c r="M13" t="n">
-        <v>54.27015548916697</v>
+        <v>62.83270137753568</v>
       </c>
       <c r="N13" t="n">
-        <v>52.97973249139642</v>
+        <v>61.33868017677081</v>
       </c>
       <c r="O13" t="n">
-        <v>48.93535797399342</v>
+        <v>56.65619909632461</v>
       </c>
       <c r="P13" t="n">
-        <v>41.87265259107332</v>
+        <v>48.47916598774776</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.99045422552439</v>
+        <v>33.56446165913596</v>
       </c>
       <c r="R13" t="n">
-        <v>15.56690767554485</v>
+        <v>18.0229972170325</v>
       </c>
       <c r="S13" t="n">
-        <v>6.033514357868878</v>
+        <v>6.985460102113082</v>
       </c>
       <c r="T13" t="n">
-        <v>1.479265387688249</v>
+        <v>1.712658449657355</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0188842389917649</v>
+        <v>0.02186372488924286</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7718181430470065</v>
+        <v>0.8935927760427554</v>
       </c>
       <c r="H14" t="n">
-        <v>7.904382557480157</v>
+        <v>9.151507017647871</v>
       </c>
       <c r="I14" t="n">
-        <v>29.75551895981975</v>
+        <v>34.45023549838836</v>
       </c>
       <c r="J14" t="n">
-        <v>65.50710011843593</v>
+        <v>75.84256987565888</v>
       </c>
       <c r="K14" t="n">
-        <v>98.17816211361573</v>
+        <v>113.6683520855487</v>
       </c>
       <c r="L14" t="n">
-        <v>121.7986916088906</v>
+        <v>141.0156420053673</v>
       </c>
       <c r="M14" t="n">
-        <v>135.5245125103028</v>
+        <v>156.9070725363176</v>
       </c>
       <c r="N14" t="n">
-        <v>137.7174408092351</v>
+        <v>159.4459930112491</v>
       </c>
       <c r="O14" t="n">
-        <v>130.0426741493114</v>
+        <v>150.5603298444739</v>
       </c>
       <c r="P14" t="n">
-        <v>110.9884137428384</v>
+        <v>128.4997581859184</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.34767649496747</v>
+        <v>96.49796689388717</v>
       </c>
       <c r="R14" t="n">
-        <v>48.48272142817656</v>
+        <v>56.13214721809578</v>
       </c>
       <c r="S14" t="n">
-        <v>17.58780593468368</v>
+        <v>20.36274538407431</v>
       </c>
       <c r="T14" t="n">
-        <v>3.378633921188273</v>
+        <v>3.911702377127164</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0617454514437605</v>
+        <v>0.07148742208342042</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4129591130463303</v>
+        <v>0.4781142857855181</v>
       </c>
       <c r="H15" t="n">
-        <v>3.988315644421137</v>
+        <v>4.617577444296978</v>
       </c>
       <c r="I15" t="n">
-        <v>14.21810981321795</v>
+        <v>16.46139097989613</v>
       </c>
       <c r="J15" t="n">
-        <v>39.01558006197808</v>
+        <v>45.17131504432388</v>
       </c>
       <c r="K15" t="n">
-        <v>66.68384063608219</v>
+        <v>77.20497219195359</v>
       </c>
       <c r="L15" t="n">
-        <v>89.66465303227447</v>
+        <v>103.8116127974214</v>
       </c>
       <c r="M15" t="n">
-        <v>104.6344208802039</v>
+        <v>121.1432556571464</v>
       </c>
       <c r="N15" t="n">
-        <v>107.4037826514664</v>
+        <v>124.3495571613835</v>
       </c>
       <c r="O15" t="n">
-        <v>98.25347809396612</v>
+        <v>113.7555511447675</v>
       </c>
       <c r="P15" t="n">
-        <v>78.85707835004881</v>
+        <v>91.2988586602188</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.71386853552806</v>
+        <v>61.03086918202508</v>
       </c>
       <c r="R15" t="n">
-        <v>25.63968949247304</v>
+        <v>29.68502556833244</v>
       </c>
       <c r="S15" t="n">
-        <v>7.670534402417577</v>
+        <v>8.880763159217841</v>
       </c>
       <c r="T15" t="n">
-        <v>1.664515021445515</v>
+        <v>1.92713609051268</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02716836270041647</v>
+        <v>0.03145488722273147</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3462110481823562</v>
+        <v>0.4008349563027854</v>
       </c>
       <c r="H16" t="n">
-        <v>3.078130955657678</v>
+        <v>3.563787156946586</v>
       </c>
       <c r="I16" t="n">
-        <v>10.41151043079304</v>
+        <v>12.05420032226922</v>
       </c>
       <c r="J16" t="n">
-        <v>24.47712110649258</v>
+        <v>28.33903141060693</v>
       </c>
       <c r="K16" t="n">
-        <v>40.2234290524592</v>
+        <v>46.56973401408724</v>
       </c>
       <c r="L16" t="n">
-        <v>51.47214074522049</v>
+        <v>59.59322613977958</v>
       </c>
       <c r="M16" t="n">
-        <v>54.27015548916697</v>
+        <v>62.83270137753571</v>
       </c>
       <c r="N16" t="n">
-        <v>52.97973249139642</v>
+        <v>61.33868017677084</v>
       </c>
       <c r="O16" t="n">
-        <v>48.93535797399342</v>
+        <v>56.65619909632463</v>
       </c>
       <c r="P16" t="n">
-        <v>41.87265259107332</v>
+        <v>48.47916598774778</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.99045422552439</v>
+        <v>33.56446165913597</v>
       </c>
       <c r="R16" t="n">
-        <v>15.56690767554485</v>
+        <v>18.02299721703251</v>
       </c>
       <c r="S16" t="n">
-        <v>6.033514357868878</v>
+        <v>6.985460102113085</v>
       </c>
       <c r="T16" t="n">
-        <v>1.479265387688249</v>
+        <v>1.712658449657355</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0188842389917649</v>
+        <v>0.02186372488924287</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330019</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P6" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>53.55781076382341</v>
+        <v>63.89328052104634</v>
       </c>
       <c r="K11" t="n">
-        <v>202.2337236397999</v>
+        <v>217.7239136117329</v>
       </c>
       <c r="L11" t="n">
-        <v>303.6934911893538</v>
+        <v>322.9104415858304</v>
       </c>
       <c r="M11" t="n">
-        <v>354.6918127758626</v>
+        <v>376.0743728018773</v>
       </c>
       <c r="N11" t="n">
-        <v>345.6513016246283</v>
+        <v>367.3798538266423</v>
       </c>
       <c r="O11" t="n">
-        <v>280.74464399037</v>
+        <v>301.2622996855325</v>
       </c>
       <c r="P11" t="n">
-        <v>201.5541261590515</v>
+        <v>219.0654706021314</v>
       </c>
       <c r="Q11" t="n">
-        <v>73.35697728042267</v>
+        <v>86.50726767934233</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>44.42472371806601</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>203.8287702301732</v>
       </c>
       <c r="L12" t="n">
-        <v>321.9506185558595</v>
+        <v>336.0975783210063</v>
       </c>
       <c r="M12" t="n">
-        <v>428.2054507081855</v>
+        <v>444.7142854851279</v>
       </c>
       <c r="N12" t="n">
-        <v>452.4628256573604</v>
+        <v>472.3502194216037</v>
       </c>
       <c r="O12" t="n">
-        <v>349.5195529262512</v>
+        <v>177.6141032523328</v>
       </c>
       <c r="P12" t="n">
-        <v>263.3454395756557</v>
+        <v>275.7872198858257</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>17.95393722657634</v>
+        <v>24.30024218820437</v>
       </c>
       <c r="L13" t="n">
-        <v>79.06216600553662</v>
+        <v>87.1832514000957</v>
       </c>
       <c r="M13" t="n">
-        <v>93.85403245100755</v>
+        <v>102.4165783393763</v>
       </c>
       <c r="N13" t="n">
-        <v>97.11190487062501</v>
+        <v>105.4708525559994</v>
       </c>
       <c r="O13" t="n">
-        <v>73.52048588803309</v>
+        <v>81.24132701036429</v>
       </c>
       <c r="P13" t="n">
-        <v>39.15121185596681</v>
+        <v>45.75772525264124</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>53.55781076382285</v>
+        <v>63.89328052104636</v>
       </c>
       <c r="K14" t="n">
-        <v>202.2337236397999</v>
+        <v>217.7239136117329</v>
       </c>
       <c r="L14" t="n">
-        <v>303.6934911893538</v>
+        <v>322.9104415858304</v>
       </c>
       <c r="M14" t="n">
-        <v>354.6918127758626</v>
+        <v>376.0743728018774</v>
       </c>
       <c r="N14" t="n">
-        <v>345.6513016246283</v>
+        <v>367.3798538266423</v>
       </c>
       <c r="O14" t="n">
-        <v>280.74464399037</v>
+        <v>301.2622996855325</v>
       </c>
       <c r="P14" t="n">
-        <v>201.5541261590515</v>
+        <v>219.0654706021315</v>
       </c>
       <c r="Q14" t="n">
-        <v>73.35697728042267</v>
+        <v>86.50726767934236</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>38.26898873572022</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>321.9506185558595</v>
+        <v>265.817166712673</v>
       </c>
       <c r="M15" t="n">
-        <v>428.2054507081855</v>
+        <v>444.714285485128</v>
       </c>
       <c r="N15" t="n">
-        <v>414.1938369216398</v>
+        <v>472.3502194216037</v>
       </c>
       <c r="O15" t="n">
-        <v>349.5195529262512</v>
+        <v>365.0216259770526</v>
       </c>
       <c r="P15" t="n">
-        <v>263.3454395756557</v>
+        <v>275.7872198858257</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>131.1263828318527</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>17.95393722657634</v>
+        <v>24.30024218820439</v>
       </c>
       <c r="L16" t="n">
-        <v>79.06216600553662</v>
+        <v>87.18325140009571</v>
       </c>
       <c r="M16" t="n">
-        <v>93.85403245100755</v>
+        <v>102.4165783393763</v>
       </c>
       <c r="N16" t="n">
-        <v>97.11190487062501</v>
+        <v>105.4708525559994</v>
       </c>
       <c r="O16" t="n">
-        <v>73.52048588803309</v>
+        <v>81.2413270103643</v>
       </c>
       <c r="P16" t="n">
-        <v>39.15121185596681</v>
+        <v>45.75772525264127</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O18" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>3.87492489307968</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>69.44775291982903</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>458.5023083033364</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>271.3475993809434</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.3763664928513465</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>37.86260226792652</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>458.5023083033364</v>
+        <v>424.0880511511294</v>
       </c>
       <c r="N42" t="n">
-        <v>458.5023083033364</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38025,19 +38025,19 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>458.5023083033364</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>41.54873083723948</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>325.738932596864</v>
+        <v>271.3475993809434</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>76.39370225055825</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>37.86260226792652</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>458.5023083033364</v>
+        <v>63.73626307629385</v>
       </c>
       <c r="N45" t="n">
-        <v>458.5023083033364</v>
+        <v>440.3291471651721</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
